--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -679,13 +679,13 @@
         <v>5.2</v>
       </c>
       <c r="J2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.2</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,22 +694,22 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
@@ -718,61 +718,61 @@
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -829,25 +829,25 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V3" t="n">
         <v>1.39</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1231,10 +1231,10 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
         <v>2.38</v>
@@ -1243,16 +1243,16 @@
         <v>1.61</v>
       </c>
       <c r="R6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
         <v>2.52</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>22</v>
@@ -1291,7 +1291,7 @@
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G10" t="n">
         <v>3.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I10" t="n">
         <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
@@ -1780,7 +1780,7 @@
         <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G14" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
         <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>2.04</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
         <v>3.75</v>
@@ -2587,7 +2587,7 @@
         <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
         <v>1.98</v>
@@ -2716,7 +2716,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
         <v>1.37</v>
@@ -2734,7 +2734,7 @@
         <v>3.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2758,7 +2758,7 @@
         <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>7.8</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J18" t="n">
         <v>3.85</v>
@@ -2896,7 +2896,7 @@
         <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2995,7 +2995,7 @@
         <v>1.93</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
         <v>1.37</v>
@@ -3031,7 +3031,7 @@
         <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>16</v>
@@ -3052,7 +3052,7 @@
         <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
         <v>29</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T20" t="n">
         <v>1.91</v>
@@ -3157,7 +3157,7 @@
         <v>26</v>
       </c>
       <c r="Z20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA20" t="n">
         <v>230</v>
@@ -3238,10 +3238,10 @@
         <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
@@ -3295,7 +3295,7 @@
         <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
         <v>11.5</v>
@@ -3322,10 +3322,10 @@
         <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>42</v>
@@ -3334,10 +3334,10 @@
         <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -3373,7 +3373,7 @@
         <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="I22" t="n">
         <v>11.5</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>2.42</v>
       </c>
       <c r="G23" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H23" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I23" t="n">
         <v>2.86</v>
@@ -3643,13 +3643,13 @@
         <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I24" t="n">
         <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K24" t="n">
         <v>5.9</v>
@@ -3661,13 +3661,13 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q24" t="n">
         <v>1.68</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H25" t="n">
         <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="J25" t="n">
         <v>4.1</v>
@@ -3910,10 +3910,10 @@
         <v>1.71</v>
       </c>
       <c r="G26" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="I26" t="n">
         <v>5.4</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G27" t="n">
         <v>2.76</v>
@@ -4180,16 +4180,16 @@
         <v>2.32</v>
       </c>
       <c r="G28" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="K28" t="n">
         <v>4.1</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="G29" t="n">
         <v>3.2</v>
@@ -4321,7 +4321,7 @@
         <v>2.36</v>
       </c>
       <c r="I29" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="J29" t="n">
         <v>3.45</v>
@@ -4615,7 +4615,7 @@
         <v>2.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="G33" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="H33" t="n">
-        <v>2.34</v>
+        <v>5.6</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="J33" t="n">
         <v>4.2</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5026,13 +5026,13 @@
         <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T34" t="n">
         <v>2.1</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         <v>8.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA34" t="n">
         <v>50</v>
@@ -5059,7 +5059,7 @@
         <v>6.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE34" t="n">
         <v>44</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H35" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.85</v>
       </c>
       <c r="K35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>2.06</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H36" t="n">
         <v>6.4</v>
@@ -5290,7 +5290,7 @@
         <v>1.9</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="G37" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="I37" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="J37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K37" t="n">
         <v>1000</v>
@@ -5425,7 +5425,7 @@
         <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>1.82</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>2.06</v>
       </c>
       <c r="H39" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
         <v>3.95</v>
@@ -5692,19 +5692,19 @@
         <v>1.21</v>
       </c>
       <c r="P39" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S39" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T39" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U39" t="n">
         <v>2.56</v>
@@ -5722,7 +5722,7 @@
         <v>21</v>
       </c>
       <c r="Z39" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA39" t="n">
         <v>80</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G41" t="n">
         <v>2.02</v>
@@ -5941,10 +5941,10 @@
         <v>1.98</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="J41" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
         <v>1000</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="G43" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="H43" t="n">
         <v>1.33</v>
@@ -6217,7 +6217,7 @@
         <v>4.6</v>
       </c>
       <c r="K43" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>2.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>70</v>
       </c>
       <c r="AE44" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
         <v>6.4</v>
@@ -6631,7 +6631,7 @@
         <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O46" t="n">
         <v>1.24</v>
@@ -6652,7 +6652,7 @@
         <v>1.85</v>
       </c>
       <c r="U46" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z46" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA46" t="n">
         <v>14</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G47" t="n">
         <v>2.02</v>
@@ -6751,7 +6751,7 @@
         <v>4.2</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="J47" t="n">
         <v>3.6</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6904,7 +6904,7 @@
         <v>4.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P48" t="n">
         <v>2.18</v>
@@ -6913,10 +6913,10 @@
         <v>1.81</v>
       </c>
       <c r="R48" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S48" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
         <v>1.68</v>
@@ -7018,10 +7018,10 @@
         <v>2.48</v>
       </c>
       <c r="H49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J49" t="n">
         <v>3.15</v>
@@ -7045,7 +7045,7 @@
         <v>2.06</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R50" t="n">
         <v>1.44</v>
@@ -7225,7 +7225,7 @@
         <v>28</v>
       </c>
       <c r="AF50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG50" t="n">
         <v>13.5</v>
@@ -7291,7 +7291,7 @@
         <v>11</v>
       </c>
       <c r="I51" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J51" t="n">
         <v>6.8</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>5.8</v>
       </c>
       <c r="G54" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H54" t="n">
         <v>1.56</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G55" t="n">
         <v>2.26</v>
@@ -7831,7 +7831,7 @@
         <v>3.95</v>
       </c>
       <c r="I55" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
         <v>3.15</v>
@@ -7855,7 +7855,7 @@
         <v>1.64</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>1.51</v>
       </c>
       <c r="S56" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T56" t="n">
         <v>1.67</v>
@@ -8032,7 +8032,7 @@
         <v>18.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF56" t="n">
         <v>13.5</v>
@@ -8095,10 +8095,10 @@
         <v>3.55</v>
       </c>
       <c r="G57" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I57" t="n">
         <v>2.42</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
         <v>1.77</v>
@@ -685,7 +685,7 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,25 +694,25 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
         <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
@@ -754,7 +754,7 @@
         <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
         <v>18.5</v>
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -829,25 +829,25 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>1.39</v>
@@ -856,58 +856,58 @@
         <v>1.73</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
         <v>32</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -1105,7 +1105,7 @@
         <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
         <v>1.42</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
         <v>2.1</v>
@@ -1231,7 +1231,7 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
@@ -1246,13 +1246,13 @@
         <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="I7" t="n">
         <v>1.62</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>2.68</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
         <v>2.46</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
@@ -1780,7 +1780,7 @@
         <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
         <v>4.8</v>
@@ -2155,16 +2155,16 @@
         <v>1.01</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>1.17</v>
       </c>
       <c r="H13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="K13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H15" t="n">
         <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
         <v>5.2</v>
@@ -2563,13 +2563,13 @@
         <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I16" t="n">
         <v>2.04</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>3.75</v>
@@ -2587,7 +2587,7 @@
         <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
         <v>1.98</v>
@@ -2596,7 +2596,7 @@
         <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T16" t="n">
         <v>1.81</v>
@@ -2695,7 +2695,7 @@
         <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H17" t="n">
         <v>4.1</v>
@@ -2707,7 +2707,7 @@
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
         <v>1.37</v>
@@ -2734,7 +2734,7 @@
         <v>3.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2758,7 +2758,7 @@
         <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC17" t="n">
         <v>7.8</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G18" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
         <v>4.4</v>
@@ -2851,16 +2851,16 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
         <v>1.38</v>
@@ -2872,7 +2872,7 @@
         <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
         <v>18</v>
@@ -2911,7 +2911,7 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2926,7 +2926,7 @@
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
         <v>14.5</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G19" t="n">
         <v>2.68</v>
       </c>
       <c r="H19" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I19" t="n">
         <v>3.1</v>
@@ -2995,7 +2995,7 @@
         <v>1.93</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
         <v>1.37</v>
@@ -3025,7 +3025,7 @@
         <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
@@ -3100,7 +3100,7 @@
         <v>1.54</v>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H20" t="n">
         <v>7</v>
@@ -3136,10 +3136,10 @@
         <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T20" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U20" t="n">
         <v>2.04</v>
@@ -3319,7 +3319,7 @@
         <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ21" t="n">
         <v>40</v>
@@ -3331,13 +3331,13 @@
         <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G22" t="n">
         <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="I22" t="n">
         <v>11.5</v>
@@ -3382,7 +3382,7 @@
         <v>4.9</v>
       </c>
       <c r="K22" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H23" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I23" t="n">
         <v>2.86</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
         <v>1.57</v>
@@ -3643,13 +3643,13 @@
         <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I24" t="n">
         <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K24" t="n">
         <v>5.9</v>
@@ -3661,13 +3661,13 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q24" t="n">
         <v>1.68</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G25" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
         <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
         <v>4.9</v>
@@ -3913,13 +3913,13 @@
         <v>1.87</v>
       </c>
       <c r="H26" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
         <v>5.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
         <v>4.7</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G27" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I28" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
         <v>2.36</v>
       </c>
       <c r="I29" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="J29" t="n">
         <v>3.45</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4591,7 +4591,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="J31" t="n">
         <v>5</v>
@@ -4615,7 +4615,7 @@
         <v>2.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>2.54</v>
       </c>
       <c r="G32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q32" t="n">
         <v>1.87</v>
@@ -4855,16 +4855,16 @@
         <v>1.51</v>
       </c>
       <c r="G33" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H33" t="n">
         <v>5.6</v>
       </c>
       <c r="I33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K33" t="n">
         <v>6.2</v>
@@ -4885,7 +4885,7 @@
         <v>2.54</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5014,7 +5014,7 @@
         <v>2.84</v>
       </c>
       <c r="O34" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P34" t="n">
         <v>1.59</v>
@@ -5026,7 +5026,7 @@
         <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T34" t="n">
         <v>2.1</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G35" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J35" t="n">
         <v>3.85</v>
       </c>
       <c r="K35" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G36" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
         <v>6.4</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="G37" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H37" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="I37" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="J37" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="K37" t="n">
         <v>1000</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5530,10 +5530,10 @@
         <v>2.16</v>
       </c>
       <c r="G38" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H38" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
         <v>3.8</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5698,16 +5698,16 @@
         <v>1.66</v>
       </c>
       <c r="R39" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T39" t="n">
         <v>1.59</v>
       </c>
       <c r="U39" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G41" t="n">
         <v>2.02</v>
       </c>
       <c r="H41" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K41" t="n">
         <v>1000</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>2.12</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>4.5</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G43" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="H43" t="n">
         <v>1.33</v>
@@ -6214,10 +6214,10 @@
         <v>1.42</v>
       </c>
       <c r="J43" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K43" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>70</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF44" t="n">
         <v>6.4</v>
@@ -6640,7 +6640,7 @@
         <v>2.38</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R46" t="n">
         <v>1.53</v>
@@ -6667,7 +6667,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z46" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA46" t="n">
         <v>14</v>
@@ -6703,7 +6703,7 @@
         <v>110</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM46" t="n">
         <v>110</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="G47" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I47" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J47" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K47" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6916,13 +6916,13 @@
         <v>1.46</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T48" t="n">
         <v>1.68</v>
       </c>
       <c r="U48" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G49" t="n">
         <v>2.48</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J49" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K49" t="n">
         <v>3.55</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q50" t="n">
         <v>1.83</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G51" t="n">
         <v>1.26</v>
       </c>
       <c r="H51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I51" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J51" t="n">
         <v>6.8</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>2.64</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="G54" t="n">
         <v>6.4</v>
@@ -7732,7 +7732,7 @@
         <v>1.58</v>
       </c>
       <c r="U54" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G55" t="n">
         <v>2.26</v>
@@ -7831,10 +7831,10 @@
         <v>3.95</v>
       </c>
       <c r="I55" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J55" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K55" t="n">
         <v>3.45</v>
@@ -7996,7 +7996,7 @@
         <v>1.51</v>
       </c>
       <c r="S56" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T56" t="n">
         <v>1.67</v>
@@ -8095,10 +8095,10 @@
         <v>3.55</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H57" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I57" t="n">
         <v>2.42</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -805,7 +805,7 @@
         <v>2.24</v>
       </c>
       <c r="G3" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -853,7 +853,7 @@
         <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
@@ -880,7 +880,7 @@
         <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -904,7 +904,7 @@
         <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO3" t="n">
         <v>38</v>
@@ -943,16 +943,16 @@
         <v>1.79</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>3.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
         <v>1.86</v>
@@ -982,7 +982,7 @@
         <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H5" t="n">
         <v>4.8</v>
@@ -1174,7 +1174,7 @@
         <v>95</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
         <v>65</v>
@@ -1210,16 +1210,16 @@
         <v>2.06</v>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
@@ -1237,19 +1237,19 @@
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
         <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U6" t="n">
         <v>2.38</v>
@@ -1264,7 +1264,7 @@
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
         <v>28</v>
@@ -1285,10 +1285,10 @@
         <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>16.5</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>29</v>
@@ -1480,7 +1480,7 @@
         <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
@@ -1510,7 +1510,7 @@
         <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
         <v>1.31</v>
@@ -1645,7 +1645,7 @@
         <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="I10" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
@@ -2056,7 +2056,7 @@
         <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
         <v>1.98</v>
@@ -2095,7 +2095,7 @@
         <v>70</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
@@ -2155,7 +2155,7 @@
         <v>1.01</v>
       </c>
       <c r="G13" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="H13" t="n">
         <v>30</v>
@@ -2164,7 +2164,7 @@
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="K13" t="n">
         <v>1000</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
@@ -2302,7 +2302,7 @@
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q14" t="n">
         <v>1.97</v>
@@ -2425,10 +2425,10 @@
         <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>4.9</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G16" t="n">
         <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.75</v>
@@ -2581,13 +2581,13 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
         <v>1.98</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
@@ -2830,7 +2830,7 @@
         <v>1.9</v>
       </c>
       <c r="G18" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
         <v>3.95</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G19" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="H19" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="I19" t="n">
         <v>3.1</v>
@@ -3103,16 +3103,16 @@
         <v>1.56</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J20" t="n">
         <v>4.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>2.92</v>
       </c>
       <c r="T20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U20" t="n">
         <v>2.04</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="I21" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
@@ -3256,28 +3256,28 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,40 +3286,40 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
         <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
         <v>36</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
         <v>40</v>
@@ -3331,10 +3331,10 @@
         <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="H24" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K24" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
         <v>1.49</v>
@@ -3679,10 +3679,10 @@
         <v>2.72</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U24" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3703,43 +3703,43 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3781,7 +3781,7 @@
         <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="J25" t="n">
         <v>4.2</v>
@@ -4045,7 +4045,7 @@
         <v>2.4</v>
       </c>
       <c r="G27" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="H27" t="n">
         <v>2.6</v>
@@ -4186,13 +4186,13 @@
         <v>3.05</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
         <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4453,17 +4453,17 @@
         <v>1.43</v>
       </c>
       <c r="H30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>17</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K30" t="n">
         <v>6.8</v>
       </c>
-      <c r="I30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>6.4</v>
-      </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>5.6</v>
       </c>
       <c r="I33" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J33" t="n">
         <v>4.3</v>
@@ -4993,10 +4993,10 @@
         <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I34" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J34" t="n">
         <v>3.05</v>
@@ -5026,7 +5026,7 @@
         <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T34" t="n">
         <v>2.1</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G35" t="n">
         <v>1.89</v>
@@ -5137,7 +5137,7 @@
         <v>3.85</v>
       </c>
       <c r="K35" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5260,7 +5260,7 @@
         <v>1.54</v>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H36" t="n">
         <v>6.4</v>
@@ -5290,7 +5290,7 @@
         <v>1.89</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5395,10 +5395,10 @@
         <v>2.86</v>
       </c>
       <c r="G37" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H37" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="I37" t="n">
         <v>1.53</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q38" t="n">
         <v>1.87</v>
@@ -5707,7 +5707,7 @@
         <v>1.59</v>
       </c>
       <c r="U39" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="G42" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="H42" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="I42" t="n">
-        <v>2.12</v>
+        <v>2.48</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="K42" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         <v>1.42</v>
       </c>
       <c r="J43" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="K43" t="n">
         <v>6.2</v>
@@ -6361,13 +6361,13 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O44" t="n">
         <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q44" t="n">
         <v>1.92</v>
@@ -6742,52 +6742,52 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G47" t="n">
         <v>1.95</v>
       </c>
       <c r="H47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K47" t="n">
         <v>4.4</v>
       </c>
-      <c r="I47" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P47" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6796,58 +6796,58 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G49" t="n">
         <v>2.48</v>
       </c>
       <c r="H49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J49" t="n">
         <v>3.2</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="G50" t="n">
         <v>3.05</v>
       </c>
       <c r="H50" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I50" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="J50" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K50" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7288,10 +7288,10 @@
         <v>1.26</v>
       </c>
       <c r="H51" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I51" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J51" t="n">
         <v>6.8</v>
@@ -7423,7 +7423,7 @@
         <v>8.6</v>
       </c>
       <c r="H52" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I52" t="n">
         <v>1.55</v>
@@ -7576,7 +7576,7 @@
         <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O53" t="n">
         <v>1.38</v>
@@ -7732,7 +7732,7 @@
         <v>1.58</v>
       </c>
       <c r="U54" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G55" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H55" t="n">
         <v>3.95</v>
@@ -7837,7 +7837,7 @@
         <v>3.2</v>
       </c>
       <c r="K55" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q55" t="n">
         <v>2.48</v>
@@ -7963,7 +7963,7 @@
         <v>1.96</v>
       </c>
       <c r="H56" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I56" t="n">
         <v>4.6</v>
@@ -8104,7 +8104,7 @@
         <v>2.42</v>
       </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
         <v>3.35</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,16 +700,16 @@
         <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
         <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -751,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
         <v>75</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G3" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
@@ -853,7 +853,7 @@
         <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1.79</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.55</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.9</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE4" t="n">
         <v>50</v>
       </c>
-      <c r="AA4" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>85</v>
-      </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18.5</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="AO4" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.86</v>
       </c>
-      <c r="H5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="Q5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.9</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.2</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>17.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.06</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.36</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>18</v>
       </c>
-      <c r="AE6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.64</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
-        <v>1.38</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.62</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,61 +1468,61 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>2.64</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>1.38</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>1.62</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,61 +1603,61 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.45</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,64 +1666,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.54</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>2.04</v>
       </c>
       <c r="H10" t="n">
-        <v>2.54</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.96</v>
+        <v>2.36</v>
       </c>
       <c r="G11" t="n">
-        <v>1.98</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>5.1</v>
+        <v>2.74</v>
       </c>
       <c r="I11" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.56</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.7</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,61 +2008,61 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>1.15</v>
+        <v>1.98</v>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>5.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J13" t="n">
-        <v>10.5</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="P13" t="n">
-        <v>1.02</v>
+        <v>1.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.97</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.46</v>
-      </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.97</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>1.15</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>30</v>
       </c>
       <c r="I15" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>11</v>
       </c>
       <c r="K15" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>1.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,66 +2543,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>1.82</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2683,61 +2683,61 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.14</v>
+        <v>5.1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>1.86</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>1.98</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.55</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.25</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,58 +2746,58 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO17" t="n">
         <v>15</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2818,62 +2818,62 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U18" t="n">
         <v>2</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
@@ -2881,58 +2881,58 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN18" t="n">
         <v>21</v>
       </c>
-      <c r="Y18" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.56</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>2.74</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2986,28 +2986,28 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
         <v>1000</v>
       </c>
-      <c r="AK19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>46</v>
-      </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,61 +3088,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.54</v>
+        <v>2.56</v>
       </c>
       <c r="G20" t="n">
-        <v>1.56</v>
+        <v>2.76</v>
       </c>
       <c r="H20" t="n">
-        <v>7.2</v>
+        <v>2.84</v>
       </c>
       <c r="I20" t="n">
-        <v>7.6</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>2.26</v>
+        <v>1.93</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,58 +3151,58 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
         <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.2</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3223,62 +3223,62 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>1.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.98</v>
+        <v>7.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>7.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.91</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="U21" t="n">
         <v>2.04</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.18</v>
-      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
@@ -3286,64 +3286,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>14</v>
       </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>40</v>
-      </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>7.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,61 +3358,61 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.35</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>2.64</v>
       </c>
       <c r="H22" t="n">
-        <v>9.4</v>
+        <v>2.96</v>
       </c>
       <c r="I22" t="n">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.9</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P22" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.4</v>
+        <v>1.35</v>
       </c>
       <c r="G23" t="n">
-        <v>2.62</v>
+        <v>1.45</v>
       </c>
       <c r="H23" t="n">
-        <v>2.7</v>
+        <v>9.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.86</v>
+        <v>11.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,61 +3628,61 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="G24" t="n">
-        <v>1.37</v>
+        <v>2.06</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>12.5</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,58 +3691,58 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3763,31 +3763,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.71</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>2.66</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>5.8</v>
+        <v>2.86</v>
       </c>
       <c r="J25" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,61 +3898,61 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="G26" t="n">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
       <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
         <v>4.5</v>
       </c>
-      <c r="I26" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3961,58 +3961,58 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.4</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
-        <v>2.88</v>
+        <v>1.87</v>
       </c>
       <c r="H27" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.98</v>
+        <v>5.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.3</v>
+        <v>1.71</v>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>1.87</v>
       </c>
       <c r="H28" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.9</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,31 +4303,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ethnikos Achnas</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.84</v>
+        <v>2.4</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="H29" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.64</v>
+        <v>2.98</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.31</v>
+        <v>2.3</v>
       </c>
       <c r="G30" t="n">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
-        <v>6.2</v>
+        <v>3.05</v>
       </c>
       <c r="I30" t="n">
-        <v>17</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.24</v>
+        <v>1.78</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Ethnikos Achnas</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.41</v>
+        <v>2.84</v>
       </c>
       <c r="G31" t="n">
-        <v>1.52</v>
+        <v>3.25</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>2.36</v>
       </c>
       <c r="I31" t="n">
-        <v>11.5</v>
+        <v>2.64</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.54</v>
+        <v>1.31</v>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>1.43</v>
       </c>
       <c r="H32" t="n">
-        <v>2.66</v>
+        <v>6.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>17</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4843,31 +4843,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="G33" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="H33" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="J33" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.54</v>
+        <v>2.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,66 +4973,66 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G34" t="n">
         <v>3.2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3.3</v>
       </c>
       <c r="H34" t="n">
         <v>2.66</v>
       </c>
       <c r="I34" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.6</v>
+        <v>1.87</v>
       </c>
       <c r="R34" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5041,64 +5041,64 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,36 +5108,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="G35" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="H35" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="I35" t="n">
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="K35" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.04</v>
+        <v>2.54</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,61 +5248,61 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.54</v>
+        <v>3.25</v>
       </c>
       <c r="G36" t="n">
-        <v>1.64</v>
+        <v>3.35</v>
       </c>
       <c r="H36" t="n">
-        <v>6.4</v>
+        <v>2.66</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>2.72</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5311,64 +5311,64 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,36 +5378,36 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.86</v>
+        <v>1.8</v>
       </c>
       <c r="G37" t="n">
-        <v>32</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
-        <v>1.36</v>
+        <v>4.7</v>
       </c>
       <c r="I37" t="n">
-        <v>1.53</v>
+        <v>5.2</v>
       </c>
       <c r="J37" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,36 +5513,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.16</v>
+        <v>1.54</v>
       </c>
       <c r="G38" t="n">
-        <v>2.32</v>
+        <v>1.64</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,66 +5648,66 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.02</v>
+        <v>2.86</v>
       </c>
       <c r="G39" t="n">
-        <v>2.06</v>
+        <v>32</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>1.36</v>
       </c>
       <c r="I39" t="n">
-        <v>3.95</v>
+        <v>1.53</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5716,64 +5716,64 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL39" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,36 +5783,36 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="G40" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H40" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="J40" t="n">
-        <v>7.8</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.28</v>
+        <v>1.83</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,66 +5918,66 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="G41" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H41" t="n">
-        <v>1.99</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>9.199999999999999</v>
+        <v>3.95</v>
       </c>
       <c r="J41" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5986,64 +5986,64 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,36 +6053,36 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Maccabi Netanya</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="G42" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="H42" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="I42" t="n">
-        <v>2.48</v>
+        <v>1000</v>
       </c>
       <c r="J42" t="n">
-        <v>2.96</v>
+        <v>7.8</v>
       </c>
       <c r="K42" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,36 +6188,36 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7.4</v>
+        <v>1.64</v>
       </c>
       <c r="G43" t="n">
-        <v>13.5</v>
+        <v>2.02</v>
       </c>
       <c r="H43" t="n">
-        <v>1.33</v>
+        <v>1.99</v>
       </c>
       <c r="I43" t="n">
-        <v>1.42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="K43" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,66 +6323,66 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.29</v>
+        <v>3.1</v>
       </c>
       <c r="G44" t="n">
-        <v>1.31</v>
+        <v>3.6</v>
       </c>
       <c r="H44" t="n">
-        <v>14.5</v>
+        <v>2.14</v>
       </c>
       <c r="I44" t="n">
-        <v>16</v>
+        <v>2.4</v>
       </c>
       <c r="J44" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="R44" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -6391,64 +6391,64 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,36 +6458,36 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.36</v>
+        <v>7.4</v>
       </c>
       <c r="G45" t="n">
-        <v>2.68</v>
+        <v>13.5</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="I45" t="n">
-        <v>3.55</v>
+        <v>1.42</v>
       </c>
       <c r="J45" t="n">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="K45" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>14</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>430</v>
+      </c>
+      <c r="AF46" t="n">
         <v>6.6</v>
       </c>
-      <c r="G46" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC46" t="n">
+      <c r="AG46" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD46" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF46" t="n">
+      <c r="AH46" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL46" t="n">
         <v>60</v>
       </c>
-      <c r="AG46" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>85</v>
-      </c>
       <c r="AM46" t="n">
-        <v>110</v>
+        <v>420</v>
       </c>
       <c r="AN46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO46" t="n">
         <v>1000</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,61 +6733,61 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.78</v>
+        <v>2.36</v>
       </c>
       <c r="G47" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="H47" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>5.2</v>
+        <v>3.55</v>
       </c>
       <c r="J47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K47" t="n">
         <v>3.7</v>
       </c>
-      <c r="K47" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="R47" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6796,64 +6796,64 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,61 +6868,61 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="H48" t="n">
-        <v>2.28</v>
+        <v>1.52</v>
       </c>
       <c r="I48" t="n">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="J48" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="K48" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P48" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="R48" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="S48" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="T48" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="U48" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6931,64 +6931,64 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="Y48" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Z48" t="n">
-        <v>15.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA48" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AB48" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH48" t="n">
         <v>23</v>
       </c>
-      <c r="AF48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>16</v>
-      </c>
       <c r="AI48" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AJ48" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AK48" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AL48" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AM48" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AN48" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,61 +7003,61 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.36</v>
+        <v>1.59</v>
       </c>
       <c r="G49" t="n">
-        <v>2.48</v>
+        <v>1.71</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="K49" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P49" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -7066,64 +7066,64 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,33 +7133,33 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="G50" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="I50" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="J50" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K50" t="n">
         <v>3.7</v>
@@ -7171,25 +7171,25 @@
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P50" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R50" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S50" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T50" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U50" t="n">
         <v>2.36</v>
@@ -7201,64 +7201,64 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z50" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AB50" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC50" t="n">
         <v>8.4</v>
       </c>
       <c r="AD50" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AF50" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG50" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI50" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK50" t="n">
         <v>38</v>
       </c>
-      <c r="AJ50" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>34</v>
-      </c>
       <c r="AL50" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM50" t="n">
         <v>80</v>
       </c>
       <c r="AN50" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AO50" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,36 +7268,36 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Estoril Praia</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.23</v>
+        <v>2.3</v>
       </c>
       <c r="G51" t="n">
-        <v>1.26</v>
+        <v>2.42</v>
       </c>
       <c r="H51" t="n">
-        <v>12.5</v>
+        <v>3.45</v>
       </c>
       <c r="I51" t="n">
-        <v>26</v>
+        <v>3.6</v>
       </c>
       <c r="J51" t="n">
-        <v>6.8</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
-        <v>7.8</v>
+        <v>3.55</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,61 +7408,61 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Club Football Estrela</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>7.2</v>
+        <v>2.94</v>
       </c>
       <c r="G52" t="n">
-        <v>8.6</v>
+        <v>3.05</v>
       </c>
       <c r="H52" t="n">
-        <v>1.52</v>
+        <v>2.54</v>
       </c>
       <c r="I52" t="n">
-        <v>1.55</v>
+        <v>2.58</v>
       </c>
       <c r="J52" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N52" t="n">
         <v>4.2</v>
       </c>
-      <c r="K52" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P52" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -7471,64 +7471,64 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,66 +7538,66 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.36</v>
+        <v>1.23</v>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>1.26</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="I53" t="n">
-        <v>3.6</v>
+        <v>23</v>
       </c>
       <c r="J53" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="K53" t="n">
-        <v>3.35</v>
+        <v>7.8</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.82</v>
+        <v>2.64</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.16</v>
+        <v>1.52</v>
       </c>
       <c r="R53" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -7606,64 +7606,64 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH53" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI53" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL53" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM53" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO53" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,66 +7673,66 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Club Football Estrela</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="G54" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="H54" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="I54" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="K54" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="R54" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7741,64 +7741,64 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL54" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM54" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AO54" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,66 +7808,66 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F55" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q55" t="n">
         <v>2.16</v>
       </c>
-      <c r="G55" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.48</v>
-      </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -7876,64 +7876,64 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN55" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,66 +7943,66 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17:05:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.91</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
-        <v>1.96</v>
+        <v>6.4</v>
       </c>
       <c r="H56" t="n">
-        <v>4.3</v>
+        <v>1.56</v>
       </c>
       <c r="I56" t="n">
-        <v>4.6</v>
+        <v>1.57</v>
       </c>
       <c r="J56" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N56" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="O56" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="P56" t="n">
-        <v>2.28</v>
+        <v>3.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="R56" t="n">
-        <v>1.51</v>
+        <v>1.9</v>
       </c>
       <c r="S56" t="n">
-        <v>2.82</v>
+        <v>2.06</v>
       </c>
       <c r="T56" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="U56" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -8011,192 +8011,597 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Y56" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="Z56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB56" t="n">
         <v>36</v>
       </c>
-      <c r="AA56" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC56" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AE56" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>13.5</v>
+        <v>60</v>
       </c>
       <c r="AG56" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="AH56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI56" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL56" t="n">
         <v>55</v>
       </c>
-      <c r="AJ56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>32</v>
-      </c>
       <c r="AM56" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN56" t="n">
-        <v>10.5</v>
+        <v>46</v>
       </c>
       <c r="AO56" t="n">
-        <v>44</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Burgos</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>17:05:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>2026-01-03</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>AVS Futebol SAD</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Moreirense</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F59" t="n">
         <v>3.55</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G59" t="n">
         <v>3.95</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H59" t="n">
         <v>2.26</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I59" t="n">
         <v>2.42</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J59" t="n">
         <v>3.15</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K59" t="n">
         <v>3.35</v>
       </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q59" t="n">
         <v>1.01</v>
       </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO57" t="n">
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -676,7 +676,7 @@
         <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -691,16 +691,16 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
         <v>1.41</v>
@@ -709,19 +709,19 @@
         <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
         <v>2.28</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
         <v>19.5</v>
@@ -748,13 +748,13 @@
         <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
         <v>18.5</v>
@@ -769,10 +769,10 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G3" t="n">
         <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.39</v>
@@ -850,7 +850,7 @@
         <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
         <v>1.76</v>
@@ -865,7 +865,7 @@
         <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
         <v>11</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="O4" t="n">
         <v>1.07</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,16 +985,16 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
         <v>28</v>
@@ -1003,13 +1003,13 @@
         <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>50</v>
@@ -1018,7 +1018,7 @@
         <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
         <v>28</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1102,7 +1102,7 @@
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
@@ -1114,7 +1114,7 @@
         <v>3.9</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1.93</v>
@@ -1276,7 +1276,7 @@
         <v>9.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
         <v>18</v>
@@ -1372,16 +1372,16 @@
         <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
         <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S7" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
         <v>1.62</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>38</v>
@@ -1432,7 +1432,7 @@
         <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
         <v>18</v>
@@ -1627,7 +1627,7 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
@@ -1639,7 +1639,7 @@
         <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
         <v>1.76</v>
@@ -1657,7 +1657,7 @@
         <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
         <v>1.29</v>
@@ -1666,16 +1666,16 @@
         <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB9" t="n">
         <v>8.199999999999999</v>
@@ -1684,13 +1684,13 @@
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1702,22 +1702,22 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
         <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>80</v>
       </c>
       <c r="AF10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11</v>
       </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH10" t="n">
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="n">
         <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
         <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>130</v>
@@ -1897,7 +1897,7 @@
         <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
@@ -1924,10 +1924,10 @@
         <v>2.32</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
         <v>2.6</v>
@@ -2155,16 +2155,16 @@
         <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
         <v>4.7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>3.45</v>
@@ -2176,7 +2176,7 @@
         <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -2191,7 +2191,7 @@
         <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
         <v>2.08</v>
@@ -2203,7 +2203,7 @@
         <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X13" t="n">
         <v>9.4</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="G15" t="n">
         <v>7</v>
@@ -2437,7 +2437,7 @@
         <v>2.92</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2473,7 +2473,7 @@
         <v>1.93</v>
       </c>
       <c r="W15" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -2563,13 +2563,13 @@
         <v>1.83</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I16" t="n">
         <v>7.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -2581,13 +2581,13 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
         <v>2.24</v>
@@ -2596,7 +2596,7 @@
         <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T16" t="n">
         <v>2.12</v>
@@ -2716,7 +2716,7 @@
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
         <v>1.46</v>
@@ -2725,10 +2725,10 @@
         <v>1.59</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
         <v>4.1</v>
@@ -2737,13 +2737,13 @@
         <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X17" t="n">
         <v>12</v>
@@ -2752,28 +2752,28 @@
         <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
@@ -2782,7 +2782,7 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="n">
         <v>40</v>
@@ -2797,7 +2797,7 @@
         <v>40</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -2977,25 +2977,25 @@
         <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
         <v>1.74</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P19" t="n">
         <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R19" t="n">
         <v>1.26</v>
@@ -3016,7 +3016,7 @@
         <v>2.16</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
         <v>25</v>
@@ -3100,7 +3100,7 @@
         <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="n">
         <v>4.7</v>
@@ -3115,13 +3115,13 @@
         <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3139,7 +3139,7 @@
         <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U20" t="n">
         <v>1.97</v>
@@ -3169,7 +3169,7 @@
         <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE20" t="n">
         <v>65</v>
@@ -3373,7 +3373,7 @@
         <v>2.24</v>
       </c>
       <c r="H22" t="n">
-        <v>1.09</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
         <v>5.7</v>
@@ -3388,13 +3388,13 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
         <v>1.64</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="P22" t="n">
         <v>1.64</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H24" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I24" t="n">
         <v>3.25</v>
@@ -3664,7 +3664,7 @@
         <v>3.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
         <v>1.95</v>
@@ -3715,7 +3715,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
         <v>14</v>
@@ -3727,10 +3727,10 @@
         <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
         <v>48</v>
@@ -3778,19 +3778,19 @@
         <v>2.68</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I25" t="n">
         <v>3.45</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
         <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -3799,7 +3799,7 @@
         <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P25" t="n">
         <v>1.73</v>
@@ -3823,7 +3823,7 @@
         <v>1.41</v>
       </c>
       <c r="W25" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X25" t="n">
         <v>14.5</v>
@@ -3916,7 +3916,7 @@
         <v>1.79</v>
       </c>
       <c r="I26" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J26" t="n">
         <v>3.6</v>
@@ -3925,7 +3925,7 @@
         <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3940,7 +3940,7 @@
         <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
         <v>1.34</v>
@@ -4330,16 +4330,16 @@
         <v>4.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
         <v>3.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
         <v>1.93</v>
@@ -4363,10 +4363,10 @@
         <v>1.25</v>
       </c>
       <c r="W29" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X29" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
         <v>19.5</v>
@@ -4399,7 +4399,7 @@
         <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="n">
         <v>27</v>
@@ -4471,28 +4471,28 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="R30" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="T30" t="n">
         <v>1.51</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V30" t="n">
         <v>1.18</v>
@@ -4585,49 +4585,49 @@
         <v>2.5</v>
       </c>
       <c r="G31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I31" t="n">
         <v>2.88</v>
       </c>
-      <c r="H31" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.15</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>4.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P31" t="n">
         <v>2.26</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.24</v>
-      </c>
       <c r="Q31" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.41</v>
       </c>
-      <c r="S31" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.4</v>
-      </c>
       <c r="U31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>1.47</v>
@@ -4651,7 +4651,7 @@
         <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD31" t="n">
         <v>18.5</v>
@@ -4681,7 +4681,7 @@
         <v>48</v>
       </c>
       <c r="AM31" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
@@ -4750,16 +4750,16 @@
         <v>2.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R32" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S32" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
         <v>1.8</v>
@@ -4768,7 +4768,7 @@
         <v>1.09</v>
       </c>
       <c r="W32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4795,7 +4795,7 @@
         <v>220</v>
       </c>
       <c r="AF32" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
@@ -4819,7 +4819,7 @@
         <v>200</v>
       </c>
       <c r="AN32" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H33" t="n">
         <v>2.84</v>
@@ -4891,7 +4891,7 @@
         <v>1.37</v>
       </c>
       <c r="S33" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T33" t="n">
         <v>1.73</v>
@@ -4900,7 +4900,7 @@
         <v>2.18</v>
       </c>
       <c r="V33" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W33" t="n">
         <v>1.56</v>
@@ -4993,7 +4993,7 @@
         <v>1.94</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I34" t="n">
         <v>4.5</v>
@@ -5005,7 +5005,7 @@
         <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5017,16 +5017,16 @@
         <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R34" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S34" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T34" t="n">
         <v>1.78</v>
@@ -5041,22 +5041,22 @@
         <v>2.06</v>
       </c>
       <c r="X34" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y34" t="n">
         <v>17</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>17.5</v>
       </c>
       <c r="Z34" t="n">
         <v>34</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD34" t="n">
         <v>1000</v>
@@ -5074,10 +5074,10 @@
         <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK34" t="n">
         <v>20</v>
@@ -5092,7 +5092,7 @@
         <v>13</v>
       </c>
       <c r="AO34" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G35" t="n">
         <v>2.12</v>
@@ -5137,7 +5137,7 @@
         <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.43</v>
@@ -5263,7 +5263,7 @@
         <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="I36" t="n">
         <v>1.98</v>
@@ -5299,7 +5299,7 @@
         <v>3.55</v>
       </c>
       <c r="T36" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U36" t="n">
         <v>2.02</v>
@@ -5428,7 +5428,7 @@
         <v>1.7</v>
       </c>
       <c r="R37" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S37" t="n">
         <v>2.74</v>
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G40" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H40" t="n">
         <v>3.55</v>
@@ -5809,10 +5809,10 @@
         <v>4.2</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -6211,7 +6211,7 @@
         <v>2.64</v>
       </c>
       <c r="I43" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
         <v>3.75</v>
@@ -6241,7 +6241,7 @@
         <v>1.58</v>
       </c>
       <c r="S43" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="T43" t="n">
         <v>1.52</v>
@@ -6250,7 +6250,7 @@
         <v>2.52</v>
       </c>
       <c r="V43" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W43" t="n">
         <v>1.6</v>
@@ -6355,13 +6355,13 @@
         <v>6.8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="O44" t="n">
         <v>1.21</v>
@@ -6505,7 +6505,7 @@
         <v>2.2</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R45" t="n">
         <v>1.41</v>
@@ -6610,19 +6610,19 @@
         <v>2.54</v>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>2.66</v>
       </c>
       <c r="I46" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J46" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K46" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6655,10 +6655,10 @@
         <v>1.81</v>
       </c>
       <c r="V46" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W46" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X46" t="n">
         <v>980</v>
@@ -6751,7 +6751,7 @@
         <v>4.2</v>
       </c>
       <c r="I47" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J47" t="n">
         <v>4.2</v>
@@ -6763,7 +6763,7 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
         <v>2.52</v>
@@ -6781,7 +6781,7 @@
         <v>1.51</v>
       </c>
       <c r="S47" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="T47" t="n">
         <v>1.46</v>
@@ -6886,7 +6886,7 @@
         <v>3.05</v>
       </c>
       <c r="I48" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J48" t="n">
         <v>3.2</v>
@@ -7018,7 +7018,7 @@
         <v>2.66</v>
       </c>
       <c r="H49" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="I49" t="n">
         <v>2.86</v>
@@ -7033,7 +7033,7 @@
         <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N49" t="n">
         <v>5</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H50" t="n">
         <v>4.9</v>
       </c>
       <c r="I50" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="J50" t="n">
         <v>3.75</v>
       </c>
       <c r="K50" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7198,7 +7198,7 @@
         <v>1.11</v>
       </c>
       <c r="W50" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X50" t="n">
         <v>25</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G51" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H51" t="n">
         <v>7.4</v>
@@ -7321,10 +7321,10 @@
         <v>1.5</v>
       </c>
       <c r="S51" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T51" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U51" t="n">
         <v>2.06</v>
@@ -7333,7 +7333,7 @@
         <v>1.15</v>
       </c>
       <c r="W51" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="X51" t="n">
         <v>18.5</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G52" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H52" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -7471,7 +7471,7 @@
         <v>1.6</v>
       </c>
       <c r="X52" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -7558,10 +7558,10 @@
         <v>4.1</v>
       </c>
       <c r="H53" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I53" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J53" t="n">
         <v>3.45</v>
@@ -7573,13 +7573,13 @@
         <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N53" t="n">
         <v>2.98</v>
       </c>
       <c r="O53" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P53" t="n">
         <v>1.68</v>
@@ -7594,16 +7594,16 @@
         <v>4.1</v>
       </c>
       <c r="T53" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U53" t="n">
         <v>1.89</v>
       </c>
       <c r="V53" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="W53" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X53" t="n">
         <v>12</v>
@@ -7822,31 +7822,31 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="G55" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="H55" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="I55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J55" t="n">
         <v>3.8</v>
       </c>
-      <c r="J55" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K55" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="O55" t="n">
         <v>1.22</v>
@@ -7855,7 +7855,7 @@
         <v>2.18</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R55" t="n">
         <v>1.41</v>
@@ -7870,13 +7870,13 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W55" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="X55" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y55" t="n">
         <v>980</v>
@@ -7903,7 +7903,7 @@
         <v>980</v>
       </c>
       <c r="AG55" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AH55" t="n">
         <v>1000</v>
@@ -7960,10 +7960,10 @@
         <v>1.46</v>
       </c>
       <c r="G56" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H56" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I56" t="n">
         <v>7.8</v>
@@ -7972,7 +7972,7 @@
         <v>4.3</v>
       </c>
       <c r="K56" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8104,28 +8104,28 @@
         <v>5.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K57" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M57" t="n">
         <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="O57" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P57" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R57" t="n">
         <v>1.3</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G58" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="H58" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I58" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K58" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="L58" t="n">
         <v>1.4</v>
@@ -8254,13 +8254,13 @@
         <v>1.1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P58" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="R58" t="n">
         <v>1.29</v>
@@ -8269,7 +8269,7 @@
         <v>3</v>
       </c>
       <c r="T58" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U58" t="n">
         <v>1.67</v>
@@ -8278,7 +8278,7 @@
         <v>1.11</v>
       </c>
       <c r="W58" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8287,7 +8287,7 @@
         <v>34</v>
       </c>
       <c r="Z58" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA58" t="n">
         <v>1000</v>
@@ -8296,7 +8296,7 @@
         <v>11</v>
       </c>
       <c r="AC58" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD58" t="n">
         <v>44</v>
@@ -8308,10 +8308,10 @@
         <v>13</v>
       </c>
       <c r="AG58" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI58" t="n">
         <v>1000</v>
@@ -8323,7 +8323,7 @@
         <v>25</v>
       </c>
       <c r="AL58" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
@@ -8386,7 +8386,7 @@
         <v>1.12</v>
       </c>
       <c r="N59" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O59" t="n">
         <v>1.5</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G60" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="H60" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="I60" t="n">
         <v>1.53</v>
       </c>
       <c r="J60" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8521,19 +8521,19 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="O60" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P60" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R60" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="S60" t="n">
         <v>2.56</v>
@@ -8548,7 +8548,7 @@
         <v>2.84</v>
       </c>
       <c r="W60" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8635,16 +8635,16 @@
         <v>2.16</v>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H61" t="n">
         <v>3.55</v>
       </c>
       <c r="I61" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J61" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K61" t="n">
         <v>3.65</v>
@@ -8662,10 +8662,10 @@
         <v>1.37</v>
       </c>
       <c r="P61" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R61" t="n">
         <v>1.32</v>
@@ -8737,7 +8737,7 @@
         <v>980</v>
       </c>
       <c r="AO61" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="G62" t="n">
-        <v>1.14</v>
+        <v>1.62</v>
       </c>
       <c r="H62" t="n">
-        <v>18.5</v>
+        <v>1.04</v>
       </c>
       <c r="I62" t="n">
         <v>1000</v>
       </c>
       <c r="J62" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="K62" t="n">
         <v>1000</v>
@@ -8803,7 +8803,7 @@
         <v>1.46</v>
       </c>
       <c r="R62" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S62" t="n">
         <v>2.16</v>
@@ -8818,7 +8818,7 @@
         <v>1.01</v>
       </c>
       <c r="W62" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G63" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H63" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I63" t="n">
         <v>3.75</v>
       </c>
-      <c r="I63" t="n">
-        <v>3.85</v>
-      </c>
       <c r="J63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K63" t="n">
         <v>4</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4.1</v>
       </c>
       <c r="L63" t="n">
         <v>1.29</v>
@@ -8938,67 +8938,67 @@
         <v>1.68</v>
       </c>
       <c r="R63" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S63" t="n">
         <v>2.58</v>
       </c>
       <c r="T63" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U63" t="n">
         <v>2.54</v>
       </c>
       <c r="V63" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W63" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="X63" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y63" t="n">
         <v>19.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA63" t="n">
         <v>70</v>
       </c>
       <c r="AB63" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC63" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD63" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE63" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI63" t="n">
         <v>40</v>
       </c>
-      <c r="AF63" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>42</v>
-      </c>
       <c r="AJ63" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK63" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL63" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM63" t="n">
         <v>65</v>
@@ -9007,7 +9007,7 @@
         <v>10.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
@@ -9037,82 +9037,82 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
         <v>3.4</v>
       </c>
       <c r="H64" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="I64" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K64" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L64" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M64" t="n">
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="O64" t="n">
         <v>1.01</v>
       </c>
       <c r="P64" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="R64" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S64" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U64" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="V64" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="W64" t="n">
         <v>1.41</v>
       </c>
       <c r="X64" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA64" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB64" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC64" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD64" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF64" t="n">
         <v>30</v>
@@ -9121,19 +9121,19 @@
         <v>20</v>
       </c>
       <c r="AH64" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI64" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AJ64" t="n">
         <v>85</v>
       </c>
       <c r="AK64" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL64" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM64" t="n">
         <v>1000</v>
@@ -9205,19 +9205,19 @@
         <v>1.53</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R65" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S65" t="n">
         <v>4</v>
       </c>
       <c r="T65" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U65" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="V65" t="n">
         <v>1.2</v>
@@ -9325,7 +9325,7 @@
         <v>3.6</v>
       </c>
       <c r="L66" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -9349,10 +9349,10 @@
         <v>3.9</v>
       </c>
       <c r="T66" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U66" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V66" t="n">
         <v>1.21</v>
@@ -9448,7 +9448,7 @@
         <v>3.7</v>
       </c>
       <c r="H67" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I67" t="n">
         <v>2.72</v>
@@ -9478,10 +9478,10 @@
         <v>2.34</v>
       </c>
       <c r="R67" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S67" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T67" t="n">
         <v>1.65</v>
@@ -9580,10 +9580,10 @@
         <v>1.69</v>
       </c>
       <c r="G68" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H68" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
         <v>6.6</v>
@@ -9592,31 +9592,31 @@
         <v>3.65</v>
       </c>
       <c r="K68" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L68" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="O68" t="n">
         <v>1.28</v>
       </c>
       <c r="P68" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="R68" t="n">
         <v>1.32</v>
       </c>
       <c r="S68" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T68" t="n">
         <v>1.04</v>
@@ -9628,7 +9628,7 @@
         <v>1.17</v>
       </c>
       <c r="W68" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X68" t="n">
         <v>24</v>
@@ -9643,7 +9643,7 @@
         <v>1000</v>
       </c>
       <c r="AB68" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC68" t="n">
         <v>13</v>
@@ -9712,19 +9712,19 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G69" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H69" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I69" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J69" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K69" t="n">
         <v>4.2</v>
@@ -9736,37 +9736,37 @@
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="O69" t="n">
         <v>1.21</v>
       </c>
       <c r="P69" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="Q69" t="n">
         <v>1.64</v>
       </c>
       <c r="R69" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S69" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U69" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V69" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W69" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X69" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y69" t="n">
         <v>15.5</v>
@@ -9790,7 +9790,7 @@
         <v>26</v>
       </c>
       <c r="AF69" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG69" t="n">
         <v>18.5</v>
@@ -9889,10 +9889,10 @@
         <v>2.96</v>
       </c>
       <c r="T70" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U70" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V70" t="n">
         <v>2.14</v>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="G71" t="n">
         <v>13.5</v>
@@ -9991,7 +9991,7 @@
         <v>1.33</v>
       </c>
       <c r="I71" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="J71" t="n">
         <v>4.6</v>
@@ -10000,94 +10000,94 @@
         <v>6.2</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P71" t="n">
         <v>2.3</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72">
@@ -10132,10 +10132,10 @@
         <v>6.2</v>
       </c>
       <c r="K72" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M72" t="n">
         <v>1.06</v>
@@ -10150,13 +10150,13 @@
         <v>2.1</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R72" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S72" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T72" t="n">
         <v>2.64</v>
@@ -10165,64 +10165,64 @@
         <v>1.59</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="X72" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y72" t="n">
         <v>40</v>
       </c>
       <c r="Z72" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AA72" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB72" t="n">
         <v>7.4</v>
       </c>
       <c r="AC72" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD72" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE72" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AF72" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AG72" t="n">
         <v>11.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI72" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AJ72" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK72" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL72" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM72" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="AN72" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO72" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73">
@@ -10270,16 +10270,16 @@
         <v>3.7</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P73" t="n">
         <v>1.74</v>
@@ -10288,76 +10288,76 @@
         <v>2.08</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA73" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB73" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD73" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE73" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF73" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ73" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK73" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL73" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74">
@@ -10387,16 +10387,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G74" t="n">
         <v>7</v>
       </c>
       <c r="H74" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I74" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J74" t="n">
         <v>5.1</v>
@@ -10405,10 +10405,10 @@
         <v>5.2</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M74" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
         <v>4.8</v>
@@ -10429,19 +10429,19 @@
         <v>2.84</v>
       </c>
       <c r="T74" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U74" t="n">
         <v>2.1</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X74" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y74" t="n">
         <v>9.199999999999999</v>
@@ -10456,10 +10456,10 @@
         <v>25</v>
       </c>
       <c r="AC74" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD74" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE74" t="n">
         <v>14.5</v>
@@ -10468,31 +10468,31 @@
         <v>60</v>
       </c>
       <c r="AG74" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH74" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI74" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ74" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK74" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL74" t="n">
-        <v>990</v>
+        <v>85</v>
       </c>
       <c r="AM74" t="n">
         <v>110</v>
       </c>
       <c r="AN74" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO74" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -10540,7 +10540,7 @@
         <v>4.9</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M75" t="n">
         <v>1.04</v>
@@ -10570,10 +10570,10 @@
         <v>2.16</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X75" t="n">
         <v>24</v>
@@ -10663,19 +10663,19 @@
         <v>3.45</v>
       </c>
       <c r="H76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I76" t="n">
         <v>2.32</v>
       </c>
-      <c r="I76" t="n">
-        <v>2.34</v>
-      </c>
       <c r="J76" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K76" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M76" t="n">
         <v>1.06</v>
@@ -10684,13 +10684,13 @@
         <v>4.5</v>
       </c>
       <c r="O76" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P76" t="n">
         <v>2.16</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R76" t="n">
         <v>1.45</v>
@@ -10702,64 +10702,64 @@
         <v>1.68</v>
       </c>
       <c r="U76" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X76" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y76" t="n">
         <v>12</v>
       </c>
       <c r="Z76" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA76" t="n">
         <v>29</v>
       </c>
       <c r="AB76" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC76" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD76" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG76" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH76" t="n">
         <v>16</v>
       </c>
       <c r="AI76" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ76" t="n">
         <v>60</v>
       </c>
       <c r="AK76" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL76" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM76" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN76" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO76" t="n">
         <v>15.5</v>
@@ -10795,109 +10795,109 @@
         <v>2.24</v>
       </c>
       <c r="G77" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
         <v>3.45</v>
       </c>
       <c r="I77" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J77" t="n">
         <v>3.25</v>
       </c>
       <c r="K77" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P77" t="n">
         <v>2.08</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI77" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK77" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL77" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM77" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78">
@@ -10927,25 +10927,25 @@
         </is>
       </c>
       <c r="F78" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G78" t="n">
         <v>2.94</v>
       </c>
-      <c r="G78" t="n">
-        <v>3.05</v>
-      </c>
       <c r="H78" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I78" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="J78" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K78" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
@@ -10957,7 +10957,7 @@
         <v>1.28</v>
       </c>
       <c r="P78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q78" t="n">
         <v>1.84</v>
@@ -10975,19 +10975,19 @@
         <v>2.34</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X78" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y78" t="n">
         <v>12.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA78" t="n">
         <v>38</v>
@@ -10996,43 +10996,43 @@
         <v>14</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD78" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF78" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG78" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH78" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI78" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ78" t="n">
         <v>48</v>
       </c>
       <c r="AK78" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL78" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM78" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO78" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -11068,28 +11068,28 @@
         <v>1.26</v>
       </c>
       <c r="H79" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="I79" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="J79" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="K79" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P79" t="n">
         <v>2.64</v>
@@ -11098,76 +11098,76 @@
         <v>1.51</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE79" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI79" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK79" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AL79" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AN79" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80">
@@ -11197,112 +11197,112 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="G80" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="H80" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I80" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="J80" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K80" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P80" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y80" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z80" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA80" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE80" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG80" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI80" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="81">
@@ -11347,7 +11347,7 @@
         <v>3.5</v>
       </c>
       <c r="K81" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>1.74</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11614,7 +11614,7 @@
         <v>4.8</v>
       </c>
       <c r="J83" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K83" t="n">
         <v>3.8</v>
@@ -11737,40 +11737,40 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q84" t="n">
         <v>2.44</v>
-      </c>
-      <c r="G84" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H84" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K84" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>2.38</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11881,10 +11881,10 @@
         <v>3.7</v>
       </c>
       <c r="I85" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J85" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K85" t="n">
         <v>3.45</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H86" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J86" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K86" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q86" t="n">
         <v>1.63</v>
@@ -12142,19 +12142,19 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G87" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H87" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I87" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J87" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K87" t="n">
         <v>3.9</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="G89" t="n">
         <v>1.9</v>
       </c>
       <c r="H89" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I89" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J89" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K89" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12589,7 +12589,7 @@
         <v>4</v>
       </c>
       <c r="T90" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U90" t="n">
         <v>2.08</v>
@@ -12601,13 +12601,13 @@
         <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y90" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA90" t="n">
         <v>70</v>
@@ -12616,10 +12616,10 @@
         <v>9.4</v>
       </c>
       <c r="AC90" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD90" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE90" t="n">
         <v>48</v>
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G91" t="n">
         <v>6.4</v>
       </c>
       <c r="H91" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I91" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="J91" t="n">
         <v>5</v>
@@ -12724,7 +12724,7 @@
         <v>2.1</v>
       </c>
       <c r="T91" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U91" t="n">
         <v>2.64</v>
@@ -12787,7 +12787,7 @@
         <v>48</v>
       </c>
       <c r="AO91" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="92">
@@ -12817,10 +12817,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G92" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="H92" t="n">
         <v>4</v>
@@ -12832,7 +12832,7 @@
         <v>3.2</v>
       </c>
       <c r="K92" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G93" t="n">
         <v>1.94</v>
       </c>
       <c r="H93" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I93" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J93" t="n">
         <v>3.85</v>
@@ -13006,16 +13006,16 @@
         <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y93" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z93" t="n">
         <v>36</v>
       </c>
       <c r="AA93" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB93" t="n">
         <v>11.5</v>
@@ -13024,7 +13024,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD93" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE93" t="n">
         <v>980</v>
@@ -13039,7 +13039,7 @@
         <v>17</v>
       </c>
       <c r="AI93" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ93" t="n">
         <v>23</v>
@@ -13051,13 +13051,13 @@
         <v>32</v>
       </c>
       <c r="AM93" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN93" t="n">
         <v>10.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q95" t="n">
         <v>1.88</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>5.3</v>
@@ -703,10 +703,10 @@
         <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
         <v>1.84</v>
@@ -715,7 +715,7 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
         <v>2.34</v>
@@ -724,7 +724,7 @@
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z2" t="n">
         <v>42</v>
@@ -745,7 +745,7 @@
         <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
         <v>9.6</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
@@ -826,37 +826,37 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.41</v>
       </c>
-      <c r="S3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
         <v>14.5</v>
@@ -880,7 +880,7 @@
         <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11.5</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="G4" t="n">
         <v>2.94</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -961,19 +961,19 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
         <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
         <v>3.85</v>
@@ -982,10 +982,10 @@
         <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
         <v>1.52</v>
@@ -1003,19 +1003,19 @@
         <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>17.5</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO4" t="n">
         <v>55</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G5" t="n">
         <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
         <v>5.7</v>
@@ -1096,13 +1096,13 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
         <v>2.08</v>
@@ -1114,7 +1114,7 @@
         <v>3.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1.94</v>
@@ -1123,7 +1123,7 @@
         <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>1.37</v>
@@ -1231,10 +1231,10 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
         <v>2.08</v>
@@ -1249,22 +1249,22 @@
         <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
         <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
         <v>36</v>
@@ -1276,10 +1276,10 @@
         <v>9.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
         <v>55</v>
@@ -1297,16 +1297,16 @@
         <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
         <v>11.5</v>
@@ -1366,19 +1366,19 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
         <v>2.58</v>
@@ -1387,7 +1387,7 @@
         <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V7" t="n">
         <v>1.35</v>
@@ -1396,10 +1396,10 @@
         <v>1.98</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="n">
         <v>32</v>
@@ -1411,13 +1411,13 @@
         <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
         <v>14.5</v>
@@ -1426,10 +1426,10 @@
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1438,7 +1438,7 @@
         <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
         <v>65</v>
@@ -1447,7 +1447,7 @@
         <v>10.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1480,16 +1480,16 @@
         <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.65</v>
@@ -1507,7 +1507,7 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
         <v>2.16</v>
@@ -1522,16 +1522,16 @@
         <v>1.93</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
         <v>1.24</v>
       </c>
       <c r="W8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
         <v>18</v>
@@ -1543,7 +1543,7 @@
         <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
         <v>8.199999999999999</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
@@ -1651,7 +1651,7 @@
         <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.99</v>
@@ -1666,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
         <v>14</v>
@@ -1690,7 +1690,7 @@
         <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G10" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="H10" t="n">
         <v>1.36</v>
@@ -1759,13 +1759,13 @@
         <v>1.47</v>
       </c>
       <c r="J10" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
         <v>7.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
@@ -1777,16 +1777,16 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
@@ -1798,13 +1798,13 @@
         <v>3.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1897,7 +1897,7 @@
         <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="I12" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2041,22 +2041,22 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="R12" t="n">
         <v>1.12</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2065,7 +2065,7 @@
         <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="W12" t="n">
         <v>1.25</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
         <v>2.54</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
         <v>3.25</v>
@@ -2311,28 +2311,28 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
         <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V14" t="n">
         <v>1.16</v>
@@ -2386,13 +2386,13 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN14" t="n">
         <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15">
@@ -2443,7 +2443,7 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
         <v>2.76</v>
@@ -2455,7 +2455,7 @@
         <v>1.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R15" t="n">
         <v>1.21</v>
@@ -2464,7 +2464,7 @@
         <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
         <v>1.81</v>
@@ -2476,7 +2476,7 @@
         <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>1000</v>
@@ -2575,13 +2575,13 @@
         <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
@@ -2617,7 +2617,7 @@
         <v>8.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2716,10 +2716,10 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O17" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P17" t="n">
         <v>1.57</v>
@@ -2788,7 +2788,7 @@
         <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2854,7 +2854,7 @@
         <v>2.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P18" t="n">
         <v>1.61</v>
@@ -2866,7 +2866,7 @@
         <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T18" t="n">
         <v>1.94</v>
@@ -2875,7 +2875,7 @@
         <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
         <v>1.61</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H19" t="n">
         <v>5.2</v>
@@ -2974,10 +2974,10 @@
         <v>5.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L19" t="n">
         <v>1.57</v>
@@ -2986,16 +2986,16 @@
         <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O19" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P19" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="R19" t="n">
         <v>1.2</v>
@@ -3007,7 +3007,7 @@
         <v>2.3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
         <v>1.23</v>
@@ -3016,7 +3016,7 @@
         <v>2.02</v>
       </c>
       <c r="X19" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y19" t="n">
         <v>13</v>
@@ -3100,19 +3100,19 @@
         <v>1.75</v>
       </c>
       <c r="G20" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -3121,34 +3121,34 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T20" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
         <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H21" t="n">
         <v>4.6</v>
@@ -3250,7 +3250,7 @@
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3274,16 +3274,16 @@
         <v>4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V21" t="n">
         <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3301,10 +3301,10 @@
         <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>65</v>
@@ -3316,7 +3316,7 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>75</v>
@@ -3334,7 +3334,7 @@
         <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO21" t="n">
         <v>80</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="G22" t="n">
         <v>1000</v>
@@ -3379,7 +3379,7 @@
         <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K22" t="n">
         <v>1000</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G24" t="n">
         <v>2.06</v>
       </c>
       <c r="H24" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
         <v>3.45</v>
@@ -3667,13 +3667,13 @@
         <v>1.07</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q24" t="n">
         <v>1.99</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="S24" t="n">
         <v>3.7</v>
@@ -3775,13 +3775,13 @@
         <v>1.58</v>
       </c>
       <c r="G25" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3808,22 +3808,22 @@
         <v>1.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S25" t="n">
         <v>3.25</v>
       </c>
       <c r="T25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.69</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.6</v>
       </c>
       <c r="V25" t="n">
         <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="G26" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="H26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I26" t="n">
         <v>2.64</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.8</v>
       </c>
       <c r="J26" t="n">
         <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L26" t="n">
         <v>1.3</v>
@@ -3931,46 +3931,46 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="O26" t="n">
         <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="T26" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="W26" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
         <v>990</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
         <v>990</v>
@@ -3979,16 +3979,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF26" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
         <v>17.5</v>
@@ -3997,22 +3997,22 @@
         <v>980</v>
       </c>
       <c r="AJ26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL26" t="n">
         <v>980</v>
       </c>
-      <c r="AK26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>42</v>
-      </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO26" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="G27" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="H27" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4060,52 +4060,52 @@
         <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
         <v>1.37</v>
       </c>
       <c r="P27" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U27" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="W27" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="X27" t="n">
         <v>14.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB27" t="n">
         <v>11.5</v>
@@ -4114,10 +4114,10 @@
         <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="n">
         <v>19</v>
@@ -4129,7 +4129,7 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ27" t="n">
         <v>44</v>
@@ -4147,7 +4147,7 @@
         <v>34</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="G28" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="H28" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="I28" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="J28" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -4204,76 +4204,76 @@
         <v>3.45</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T28" t="n">
         <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="W28" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
         <v>29</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AG28" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ28" t="n">
         <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AL28" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
@@ -4282,7 +4282,7 @@
         <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="29">
@@ -4315,19 +4315,19 @@
         <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.31</v>
@@ -4336,34 +4336,34 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="R29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
         <v>2.8</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U29" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -4381,7 +4381,7 @@
         <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD29" t="n">
         <v>990</v>
@@ -4393,7 +4393,7 @@
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>990</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4450,19 +4450,19 @@
         <v>1.32</v>
       </c>
       <c r="G30" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H30" t="n">
         <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="K30" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4489,10 +4489,10 @@
         <v>2.26</v>
       </c>
       <c r="T30" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="U30" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="V30" t="n">
         <v>1.08</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="H31" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="I31" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L31" t="n">
         <v>1.24</v>
@@ -4606,34 +4606,34 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
         <v>2.06</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R31" t="n">
         <v>1.32</v>
       </c>
       <c r="S31" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T31" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="X31" t="n">
         <v>990</v>
@@ -4642,7 +4642,7 @@
         <v>990</v>
       </c>
       <c r="Z31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
@@ -4660,7 +4660,7 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
         <v>990</v>
@@ -4723,43 +4723,43 @@
         <v>2.88</v>
       </c>
       <c r="H32" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M32" t="n">
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O32" t="n">
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S32" t="n">
         <v>2.06</v>
       </c>
       <c r="T32" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="U32" t="n">
         <v>1.04</v>
@@ -4771,13 +4771,13 @@
         <v>1.53</v>
       </c>
       <c r="X32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA32" t="n">
         <v>55</v>
@@ -4789,19 +4789,19 @@
         <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE32" t="n">
         <v>38</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG32" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
         <v>48</v>
@@ -4855,7 +4855,7 @@
         <v>1.8</v>
       </c>
       <c r="G33" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
@@ -4903,7 +4903,7 @@
         <v>1.21</v>
       </c>
       <c r="W33" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X33" t="n">
         <v>990</v>
@@ -4987,46 +4987,46 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="G34" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H34" t="n">
         <v>11.5</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J34" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L34" t="n">
         <v>1.3</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
         <v>4.7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P34" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R34" t="n">
         <v>1.51</v>
       </c>
       <c r="S34" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T34" t="n">
         <v>2.14</v>
@@ -5038,10 +5038,10 @@
         <v>1.08</v>
       </c>
       <c r="W34" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
         <v>1000</v>
@@ -5050,46 +5050,46 @@
         <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE34" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
         <v>8</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL34" t="n">
         <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="G35" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="H35" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L35" t="n">
         <v>1.39</v>
@@ -5152,16 +5152,16 @@
         <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R35" t="n">
         <v>1.37</v>
       </c>
       <c r="S35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T35" t="n">
         <v>1.79</v>
@@ -5170,10 +5170,10 @@
         <v>2.2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W35" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
@@ -5188,19 +5188,19 @@
         <v>60</v>
       </c>
       <c r="AB35" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE35" t="n">
         <v>40</v>
       </c>
       <c r="AF35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG35" t="n">
         <v>12.5</v>
@@ -5212,19 +5212,19 @@
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>110</v>
       </c>
       <c r="AN35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO35" t="n">
         <v>29</v>
@@ -5260,7 +5260,7 @@
         <v>1.87</v>
       </c>
       <c r="G36" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>4.4</v>
@@ -5269,10 +5269,10 @@
         <v>4.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L36" t="n">
         <v>1.37</v>
@@ -5281,43 +5281,43 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R36" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U36" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V36" t="n">
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X36" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="n">
         <v>110</v>
@@ -5338,10 +5338,10 @@
         <v>12</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI36" t="n">
         <v>65</v>
@@ -5350,10 +5350,10 @@
         <v>21</v>
       </c>
       <c r="AK36" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>110</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G37" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H37" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I37" t="n">
         <v>4.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="n">
         <v>3.6</v>
@@ -5416,13 +5416,13 @@
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q37" t="n">
         <v>2.12</v>
@@ -5434,7 +5434,7 @@
         <v>3.95</v>
       </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U37" t="n">
         <v>2.02</v>
@@ -5443,13 +5443,13 @@
         <v>1.28</v>
       </c>
       <c r="W37" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="X37" t="n">
         <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z37" t="n">
         <v>32</v>
@@ -5461,10 +5461,10 @@
         <v>8.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE37" t="n">
         <v>65</v>
@@ -5491,13 +5491,13 @@
         <v>42</v>
       </c>
       <c r="AM37" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -5536,13 +5536,13 @@
         <v>1.87</v>
       </c>
       <c r="I38" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J38" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L38" t="n">
         <v>1.4</v>
@@ -5551,34 +5551,34 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O38" t="n">
         <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="R38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S38" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U38" t="n">
         <v>1.98</v>
       </c>
       <c r="V38" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W38" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X38" t="n">
         <v>14.5</v>
@@ -5608,13 +5608,13 @@
         <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH38" t="n">
         <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="n">
         <v>130</v>
@@ -5665,13 +5665,13 @@
         <v>3.35</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H39" t="n">
         <v>2.02</v>
       </c>
       <c r="I39" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J39" t="n">
         <v>3.6</v>
@@ -5686,7 +5686,7 @@
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O39" t="n">
         <v>1.22</v>
@@ -5704,13 +5704,13 @@
         <v>2.76</v>
       </c>
       <c r="T39" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U39" t="n">
         <v>2.26</v>
       </c>
       <c r="V39" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W39" t="n">
         <v>1.33</v>
@@ -5740,7 +5740,7 @@
         <v>30</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AG39" t="n">
         <v>19</v>
@@ -5749,7 +5749,7 @@
         <v>23</v>
       </c>
       <c r="AI39" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ39" t="n">
         <v>80</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G40" t="n">
         <v>1.45</v>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K40" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.29</v>
@@ -5821,34 +5821,34 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O40" t="n">
         <v>1.26</v>
       </c>
       <c r="P40" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R40" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S40" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="T40" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U40" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V40" t="n">
         <v>1.09</v>
       </c>
       <c r="W40" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5863,10 +5863,10 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC40" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
@@ -5875,10 +5875,10 @@
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
         <v>1000</v>
@@ -5887,7 +5887,7 @@
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="G41" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="H41" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="I41" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J41" t="n">
         <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.33</v>
@@ -5956,46 +5956,46 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O41" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P41" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R41" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S41" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U41" t="n">
         <v>2.04</v>
       </c>
       <c r="V41" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X41" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA41" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB41" t="n">
         <v>11.5</v>
@@ -6004,28 +6004,28 @@
         <v>10.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF41" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK41" t="n">
         <v>26</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>24</v>
       </c>
       <c r="AL41" t="n">
         <v>44</v>
@@ -6034,10 +6034,10 @@
         <v>120</v>
       </c>
       <c r="AN41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO41" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G42" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I42" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>3.65</v>
@@ -6091,13 +6091,13 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q42" t="n">
         <v>2.06</v>
@@ -6106,19 +6106,19 @@
         <v>1.29</v>
       </c>
       <c r="S42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T42" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U42" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V42" t="n">
         <v>1.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6130,7 +6130,7 @@
         <v>38</v>
       </c>
       <c r="AA42" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB42" t="n">
         <v>12</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G43" t="n">
         <v>3.25</v>
       </c>
       <c r="H43" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I43" t="n">
         <v>2.68</v>
@@ -6226,16 +6226,16 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O43" t="n">
         <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R43" t="n">
         <v>1.29</v>
@@ -6244,7 +6244,7 @@
         <v>2.84</v>
       </c>
       <c r="T43" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U43" t="n">
         <v>1.04</v>
@@ -6271,7 +6271,7 @@
         <v>15.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD43" t="n">
         <v>14.5</v>
@@ -6343,16 +6343,16 @@
         <v>1.85</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I44" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="J44" t="n">
-        <v>3.6</v>
+        <v>1.09</v>
       </c>
       <c r="K44" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L44" t="n">
         <v>1.22</v>
@@ -6361,88 +6361,88 @@
         <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>2.24</v>
+        <v>1.15</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="S44" t="n">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="T44" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="U44" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W44" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="X44" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Y44" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Z44" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AC44" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AD44" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="AE44" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH44" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="AI44" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6472,112 +6472,112 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="G45" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="H45" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.18</v>
       </c>
       <c r="P45" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R45" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="S45" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T45" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U45" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="V45" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W45" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="X45" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y45" t="n">
         <v>25</v>
       </c>
       <c r="Z45" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA45" t="n">
         <v>75</v>
       </c>
       <c r="AB45" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG45" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD45" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF45" t="n">
+      <c r="AH45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK45" t="n">
         <v>18</v>
       </c>
-      <c r="AG45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ45" t="n">
+      <c r="AL45" t="n">
         <v>27</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>28</v>
       </c>
       <c r="AM45" t="n">
         <v>60</v>
       </c>
       <c r="AN45" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -6607,52 +6607,52 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G46" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H46" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="I46" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K46" t="n">
         <v>6.4</v>
       </c>
       <c r="L46" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="O46" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S46" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T46" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="U46" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="V46" t="n">
         <v>1.08</v>
@@ -6676,7 +6676,7 @@
         <v>12.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="n">
         <v>1000</v>
@@ -6748,7 +6748,7 @@
         <v>1.43</v>
       </c>
       <c r="H47" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I47" t="n">
         <v>9.6</v>
@@ -6766,10 +6766,10 @@
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O47" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P47" t="n">
         <v>2.32</v>
@@ -6784,19 +6784,19 @@
         <v>2.56</v>
       </c>
       <c r="T47" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U47" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V47" t="n">
         <v>1.11</v>
       </c>
       <c r="W47" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X47" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="Y47" t="n">
         <v>990</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="G48" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="H48" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="I48" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L48" t="n">
         <v>1.3</v>
@@ -6901,19 +6901,19 @@
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="O48" t="n">
         <v>1.26</v>
       </c>
       <c r="P48" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="R48" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S48" t="n">
         <v>2.34</v>
@@ -6925,10 +6925,10 @@
         <v>2.02</v>
       </c>
       <c r="V48" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W48" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="X48" t="n">
         <v>990</v>
@@ -7015,7 +7015,7 @@
         <v>1.72</v>
       </c>
       <c r="G49" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H49" t="n">
         <v>4.2</v>
@@ -7042,19 +7042,19 @@
         <v>1.17</v>
       </c>
       <c r="P49" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q49" t="n">
         <v>1.52</v>
       </c>
       <c r="R49" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S49" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U49" t="n">
         <v>2.42</v>
@@ -7066,13 +7066,13 @@
         <v>2.16</v>
       </c>
       <c r="X49" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y49" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z49" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA49" t="n">
         <v>110</v>
@@ -7081,10 +7081,10 @@
         <v>16</v>
       </c>
       <c r="AC49" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE49" t="n">
         <v>60</v>
@@ -7093,22 +7093,22 @@
         <v>17</v>
       </c>
       <c r="AG49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ49" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK49" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL49" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM49" t="n">
         <v>80</v>
@@ -7117,7 +7117,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO49" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G50" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I50" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J50" t="n">
         <v>3.25</v>
@@ -7177,7 +7177,7 @@
         <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q50" t="n">
         <v>2</v>
@@ -7186,7 +7186,7 @@
         <v>1.3</v>
       </c>
       <c r="S50" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T50" t="n">
         <v>1.79</v>
@@ -7198,13 +7198,13 @@
         <v>1.4</v>
       </c>
       <c r="W50" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X50" t="n">
         <v>990</v>
       </c>
       <c r="Y50" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="Z50" t="n">
         <v>980</v>
@@ -7297,7 +7297,7 @@
         <v>3.5</v>
       </c>
       <c r="K51" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L51" t="n">
         <v>1.38</v>
@@ -7327,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V51" t="n">
         <v>1.81</v>
@@ -7357,7 +7357,7 @@
         <v>13</v>
       </c>
       <c r="AE51" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF51" t="n">
         <v>34</v>
@@ -7366,7 +7366,7 @@
         <v>20</v>
       </c>
       <c r="AH51" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI51" t="n">
         <v>48</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G53" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H53" t="n">
         <v>3.25</v>
@@ -7564,7 +7564,7 @@
         <v>3.7</v>
       </c>
       <c r="J53" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K53" t="n">
         <v>4.1</v>
@@ -7594,22 +7594,22 @@
         <v>2.74</v>
       </c>
       <c r="T53" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="U53" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V53" t="n">
         <v>1.37</v>
       </c>
       <c r="W53" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
         <v>980</v>
@@ -7618,19 +7618,19 @@
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
         <v>980</v>
       </c>
       <c r="AF53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
         <v>990</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="G54" t="n">
         <v>1.46</v>
@@ -7699,10 +7699,10 @@
         <v>10.5</v>
       </c>
       <c r="J54" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K54" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q54" t="n">
         <v>1.71</v>
@@ -7840,34 +7840,34 @@
         <v>3.5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R55" t="n">
         <v>1.34</v>
       </c>
-      <c r="P55" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S55" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="T55" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U55" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V55" t="n">
         <v>1.5</v>
@@ -7879,7 +7879,7 @@
         <v>13.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z55" t="n">
         <v>19</v>
@@ -7888,46 +7888,46 @@
         <v>48</v>
       </c>
       <c r="AB55" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC55" t="n">
         <v>7.4</v>
       </c>
       <c r="AD55" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF55" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG55" t="n">
         <v>12</v>
       </c>
       <c r="AH55" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI55" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ55" t="n">
         <v>38</v>
       </c>
       <c r="AK55" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL55" t="n">
         <v>42</v>
       </c>
       <c r="AM55" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN55" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO55" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -7990,7 +7990,7 @@
         <v>2.26</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R56" t="n">
         <v>1.5</v>
@@ -7999,10 +7999,10 @@
         <v>2.92</v>
       </c>
       <c r="T56" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U56" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V56" t="n">
         <v>1.14</v>
@@ -8011,10 +8011,10 @@
         <v>2.92</v>
       </c>
       <c r="X56" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z56" t="n">
         <v>65</v>
@@ -8032,7 +8032,7 @@
         <v>27</v>
       </c>
       <c r="AE56" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AF56" t="n">
         <v>9</v>
@@ -8050,7 +8050,7 @@
         <v>13</v>
       </c>
       <c r="AK56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL56" t="n">
         <v>32</v>
@@ -8107,7 +8107,7 @@
         <v>4.1</v>
       </c>
       <c r="K57" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L57" t="n">
         <v>1.26</v>
@@ -8116,22 +8116,22 @@
         <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="O57" t="n">
         <v>1.28</v>
       </c>
       <c r="P57" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="R57" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S57" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T57" t="n">
         <v>1.96</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="G58" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H58" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I58" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="J58" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K58" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8266,43 +8266,43 @@
         <v>1.57</v>
       </c>
       <c r="S58" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T58" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U58" t="n">
         <v>2.52</v>
       </c>
       <c r="V58" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="W58" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X58" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE58" t="n">
         <v>30</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>32</v>
       </c>
       <c r="AF58" t="n">
         <v>24</v>
@@ -8311,28 +8311,28 @@
         <v>14.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI58" t="n">
         <v>34</v>
       </c>
       <c r="AJ58" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL58" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM58" t="n">
         <v>70</v>
       </c>
       <c r="AN58" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="59">
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G59" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>7</v>
       </c>
       <c r="I59" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K59" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
@@ -8386,25 +8386,25 @@
         <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O59" t="n">
         <v>1.32</v>
       </c>
       <c r="P59" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R59" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S59" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U59" t="n">
         <v>1.87</v>
@@ -8413,13 +8413,13 @@
         <v>1.14</v>
       </c>
       <c r="W59" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X59" t="n">
         <v>18</v>
       </c>
       <c r="Y59" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z59" t="n">
         <v>1000</v>
@@ -8431,13 +8431,13 @@
         <v>9</v>
       </c>
       <c r="AC59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD59" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE59" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF59" t="n">
         <v>9.199999999999999</v>
@@ -8452,10 +8452,10 @@
         <v>130</v>
       </c>
       <c r="AJ59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK59" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL59" t="n">
         <v>48</v>
@@ -8464,7 +8464,7 @@
         <v>180</v>
       </c>
       <c r="AN59" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO59" t="n">
         <v>1000</v>
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="F60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G60" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3.35</v>
       </c>
       <c r="H60" t="n">
         <v>2.64</v>
@@ -8509,10 +8509,10 @@
         <v>2.66</v>
       </c>
       <c r="J60" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K60" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L60" t="n">
         <v>1.52</v>
@@ -8530,7 +8530,7 @@
         <v>1.63</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R60" t="n">
         <v>1.23</v>
@@ -8548,7 +8548,7 @@
         <v>1.6</v>
       </c>
       <c r="W60" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X60" t="n">
         <v>9</v>
@@ -8560,7 +8560,7 @@
         <v>16</v>
       </c>
       <c r="AA60" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB60" t="n">
         <v>9.800000000000001</v>
@@ -8635,52 +8635,52 @@
         <v>1.83</v>
       </c>
       <c r="G61" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I61" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K61" t="n">
         <v>4</v>
       </c>
       <c r="L61" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O61" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P61" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q61" t="n">
         <v>1.83</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="S61" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T61" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U61" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V61" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W61" t="n">
         <v>2.1</v>
@@ -8725,7 +8725,7 @@
         <v>21</v>
       </c>
       <c r="AK61" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL61" t="n">
         <v>36</v>
@@ -8734,10 +8734,10 @@
         <v>120</v>
       </c>
       <c r="AN61" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="G62" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="H62" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="I62" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J62" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K62" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,22 +8791,22 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="O62" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P62" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="R62" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="S62" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T62" t="n">
         <v>1.04</v>
@@ -8815,10 +8815,10 @@
         <v>1.83</v>
       </c>
       <c r="V62" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W62" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8905,7 +8905,7 @@
         <v>2.22</v>
       </c>
       <c r="G63" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>3.7</v>
@@ -8914,7 +8914,7 @@
         <v>3.85</v>
       </c>
       <c r="J63" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K63" t="n">
         <v>3.55</v>
@@ -8926,10 +8926,10 @@
         <v>1.08</v>
       </c>
       <c r="N63" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O63" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P63" t="n">
         <v>1.8</v>
@@ -8947,13 +8947,13 @@
         <v>1.87</v>
       </c>
       <c r="U63" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V63" t="n">
         <v>1.35</v>
       </c>
       <c r="W63" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X63" t="n">
         <v>15</v>
@@ -8974,19 +8974,19 @@
         <v>7.8</v>
       </c>
       <c r="AD63" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE63" t="n">
         <v>980</v>
       </c>
       <c r="AF63" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG63" t="n">
         <v>11.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI63" t="n">
         <v>60</v>
@@ -9037,10 +9037,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="G64" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H64" t="n">
         <v>1.04</v>
@@ -9061,19 +9061,19 @@
         <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>1.1</v>
+        <v>2.42</v>
       </c>
       <c r="O64" t="n">
         <v>1.17</v>
       </c>
       <c r="P64" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q64" t="n">
         <v>1.46</v>
       </c>
       <c r="R64" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S64" t="n">
         <v>2.34</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G65" t="n">
         <v>2.2</v>
@@ -9184,7 +9184,7 @@
         <v>3.55</v>
       </c>
       <c r="J65" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K65" t="n">
         <v>3.95</v>
@@ -9196,13 +9196,13 @@
         <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O65" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P65" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q65" t="n">
         <v>1.68</v>
@@ -9211,19 +9211,19 @@
         <v>1.59</v>
       </c>
       <c r="S65" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T65" t="n">
         <v>1.59</v>
       </c>
       <c r="U65" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="V65" t="n">
         <v>1.39</v>
       </c>
       <c r="W65" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X65" t="n">
         <v>23</v>
@@ -9274,7 +9274,7 @@
         <v>60</v>
       </c>
       <c r="AN65" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO65" t="n">
         <v>25</v>
@@ -9310,13 +9310,13 @@
         <v>1.82</v>
       </c>
       <c r="G66" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>4.9</v>
       </c>
       <c r="I66" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J66" t="n">
         <v>3.2</v>
@@ -9346,7 +9346,7 @@
         <v>1.21</v>
       </c>
       <c r="S66" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T66" t="n">
         <v>2.06</v>
@@ -9355,16 +9355,16 @@
         <v>1.74</v>
       </c>
       <c r="V66" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W66" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X66" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z66" t="n">
         <v>980</v>
@@ -9385,10 +9385,10 @@
         <v>120</v>
       </c>
       <c r="AF66" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG66" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH66" t="n">
         <v>990</v>
@@ -9451,7 +9451,7 @@
         <v>3.95</v>
       </c>
       <c r="I67" t="n">
-        <v>7.8</v>
+        <v>870</v>
       </c>
       <c r="J67" t="n">
         <v>2.84</v>
@@ -9475,13 +9475,13 @@
         <v>1.54</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R67" t="n">
         <v>1.18</v>
       </c>
       <c r="S67" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T67" t="n">
         <v>1.92</v>
@@ -9580,7 +9580,7 @@
         <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
         <v>2.52</v>
@@ -9622,13 +9622,13 @@
         <v>1.96</v>
       </c>
       <c r="U68" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V68" t="n">
         <v>1.54</v>
       </c>
       <c r="W68" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X68" t="n">
         <v>10.5</v>
@@ -9715,7 +9715,7 @@
         <v>3.05</v>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H69" t="n">
         <v>2.48</v>
@@ -9736,7 +9736,7 @@
         <v>1.1</v>
       </c>
       <c r="N69" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O69" t="n">
         <v>1.46</v>
@@ -9751,10 +9751,10 @@
         <v>1.22</v>
       </c>
       <c r="S69" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T69" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U69" t="n">
         <v>1.87</v>
@@ -9763,7 +9763,7 @@
         <v>1.55</v>
       </c>
       <c r="W69" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X69" t="n">
         <v>12</v>
@@ -9808,13 +9808,13 @@
         <v>55</v>
       </c>
       <c r="AL69" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM69" t="n">
         <v>1000</v>
       </c>
       <c r="AN69" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO69" t="n">
         <v>44</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="G70" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I70" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J70" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K70" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L70" t="n">
         <v>1.31</v>
@@ -9871,31 +9871,31 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O70" t="n">
         <v>1.28</v>
       </c>
       <c r="P70" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R70" t="n">
         <v>1.34</v>
       </c>
       <c r="S70" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T70" t="n">
-        <v>1.06</v>
+        <v>1.66</v>
       </c>
       <c r="U70" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V70" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W70" t="n">
         <v>2.16</v>
@@ -9904,10 +9904,10 @@
         <v>25</v>
       </c>
       <c r="Y70" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="Z70" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA70" t="n">
         <v>1000</v>
@@ -9916,13 +9916,13 @@
         <v>13.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD70" t="n">
         <v>990</v>
       </c>
       <c r="AE70" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF70" t="n">
         <v>16</v>
@@ -9934,7 +9934,7 @@
         <v>29</v>
       </c>
       <c r="AI70" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ70" t="n">
         <v>26</v>
@@ -9943,7 +9943,7 @@
         <v>26</v>
       </c>
       <c r="AL70" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM70" t="n">
         <v>1000</v>
@@ -9988,13 +9988,13 @@
         <v>4.2</v>
       </c>
       <c r="H71" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I71" t="n">
         <v>2.06</v>
       </c>
       <c r="J71" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K71" t="n">
         <v>4</v>
@@ -10003,31 +10003,31 @@
         <v>1.01</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N71" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P71" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R71" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="S71" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="T71" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U71" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V71" t="n">
         <v>1.94</v>
@@ -10036,22 +10036,22 @@
         <v>1.32</v>
       </c>
       <c r="X71" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y71" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z71" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA71" t="n">
         <v>29</v>
       </c>
       <c r="AB71" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC71" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD71" t="n">
         <v>13</v>
@@ -10060,7 +10060,7 @@
         <v>23</v>
       </c>
       <c r="AF71" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG71" t="n">
         <v>21</v>
@@ -10087,7 +10087,7 @@
         <v>40</v>
       </c>
       <c r="AO71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -10129,19 +10129,19 @@
         <v>1.88</v>
       </c>
       <c r="J72" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K72" t="n">
         <v>4.7</v>
       </c>
       <c r="L72" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M72" t="n">
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>2.62</v>
+        <v>1.1</v>
       </c>
       <c r="O72" t="n">
         <v>1.01</v>
@@ -10150,10 +10150,10 @@
         <v>1.81</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="R72" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S72" t="n">
         <v>3</v>
@@ -10168,7 +10168,7 @@
         <v>2.14</v>
       </c>
       <c r="W72" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X72" t="n">
         <v>18.5</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G73" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="H73" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="I73" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="J73" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="K73" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="L73" t="n">
         <v>1.23</v>
@@ -10282,28 +10282,28 @@
         <v>1.21</v>
       </c>
       <c r="P73" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R73" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="S73" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T73" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="U73" t="n">
         <v>1.04</v>
       </c>
       <c r="V73" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="W73" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10390,19 +10390,19 @@
         <v>1.29</v>
       </c>
       <c r="G74" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>15</v>
       </c>
       <c r="I74" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J74" t="n">
         <v>6</v>
       </c>
       <c r="K74" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L74" t="n">
         <v>1.35</v>
@@ -10420,25 +10420,25 @@
         <v>2.1</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R74" t="n">
         <v>1.42</v>
       </c>
       <c r="S74" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T74" t="n">
         <v>2.62</v>
       </c>
       <c r="U74" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V74" t="n">
         <v>1.06</v>
       </c>
       <c r="W74" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X74" t="n">
         <v>16.5</v>
@@ -10474,7 +10474,7 @@
         <v>44</v>
       </c>
       <c r="AI74" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AJ74" t="n">
         <v>8.800000000000001</v>
@@ -10486,7 +10486,7 @@
         <v>55</v>
       </c>
       <c r="AM74" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AN74" t="n">
         <v>5.6</v>
@@ -10540,7 +10540,7 @@
         <v>3.65</v>
       </c>
       <c r="L75" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M75" t="n">
         <v>1.07</v>
@@ -10561,13 +10561,13 @@
         <v>1.09</v>
       </c>
       <c r="S75" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="T75" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U75" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V75" t="n">
         <v>1.42</v>
@@ -10663,16 +10663,16 @@
         <v>6.8</v>
       </c>
       <c r="H76" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I76" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J76" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K76" t="n">
         <v>5</v>
-      </c>
-      <c r="K76" t="n">
-        <v>5.1</v>
       </c>
       <c r="L76" t="n">
         <v>1.3</v>
@@ -10681,31 +10681,31 @@
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O76" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P76" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R76" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S76" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T76" t="n">
         <v>1.84</v>
       </c>
       <c r="U76" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V76" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="W76" t="n">
         <v>1.17</v>
@@ -10714,16 +10714,16 @@
         <v>23</v>
       </c>
       <c r="Y76" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z76" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA76" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC76" t="n">
         <v>11</v>
@@ -10744,13 +10744,13 @@
         <v>23</v>
       </c>
       <c r="AI76" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ76" t="n">
         <v>190</v>
       </c>
       <c r="AK76" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AL76" t="n">
         <v>80</v>
@@ -10762,7 +10762,7 @@
         <v>90</v>
       </c>
       <c r="AO76" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="77">
@@ -10801,13 +10801,13 @@
         <v>4.9</v>
       </c>
       <c r="I77" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J77" t="n">
         <v>4.1</v>
       </c>
       <c r="K77" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10840,10 +10840,10 @@
         <v>2.16</v>
       </c>
       <c r="V77" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W77" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X77" t="n">
         <v>26</v>
@@ -10861,10 +10861,10 @@
         <v>13</v>
       </c>
       <c r="AC77" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD77" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE77" t="n">
         <v>80</v>
@@ -10879,7 +10879,7 @@
         <v>23</v>
       </c>
       <c r="AI77" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ77" t="n">
         <v>21</v>
@@ -10927,25 +10927,25 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I78" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J78" t="n">
         <v>3.6</v>
       </c>
       <c r="K78" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L78" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
@@ -10960,25 +10960,25 @@
         <v>2.16</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R78" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S78" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T78" t="n">
         <v>1.68</v>
       </c>
       <c r="U78" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V78" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W78" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X78" t="n">
         <v>16</v>
@@ -11002,13 +11002,13 @@
         <v>11</v>
       </c>
       <c r="AE78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF78" t="n">
         <v>25</v>
       </c>
       <c r="AG78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH78" t="n">
         <v>15.5</v>
@@ -11029,7 +11029,7 @@
         <v>75</v>
       </c>
       <c r="AN78" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO78" t="n">
         <v>15.5</v>
@@ -11062,19 +11062,19 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G79" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H79" t="n">
         <v>3.45</v>
       </c>
       <c r="I79" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J79" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K79" t="n">
         <v>3.55</v>
@@ -11092,7 +11092,7 @@
         <v>1.26</v>
       </c>
       <c r="P79" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q79" t="n">
         <v>1.79</v>
@@ -11104,19 +11104,19 @@
         <v>2.96</v>
       </c>
       <c r="T79" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U79" t="n">
         <v>2.36</v>
       </c>
       <c r="V79" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W79" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X79" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y79" t="n">
         <v>16.5</v>
@@ -11125,7 +11125,7 @@
         <v>26</v>
       </c>
       <c r="AA79" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB79" t="n">
         <v>12</v>
@@ -11137,22 +11137,22 @@
         <v>14.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF79" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI79" t="n">
         <v>46</v>
       </c>
       <c r="AJ79" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK79" t="n">
         <v>23</v>
@@ -11164,10 +11164,10 @@
         <v>1000</v>
       </c>
       <c r="AN79" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -11200,13 +11200,13 @@
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H80" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I80" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J80" t="n">
         <v>3.7</v>
@@ -11239,16 +11239,16 @@
         <v>3.1</v>
       </c>
       <c r="T80" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U80" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V80" t="n">
         <v>1.66</v>
       </c>
       <c r="W80" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="X80" t="n">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         <v>36</v>
       </c>
       <c r="AJ80" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK80" t="n">
         <v>32</v>
@@ -11299,10 +11299,10 @@
         <v>75</v>
       </c>
       <c r="AN80" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO80" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="81">
@@ -11335,19 +11335,19 @@
         <v>1.24</v>
       </c>
       <c r="G81" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="J81" t="n">
         <v>7.4</v>
       </c>
       <c r="K81" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L81" t="n">
         <v>1.26</v>
@@ -11365,34 +11365,34 @@
         <v>2.66</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R81" t="n">
         <v>1.67</v>
       </c>
       <c r="S81" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T81" t="n">
         <v>2.12</v>
       </c>
       <c r="U81" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V81" t="n">
         <v>1.06</v>
       </c>
       <c r="W81" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X81" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="Y81" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="Z81" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA81" t="n">
         <v>810</v>
@@ -11401,16 +11401,16 @@
         <v>10.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD81" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE81" t="n">
         <v>280</v>
       </c>
       <c r="AF81" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG81" t="n">
         <v>11</v>
@@ -11422,22 +11422,22 @@
         <v>220</v>
       </c>
       <c r="AJ81" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK81" t="n">
         <v>13.5</v>
       </c>
       <c r="AL81" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM81" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN81" t="n">
         <v>4</v>
       </c>
       <c r="AO81" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82">
@@ -11467,13 +11467,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G82" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H82" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I82" t="n">
         <v>1.56</v>
@@ -11482,7 +11482,7 @@
         <v>4.6</v>
       </c>
       <c r="K82" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L82" t="n">
         <v>1.39</v>
@@ -11494,13 +11494,13 @@
         <v>3.9</v>
       </c>
       <c r="O82" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P82" t="n">
         <v>2.02</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R82" t="n">
         <v>1.39</v>
@@ -11521,10 +11521,10 @@
         <v>1.15</v>
       </c>
       <c r="X82" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z82" t="n">
         <v>9</v>
@@ -11539,10 +11539,10 @@
         <v>10.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE82" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF82" t="n">
         <v>65</v>
@@ -11554,7 +11554,7 @@
         <v>25</v>
       </c>
       <c r="AI82" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ82" t="n">
         <v>240</v>
@@ -11620,7 +11620,7 @@
         <v>3.85</v>
       </c>
       <c r="L83" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M83" t="n">
         <v>1.07</v>
@@ -11656,7 +11656,7 @@
         <v>2.06</v>
       </c>
       <c r="X83" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y83" t="n">
         <v>22</v>
@@ -11737,19 +11737,19 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="I84" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="J84" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K84" t="n">
         <v>3.65</v>
@@ -11761,10 +11761,10 @@
         <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="O84" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P84" t="n">
         <v>1.97</v>
@@ -11779,16 +11779,16 @@
         <v>3.15</v>
       </c>
       <c r="T84" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="U84" t="n">
         <v>2.06</v>
       </c>
       <c r="V84" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="W84" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X84" t="n">
         <v>20</v>
@@ -11803,7 +11803,7 @@
         <v>48</v>
       </c>
       <c r="AB84" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC84" t="n">
         <v>11</v>
@@ -11815,10 +11815,10 @@
         <v>36</v>
       </c>
       <c r="AF84" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG84" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH84" t="n">
         <v>24</v>
@@ -11830,7 +11830,7 @@
         <v>1000</v>
       </c>
       <c r="AK84" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL84" t="n">
         <v>1000</v>
@@ -11839,7 +11839,7 @@
         <v>1000</v>
       </c>
       <c r="AN84" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO84" t="n">
         <v>28</v>
@@ -12019,10 +12019,10 @@
         <v>3.2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K86" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12031,13 +12031,13 @@
         <v>1.11</v>
       </c>
       <c r="N86" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O86" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q86" t="n">
         <v>2.46</v>
@@ -12067,7 +12067,7 @@
         <v>11</v>
       </c>
       <c r="Z86" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA86" t="n">
         <v>70</v>
@@ -12079,7 +12079,7 @@
         <v>8.6</v>
       </c>
       <c r="AD86" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE86" t="n">
         <v>55</v>
@@ -12088,10 +12088,10 @@
         <v>21</v>
       </c>
       <c r="AG86" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH86" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI86" t="n">
         <v>80</v>
@@ -12106,10 +12106,10 @@
         <v>70</v>
       </c>
       <c r="AM86" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN86" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO86" t="n">
         <v>1000</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G87" t="n">
         <v>2.38</v>
       </c>
       <c r="H87" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I87" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J87" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K87" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12166,16 +12166,16 @@
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O87" t="n">
         <v>1.01</v>
       </c>
       <c r="P87" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R87" t="n">
         <v>1.18</v>
@@ -12187,10 +12187,10 @@
         <v>1.04</v>
       </c>
       <c r="U87" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="V87" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W87" t="n">
         <v>1.72</v>
@@ -12277,16 +12277,16 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G88" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>3.2</v>
       </c>
       <c r="I88" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J88" t="n">
         <v>3.5</v>
@@ -12295,7 +12295,7 @@
         <v>3.85</v>
       </c>
       <c r="L88" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M88" t="n">
         <v>1.05</v>
@@ -12319,13 +12319,13 @@
         <v>3</v>
       </c>
       <c r="T88" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U88" t="n">
         <v>2.24</v>
       </c>
       <c r="V88" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W88" t="n">
         <v>1.74</v>
@@ -12337,7 +12337,7 @@
         <v>17.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA88" t="n">
         <v>70</v>
@@ -12349,10 +12349,10 @@
         <v>10</v>
       </c>
       <c r="AD88" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF88" t="n">
         <v>16.5</v>
@@ -12364,13 +12364,13 @@
         <v>17</v>
       </c>
       <c r="AI88" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ88" t="n">
         <v>36</v>
       </c>
       <c r="AK88" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL88" t="n">
         <v>36</v>
@@ -12382,7 +12382,7 @@
         <v>16</v>
       </c>
       <c r="AO88" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
@@ -12427,10 +12427,10 @@
         <v>3.5</v>
       </c>
       <c r="K89" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L89" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M89" t="n">
         <v>1.07</v>
@@ -12469,34 +12469,34 @@
         <v>16.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB89" t="n">
         <v>17</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD89" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE89" t="n">
         <v>28</v>
       </c>
       <c r="AF89" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG89" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI89" t="n">
         <v>48</v>
@@ -12517,7 +12517,7 @@
         <v>1000</v>
       </c>
       <c r="AO89" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -12550,10 +12550,10 @@
         <v>2.18</v>
       </c>
       <c r="G90" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="H90" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I90" t="n">
         <v>4.5</v>
@@ -12562,7 +12562,7 @@
         <v>2.88</v>
       </c>
       <c r="K90" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L90" t="n">
         <v>1.46</v>
@@ -12577,7 +12577,7 @@
         <v>1.25</v>
       </c>
       <c r="P90" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="Q90" t="n">
         <v>2.12</v>
@@ -12598,7 +12598,7 @@
         <v>1.28</v>
       </c>
       <c r="W90" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="X90" t="n">
         <v>1000</v>
@@ -12682,22 +12682,22 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H91" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I91" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J91" t="n">
         <v>3.3</v>
       </c>
       <c r="K91" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L91" t="n">
         <v>1.32</v>
@@ -12712,7 +12712,7 @@
         <v>1.38</v>
       </c>
       <c r="P91" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q91" t="n">
         <v>2.12</v>
@@ -12727,28 +12727,28 @@
         <v>1.92</v>
       </c>
       <c r="U91" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V91" t="n">
         <v>1.23</v>
       </c>
       <c r="W91" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X91" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y91" t="n">
         <v>15.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA91" t="n">
         <v>1000</v>
       </c>
       <c r="AB91" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC91" t="n">
         <v>8.199999999999999</v>
@@ -12778,13 +12778,13 @@
         <v>24</v>
       </c>
       <c r="AL91" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM91" t="n">
         <v>180</v>
       </c>
       <c r="AN91" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO91" t="n">
         <v>110</v>
@@ -12817,10 +12817,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G92" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H92" t="n">
         <v>3.55</v>
@@ -12835,7 +12835,7 @@
         <v>3.3</v>
       </c>
       <c r="L92" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M92" t="n">
         <v>1.09</v>
@@ -12868,7 +12868,7 @@
         <v>1.38</v>
       </c>
       <c r="W92" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X92" t="n">
         <v>11.5</v>
@@ -12955,7 +12955,7 @@
         <v>5.9</v>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H93" t="n">
         <v>1.56</v>
@@ -12976,7 +12976,7 @@
         <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O93" t="n">
         <v>1.14</v>
@@ -12988,13 +12988,13 @@
         <v>1.44</v>
       </c>
       <c r="R93" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S93" t="n">
         <v>2.12</v>
       </c>
       <c r="T93" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U93" t="n">
         <v>2.62</v>
@@ -13003,10 +13003,10 @@
         <v>2.74</v>
       </c>
       <c r="W93" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X93" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y93" t="n">
         <v>15.5</v>
@@ -13090,7 +13090,7 @@
         <v>2.14</v>
       </c>
       <c r="G94" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H94" t="n">
         <v>4.3</v>
@@ -13102,10 +13102,10 @@
         <v>3.2</v>
       </c>
       <c r="K94" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L94" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M94" t="n">
         <v>1.11</v>
@@ -13117,19 +13117,19 @@
         <v>1.48</v>
       </c>
       <c r="P94" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="R94" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S94" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T94" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U94" t="n">
         <v>1.89</v>
@@ -13138,25 +13138,25 @@
         <v>1.28</v>
       </c>
       <c r="W94" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X94" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y94" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z94" t="n">
         <v>29</v>
       </c>
       <c r="AA94" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB94" t="n">
         <v>7.4</v>
       </c>
       <c r="AC94" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD94" t="n">
         <v>990</v>
@@ -13174,25 +13174,25 @@
         <v>24</v>
       </c>
       <c r="AI94" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ94" t="n">
         <v>27</v>
       </c>
       <c r="AK94" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL94" t="n">
         <v>55</v>
       </c>
       <c r="AM94" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN94" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO94" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
@@ -13225,7 +13225,7 @@
         <v>1.91</v>
       </c>
       <c r="G95" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H95" t="n">
         <v>4.3</v>
@@ -13234,7 +13234,7 @@
         <v>4.5</v>
       </c>
       <c r="J95" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K95" t="n">
         <v>4</v>
@@ -13258,28 +13258,28 @@
         <v>1.73</v>
       </c>
       <c r="R95" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S95" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T95" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U95" t="n">
         <v>2.4</v>
       </c>
       <c r="V95" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W95" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X95" t="n">
         <v>18</v>
       </c>
       <c r="Y95" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z95" t="n">
         <v>34</v>
@@ -13291,13 +13291,13 @@
         <v>11.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD95" t="n">
         <v>17.5</v>
       </c>
       <c r="AE95" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF95" t="n">
         <v>13</v>
@@ -13324,7 +13324,7 @@
         <v>80</v>
       </c>
       <c r="AN95" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO95" t="n">
         <v>40</v>
@@ -13357,31 +13357,31 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G96" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H96" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I96" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="J96" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K96" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L96" t="n">
         <v>1.51</v>
       </c>
       <c r="M96" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N96" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O96" t="n">
         <v>1.46</v>
@@ -13390,28 +13390,28 @@
         <v>1.66</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R96" t="n">
         <v>1.24</v>
       </c>
       <c r="S96" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T96" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U96" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V96" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W96" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X96" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y96" t="n">
         <v>8.199999999999999</v>
@@ -13420,7 +13420,7 @@
         <v>14</v>
       </c>
       <c r="AA96" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AB96" t="n">
         <v>11.5</v>
@@ -13432,37 +13432,37 @@
         <v>11.5</v>
       </c>
       <c r="AE96" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF96" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AG96" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI96" t="n">
         <v>55</v>
       </c>
       <c r="AJ96" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK96" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AL96" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AM96" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN96" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO96" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
@@ -13516,16 +13516,16 @@
         <v>1.06</v>
       </c>
       <c r="N97" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O97" t="n">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="P97" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R97" t="n">
         <v>1.21</v>
@@ -13537,7 +13537,7 @@
         <v>1.04</v>
       </c>
       <c r="U97" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V97" t="n">
         <v>1.23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.74</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.75</v>
-      </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -691,40 +691,40 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
         <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
         <v>2.34</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>990</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
         <v>42</v>
@@ -772,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
         <v>2.34</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
         <v>3.45</v>
@@ -826,22 +826,22 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
         <v>1.74</v>
@@ -856,46 +856,46 @@
         <v>1.74</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
         <v>14.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
         <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="n">
         <v>15</v>
       </c>
-      <c r="AE3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>36</v>
@@ -907,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>2.66</v>
       </c>
       <c r="G4" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H4" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>3.4</v>
@@ -958,7 +958,7 @@
         <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>2.7</v>
@@ -967,10 +967,10 @@
         <v>1.47</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
         <v>1.2</v>
@@ -985,13 +985,13 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>14.5</v>
@@ -1018,7 +1018,7 @@
         <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>28</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.78</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.79</v>
-      </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
@@ -1096,13 +1096,13 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
         <v>2.08</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H6" t="n">
         <v>4.7</v>
@@ -1219,10 +1219,10 @@
         <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.37</v>
@@ -1234,7 +1234,7 @@
         <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
         <v>2.08</v>
@@ -1252,16 +1252,16 @@
         <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
         <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>17</v>
@@ -1294,10 +1294,10 @@
         <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.8</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
@@ -1381,31 +1381,31 @@
         <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U7" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
         <v>12.5</v>
@@ -1429,10 +1429,10 @@
         <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
         <v>18</v>
@@ -1441,13 +1441,13 @@
         <v>28</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN7" t="n">
         <v>10.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>5.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>3.65</v>
@@ -1519,13 +1519,13 @@
         <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
         <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
         <v>2.06</v>
@@ -1612,82 +1612,82 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
         <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
         <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
         <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -1696,28 +1696,28 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
         <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1756,13 +1756,13 @@
         <v>1.36</v>
       </c>
       <c r="I10" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.21</v>
@@ -1777,7 +1777,7 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
         <v>1.2</v>
@@ -1786,7 +1786,7 @@
         <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
@@ -1795,7 +1795,7 @@
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="W10" t="n">
         <v>1.12</v>
@@ -2017,100 +2017,100 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="G12" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.56</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>1.99</v>
+        <v>2.34</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
         <v>2.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="W12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,7 +2176,7 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
@@ -2197,25 +2197,25 @@
         <v>1.59</v>
       </c>
       <c r="U13" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
         <v>16</v>
@@ -2239,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -2257,7 +2257,7 @@
         <v>18.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2293,13 +2293,13 @@
         <v>1.81</v>
       </c>
       <c r="H14" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
@@ -2308,34 +2308,34 @@
         <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
         <v>2.22</v>
@@ -2350,10 +2350,10 @@
         <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AB14" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AC14" t="n">
         <v>8.800000000000001</v>
@@ -2362,7 +2362,7 @@
         <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="n">
         <v>9.6</v>
@@ -2374,7 +2374,7 @@
         <v>27</v>
       </c>
       <c r="AI14" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
         <v>19</v>
@@ -2386,13 +2386,13 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
@@ -2425,10 +2425,10 @@
         <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H15" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I15" t="n">
         <v>2.56</v>
@@ -2437,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2476,7 +2476,7 @@
         <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC15" t="n">
         <v>1000</v>
@@ -2569,7 +2569,7 @@
         <v>2.18</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>4.6</v>
@@ -2617,19 +2617,19 @@
         <v>8.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2839,7 +2839,7 @@
         <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>3.45</v>
@@ -2875,7 +2875,7 @@
         <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W18" t="n">
         <v>1.61</v>
@@ -2986,7 +2986,7 @@
         <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O19" t="n">
         <v>1.55</v>
@@ -3001,13 +3001,13 @@
         <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
         <v>1.23</v>
@@ -3097,40 +3097,40 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="G20" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="H20" t="n">
         <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J20" t="n">
         <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>2.4</v>
+        <v>2.84</v>
       </c>
       <c r="O20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P20" t="n">
         <v>1.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
@@ -3145,10 +3145,10 @@
         <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W20" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
         <v>4.6</v>
@@ -3259,7 +3259,7 @@
         <v>3.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
         <v>1.8</v>
@@ -3283,7 +3283,7 @@
         <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3334,7 +3334,7 @@
         <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>80</v>
@@ -3373,16 +3373,16 @@
         <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I22" t="n">
         <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3409,7 +3409,7 @@
         <v>1.24</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U22" t="n">
         <v>1.04</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G23" t="n">
         <v>1.12</v>
@@ -3526,13 +3526,13 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1</v>
+        <v>2.82</v>
       </c>
       <c r="O23" t="n">
         <v>1.07</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="Q23" t="n">
         <v>1.07</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G25" t="n">
         <v>1.7</v>
@@ -3796,7 +3796,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.66</v>
+        <v>1.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
@@ -3808,7 +3808,7 @@
         <v>1.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
         <v>3.25</v>
@@ -3829,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="Z25" t="n">
         <v>70</v>
@@ -3907,28 +3907,28 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="G26" t="n">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="H26" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="I26" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
         <v>3.95</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
         <v>3.95</v>
@@ -3937,40 +3937,40 @@
         <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
         <v>2.86</v>
       </c>
       <c r="T26" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="U26" t="n">
         <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X26" t="n">
         <v>990</v>
       </c>
       <c r="Y26" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB26" t="n">
         <v>990</v>
@@ -3979,16 +3979,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="AH26" t="n">
         <v>17.5</v>
@@ -3997,10 +3997,10 @@
         <v>980</v>
       </c>
       <c r="AJ26" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
         <v>980</v>
@@ -4009,10 +4009,10 @@
         <v>85</v>
       </c>
       <c r="AN26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO26" t="n">
         <v>980</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -4045,10 +4045,10 @@
         <v>2.58</v>
       </c>
       <c r="G27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H27" t="n">
         <v>2.78</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.82</v>
       </c>
       <c r="I27" t="n">
         <v>3.05</v>
@@ -4060,34 +4060,34 @@
         <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V27" t="n">
         <v>1.48</v>
@@ -4096,10 +4096,10 @@
         <v>1.56</v>
       </c>
       <c r="X27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
         <v>23</v>
@@ -4129,7 +4129,7 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
         <v>44</v>
@@ -4138,7 +4138,7 @@
         <v>36</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
         <v>140</v>
@@ -4147,7 +4147,7 @@
         <v>34</v>
       </c>
       <c r="AO27" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G28" t="n">
         <v>4.6</v>
@@ -4189,37 +4189,37 @@
         <v>2.08</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L28" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="O28" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S28" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="U28" t="n">
         <v>1.92</v>
@@ -4231,10 +4231,10 @@
         <v>1.28</v>
       </c>
       <c r="X28" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z28" t="n">
         <v>15</v>
@@ -4243,10 +4243,10 @@
         <v>29</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
         <v>13</v>
@@ -4312,61 +4312,61 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I29" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.99</v>
+        <v>1.09</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="S29" t="n">
-        <v>2.8</v>
+        <v>1.05</v>
       </c>
       <c r="T29" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="U29" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="V29" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
         <v>1000</v>
@@ -4381,19 +4381,19 @@
         <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
         <v>990</v>
       </c>
       <c r="AE29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
         <v>990</v>
@@ -4408,13 +4408,13 @@
         <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G30" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J30" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K30" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,25 +4471,25 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q30" t="n">
         <v>1.51</v>
       </c>
       <c r="R30" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S30" t="n">
         <v>2.26</v>
       </c>
       <c r="T30" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="U30" t="n">
         <v>1.69</v>
@@ -4498,7 +4498,7 @@
         <v>1.08</v>
       </c>
       <c r="W30" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="X30" t="n">
         <v>25</v>
@@ -4537,7 +4537,7 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
         <v>15.5</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G31" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="H31" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
         <v>3.1</v>
@@ -4600,13 +4600,13 @@
         <v>4.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O31" t="n">
         <v>1.17</v>
@@ -4621,7 +4621,7 @@
         <v>1.32</v>
       </c>
       <c r="S31" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T31" t="n">
         <v>1.5</v>
@@ -4630,10 +4630,10 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="X31" t="n">
         <v>990</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="G32" t="n">
-        <v>2.88</v>
+        <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>2.54</v>
+        <v>1.04</v>
       </c>
       <c r="I32" t="n">
-        <v>2.92</v>
+        <v>1000</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L32" t="n">
         <v>1.22</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>2.24</v>
+        <v>1.09</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R32" t="n">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="S32" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="T32" t="n">
         <v>1.53</v>
@@ -4765,64 +4765,64 @@
         <v>1.04</v>
       </c>
       <c r="V32" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="X32" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="Y32" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="Z32" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI32" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4852,58 +4852,58 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="G33" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="I33" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
         <v>1.64</v>
       </c>
       <c r="R33" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="T33" t="n">
-        <v>1.57</v>
+        <v>1.05</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
         <v>1.21</v>
       </c>
       <c r="W33" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="X33" t="n">
         <v>990</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G34" t="n">
         <v>1.37</v>
@@ -4999,19 +4999,19 @@
         <v>12.5</v>
       </c>
       <c r="J34" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K34" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.24</v>
@@ -5020,19 +5020,19 @@
         <v>2.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R34" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T34" t="n">
         <v>2.14</v>
       </c>
       <c r="U34" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V34" t="n">
         <v>1.08</v>
@@ -5041,28 +5041,28 @@
         <v>3.7</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z34" t="n">
         <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="n">
         <v>8</v>
@@ -5071,25 +5071,25 @@
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>44</v>
+        <v>990</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
         <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G35" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H35" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5155,7 +5155,7 @@
         <v>1.98</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R35" t="n">
         <v>1.37</v>
@@ -5173,7 +5173,7 @@
         <v>1.52</v>
       </c>
       <c r="W35" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
@@ -5260,7 +5260,7 @@
         <v>1.87</v>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H36" t="n">
         <v>4.4</v>
@@ -5308,13 +5308,13 @@
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z36" t="n">
         <v>34</v>
@@ -5353,7 +5353,7 @@
         <v>19</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM36" t="n">
         <v>110</v>
@@ -5398,7 +5398,7 @@
         <v>2.12</v>
       </c>
       <c r="H37" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I37" t="n">
         <v>4.5</v>
@@ -5434,7 +5434,7 @@
         <v>3.95</v>
       </c>
       <c r="T37" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U37" t="n">
         <v>2.02</v>
@@ -5446,7 +5446,7 @@
         <v>1.9</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y37" t="n">
         <v>14.5</v>
@@ -5527,25 +5527,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H38" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="I38" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="J38" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K38" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
@@ -5557,13 +5557,13 @@
         <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R38" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S38" t="n">
         <v>3.5</v>
@@ -5575,37 +5575,37 @@
         <v>1.98</v>
       </c>
       <c r="V38" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="W38" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="X38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB38" t="n">
         <v>16.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG38" t="n">
         <v>19</v>
@@ -5614,25 +5614,25 @@
         <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="n">
         <v>130</v>
       </c>
       <c r="AK38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN38" t="n">
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="39">
@@ -5665,13 +5665,13 @@
         <v>3.35</v>
       </c>
       <c r="G39" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I39" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J39" t="n">
         <v>3.6</v>
@@ -5704,16 +5704,16 @@
         <v>2.76</v>
       </c>
       <c r="T39" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U39" t="n">
         <v>2.26</v>
       </c>
       <c r="V39" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W39" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5800,7 +5800,7 @@
         <v>1.39</v>
       </c>
       <c r="G40" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H40" t="n">
         <v>8.4</v>
@@ -5815,7 +5815,7 @@
         <v>5.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -5824,7 +5824,7 @@
         <v>4.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
         <v>2.06</v>
@@ -5839,13 +5839,13 @@
         <v>2.94</v>
       </c>
       <c r="T40" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U40" t="n">
         <v>1.73</v>
       </c>
       <c r="V40" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W40" t="n">
         <v>3.05</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G41" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="H41" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.33</v>
@@ -5956,40 +5956,40 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O41" t="n">
         <v>1.29</v>
       </c>
       <c r="P41" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q41" t="n">
         <v>1.86</v>
       </c>
       <c r="R41" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S41" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T41" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U41" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V41" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W41" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="X41" t="n">
         <v>18.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z41" t="n">
         <v>40</v>
@@ -6004,16 +6004,16 @@
         <v>10.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AE41" t="n">
         <v>65</v>
       </c>
       <c r="AF41" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
         <v>22</v>
@@ -6022,10 +6022,10 @@
         <v>65</v>
       </c>
       <c r="AJ41" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AK41" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL41" t="n">
         <v>44</v>
@@ -6034,7 +6034,7 @@
         <v>120</v>
       </c>
       <c r="AN41" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO41" t="n">
         <v>70</v>
@@ -6109,7 +6109,7 @@
         <v>3.8</v>
       </c>
       <c r="T42" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U42" t="n">
         <v>1.99</v>
@@ -6139,7 +6139,7 @@
         <v>10.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AE42" t="n">
         <v>60</v>
@@ -6151,13 +6151,13 @@
         <v>15.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
         <v>75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="n">
         <v>36</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G43" t="n">
         <v>3.25</v>
@@ -6211,10 +6211,10 @@
         <v>2.42</v>
       </c>
       <c r="I43" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K43" t="n">
         <v>3.85</v>
@@ -6226,7 +6226,7 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="O43" t="n">
         <v>1.01</v>
@@ -6235,28 +6235,28 @@
         <v>1.93</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R43" t="n">
         <v>1.29</v>
       </c>
       <c r="S43" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="T43" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U43" t="n">
         <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W43" t="n">
         <v>1.44</v>
       </c>
       <c r="X43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y43" t="n">
         <v>13.5</v>
@@ -6271,7 +6271,7 @@
         <v>15.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD43" t="n">
         <v>14.5</v>
@@ -6475,7 +6475,7 @@
         <v>1.88</v>
       </c>
       <c r="G45" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>3.85</v>
@@ -6484,7 +6484,7 @@
         <v>4.3</v>
       </c>
       <c r="J45" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K45" t="n">
         <v>4.3</v>
@@ -6523,7 +6523,7 @@
         <v>1.31</v>
       </c>
       <c r="W45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X45" t="n">
         <v>28</v>
@@ -6550,7 +6550,7 @@
         <v>42</v>
       </c>
       <c r="AF45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG45" t="n">
         <v>11.5</v>
@@ -6610,16 +6610,16 @@
         <v>1.33</v>
       </c>
       <c r="G46" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H46" t="n">
         <v>9.6</v>
       </c>
       <c r="I46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J46" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K46" t="n">
         <v>6.4</v>
@@ -6637,7 +6637,7 @@
         <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q46" t="n">
         <v>1.67</v>
@@ -6649,7 +6649,7 @@
         <v>2.42</v>
       </c>
       <c r="T46" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U46" t="n">
         <v>1.04</v>
@@ -6757,7 +6757,7 @@
         <v>5.3</v>
       </c>
       <c r="K47" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L47" t="n">
         <v>1.22</v>
@@ -6772,10 +6772,10 @@
         <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R47" t="n">
         <v>1.51</v>
@@ -6784,10 +6784,10 @@
         <v>2.56</v>
       </c>
       <c r="T47" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U47" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V47" t="n">
         <v>1.11</v>
@@ -6880,10 +6880,10 @@
         <v>2.64</v>
       </c>
       <c r="G48" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="H48" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I48" t="n">
         <v>2.88</v>
@@ -6895,31 +6895,31 @@
         <v>3.75</v>
       </c>
       <c r="L48" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="O48" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P48" t="n">
         <v>1.92</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R48" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S48" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T48" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U48" t="n">
         <v>2.02</v>
@@ -6928,13 +6928,13 @@
         <v>1.53</v>
       </c>
       <c r="W48" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X48" t="n">
         <v>990</v>
       </c>
       <c r="Y48" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="Z48" t="n">
         <v>980</v>
@@ -7012,25 +7012,25 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="G49" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H49" t="n">
         <v>4.2</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J49" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K49" t="n">
         <v>4.9</v>
       </c>
       <c r="L49" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7060,10 +7060,10 @@
         <v>2.42</v>
       </c>
       <c r="V49" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W49" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="X49" t="n">
         <v>32</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G50" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H50" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I50" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J50" t="n">
         <v>3.25</v>
@@ -7168,7 +7168,7 @@
         <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
         <v>3.3</v>
@@ -7180,7 +7180,7 @@
         <v>1.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R50" t="n">
         <v>1.3</v>
@@ -7195,10 +7195,10 @@
         <v>2.02</v>
       </c>
       <c r="V50" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W50" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X50" t="n">
         <v>990</v>
@@ -7213,7 +7213,7 @@
         <v>70</v>
       </c>
       <c r="AB50" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC50" t="n">
         <v>9.4</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="G51" t="n">
         <v>4.1</v>
@@ -7300,7 +7300,7 @@
         <v>3.65</v>
       </c>
       <c r="L51" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M51" t="n">
         <v>1.09</v>
@@ -7309,7 +7309,7 @@
         <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P51" t="n">
         <v>1.69</v>
@@ -7324,7 +7324,7 @@
         <v>4.1</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U51" t="n">
         <v>1.87</v>
@@ -7333,7 +7333,7 @@
         <v>1.81</v>
       </c>
       <c r="W51" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X51" t="n">
         <v>14</v>
@@ -7351,7 +7351,7 @@
         <v>13.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD51" t="n">
         <v>13</v>
@@ -7360,13 +7360,13 @@
         <v>27</v>
       </c>
       <c r="AF51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG51" t="n">
         <v>20</v>
       </c>
       <c r="AH51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI51" t="n">
         <v>48</v>
@@ -7378,7 +7378,7 @@
         <v>60</v>
       </c>
       <c r="AL51" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM51" t="n">
         <v>170</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G52" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="H52" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J52" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K52" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q52" t="n">
         <v>1.43</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G53" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H53" t="n">
         <v>3.25</v>
@@ -7564,7 +7564,7 @@
         <v>3.7</v>
       </c>
       <c r="J53" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K53" t="n">
         <v>4.1</v>
@@ -7594,7 +7594,7 @@
         <v>2.74</v>
       </c>
       <c r="T53" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U53" t="n">
         <v>2.3</v>
@@ -7603,7 +7603,7 @@
         <v>1.37</v>
       </c>
       <c r="W53" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q54" t="n">
         <v>1.71</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G55" t="n">
         <v>2.64</v>
       </c>
-      <c r="G55" t="n">
-        <v>2.66</v>
-      </c>
       <c r="H55" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J55" t="n">
         <v>3.45</v>
@@ -7846,49 +7846,49 @@
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P55" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q55" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U55" t="n">
         <v>2.12</v>
       </c>
-      <c r="R55" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S55" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U55" t="n">
-        <v>2.16</v>
-      </c>
       <c r="V55" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W55" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X55" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y55" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z55" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB55" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
         <v>7.4</v>
@@ -7909,25 +7909,25 @@
         <v>18</v>
       </c>
       <c r="AI55" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ55" t="n">
         <v>38</v>
       </c>
       <c r="AK55" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL55" t="n">
         <v>42</v>
       </c>
       <c r="AM55" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN55" t="n">
         <v>26</v>
       </c>
       <c r="AO55" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -7957,25 +7957,25 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G56" t="n">
         <v>1.51</v>
       </c>
-      <c r="G56" t="n">
-        <v>1.52</v>
-      </c>
       <c r="H56" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I56" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K56" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L56" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M56" t="n">
         <v>1.05</v>
@@ -7987,7 +7987,7 @@
         <v>1.25</v>
       </c>
       <c r="P56" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q56" t="n">
         <v>1.76</v>
@@ -7999,7 +7999,7 @@
         <v>2.92</v>
       </c>
       <c r="T56" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U56" t="n">
         <v>2.04</v>
@@ -8008,7 +8008,7 @@
         <v>1.14</v>
       </c>
       <c r="W56" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="X56" t="n">
         <v>18</v>
@@ -8020,7 +8020,7 @@
         <v>65</v>
       </c>
       <c r="AA56" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AB56" t="n">
         <v>9.199999999999999</v>
@@ -8029,16 +8029,16 @@
         <v>10.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE56" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF56" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG56" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH56" t="n">
         <v>23</v>
@@ -8059,7 +8059,7 @@
         <v>120</v>
       </c>
       <c r="AN56" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO56" t="n">
         <v>120</v>
@@ -8092,25 +8092,25 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G57" t="n">
         <v>1.62</v>
       </c>
       <c r="H57" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I57" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="J57" t="n">
         <v>4.1</v>
       </c>
       <c r="K57" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L57" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M57" t="n">
         <v>1.01</v>
@@ -8134,7 +8134,7 @@
         <v>2.22</v>
       </c>
       <c r="T57" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="U57" t="n">
         <v>1.04</v>
@@ -8170,7 +8170,7 @@
         <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG57" t="n">
         <v>1000</v>
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.56</v>
+        <v>1.04</v>
       </c>
       <c r="G58" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="H58" t="n">
         <v>2.62</v>
       </c>
       <c r="I58" t="n">
-        <v>2.78</v>
+        <v>1000</v>
       </c>
       <c r="J58" t="n">
-        <v>3.9</v>
+        <v>1.03</v>
       </c>
       <c r="K58" t="n">
         <v>4.3</v>
@@ -8251,88 +8251,88 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>5.1</v>
+        <v>1.02</v>
       </c>
       <c r="O58" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P58" t="n">
-        <v>2.44</v>
+        <v>1.21</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R58" t="n">
-        <v>1.57</v>
+        <v>1.09</v>
       </c>
       <c r="S58" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="T58" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="U58" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="V58" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="W58" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="X58" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y58" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z58" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA58" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC58" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD58" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE58" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG58" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH58" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI58" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK58" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL58" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM58" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO58" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59">
@@ -8377,7 +8377,7 @@
         <v>4.1</v>
       </c>
       <c r="K59" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
@@ -8506,7 +8506,7 @@
         <v>2.64</v>
       </c>
       <c r="I60" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J60" t="n">
         <v>3.15</v>
@@ -8527,7 +8527,7 @@
         <v>1.5</v>
       </c>
       <c r="P60" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q60" t="n">
         <v>2.52</v>
@@ -8545,10 +8545,10 @@
         <v>1.9</v>
       </c>
       <c r="V60" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W60" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X60" t="n">
         <v>9</v>
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H61" t="n">
         <v>4.6</v>
@@ -8665,7 +8665,7 @@
         <v>2.1</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R61" t="n">
         <v>1.43</v>
@@ -8683,7 +8683,7 @@
         <v>1.25</v>
       </c>
       <c r="W61" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X61" t="n">
         <v>18</v>
@@ -8713,7 +8713,7 @@
         <v>14.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH61" t="n">
         <v>19</v>
@@ -8776,7 +8776,7 @@
         <v>1.33</v>
       </c>
       <c r="I62" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J62" t="n">
         <v>4.7</v>
@@ -8815,10 +8815,10 @@
         <v>1.83</v>
       </c>
       <c r="V62" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="W62" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8905,7 +8905,7 @@
         <v>2.22</v>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H63" t="n">
         <v>3.7</v>
@@ -8914,10 +8914,10 @@
         <v>3.85</v>
       </c>
       <c r="J63" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K63" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L63" t="n">
         <v>1.42</v>
@@ -8929,19 +8929,19 @@
         <v>3.35</v>
       </c>
       <c r="O63" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P63" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q63" t="n">
         <v>2.1</v>
       </c>
       <c r="R63" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S63" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T63" t="n">
         <v>1.87</v>
@@ -8953,22 +8953,22 @@
         <v>1.35</v>
       </c>
       <c r="W63" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X63" t="n">
         <v>15</v>
       </c>
       <c r="Y63" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="Z63" t="n">
         <v>980</v>
       </c>
       <c r="AA63" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AB63" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AC63" t="n">
         <v>7.8</v>
@@ -8977,7 +8977,7 @@
         <v>1000</v>
       </c>
       <c r="AE63" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF63" t="n">
         <v>1000</v>
@@ -8986,7 +8986,7 @@
         <v>11.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI63" t="n">
         <v>60</v>
@@ -8995,7 +8995,7 @@
         <v>980</v>
       </c>
       <c r="AK63" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL63" t="n">
         <v>980</v>
@@ -9175,16 +9175,16 @@
         <v>2.16</v>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H65" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I65" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J65" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K65" t="n">
         <v>3.95</v>
@@ -9208,25 +9208,25 @@
         <v>1.68</v>
       </c>
       <c r="R65" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S65" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T65" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U65" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V65" t="n">
         <v>1.39</v>
       </c>
       <c r="W65" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X65" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -9274,7 +9274,7 @@
         <v>60</v>
       </c>
       <c r="AN65" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO65" t="n">
         <v>25</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -9322,13 +9322,13 @@
         <v>3.2</v>
       </c>
       <c r="K66" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L66" t="n">
         <v>1.48</v>
       </c>
       <c r="M66" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N66" t="n">
         <v>2.74</v>
@@ -9340,7 +9340,7 @@
         <v>1.6</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R66" t="n">
         <v>1.21</v>
@@ -9406,7 +9406,7 @@
         <v>65</v>
       </c>
       <c r="AM66" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN66" t="n">
         <v>980</v>
@@ -9442,19 +9442,19 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G67" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H67" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I67" t="n">
-        <v>870</v>
+        <v>7.4</v>
       </c>
       <c r="J67" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K67" t="n">
         <v>3.5</v>
@@ -9466,7 +9466,7 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="O67" t="n">
         <v>1.27</v>
@@ -9484,16 +9484,16 @@
         <v>3.9</v>
       </c>
       <c r="T67" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U67" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="V67" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W67" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X67" t="n">
         <v>12.5</v>
@@ -9586,7 +9586,7 @@
         <v>2.52</v>
       </c>
       <c r="I68" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J68" t="n">
         <v>2.96</v>
@@ -9601,7 +9601,7 @@
         <v>1.1</v>
       </c>
       <c r="N68" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O68" t="n">
         <v>1.45</v>
@@ -9625,7 +9625,7 @@
         <v>1.84</v>
       </c>
       <c r="V68" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W68" t="n">
         <v>1.4</v>
@@ -9718,7 +9718,7 @@
         <v>3.55</v>
       </c>
       <c r="H69" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I69" t="n">
         <v>2.8</v>
@@ -9763,7 +9763,7 @@
         <v>1.55</v>
       </c>
       <c r="W69" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X69" t="n">
         <v>12</v>
@@ -9883,19 +9883,19 @@
         <v>1.8</v>
       </c>
       <c r="R70" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S70" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T70" t="n">
         <v>1.66</v>
       </c>
       <c r="U70" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V70" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W70" t="n">
         <v>2.16</v>
@@ -10024,7 +10024,7 @@
         <v>2.5</v>
       </c>
       <c r="T71" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U71" t="n">
         <v>2.42</v>
@@ -10159,7 +10159,7 @@
         <v>3</v>
       </c>
       <c r="T72" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U72" t="n">
         <v>1.04</v>
@@ -10171,7 +10171,7 @@
         <v>1.2</v>
       </c>
       <c r="X72" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y72" t="n">
         <v>990</v>
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="G73" t="n">
         <v>13.5</v>
@@ -10261,13 +10261,13 @@
         <v>1.33</v>
       </c>
       <c r="I73" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="J73" t="n">
         <v>5.2</v>
       </c>
       <c r="K73" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L73" t="n">
         <v>1.23</v>
@@ -10294,7 +10294,7 @@
         <v>2.52</v>
       </c>
       <c r="T73" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="U73" t="n">
         <v>1.04</v>
@@ -10393,10 +10393,10 @@
         <v>1.3</v>
       </c>
       <c r="H74" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I74" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J74" t="n">
         <v>6</v>
@@ -10420,28 +10420,28 @@
         <v>2.1</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R74" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S74" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T74" t="n">
         <v>2.62</v>
       </c>
       <c r="U74" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V74" t="n">
         <v>1.06</v>
       </c>
       <c r="W74" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X74" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y74" t="n">
         <v>40</v>
@@ -10450,19 +10450,19 @@
         <v>160</v>
       </c>
       <c r="AA74" t="n">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="AB74" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC74" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD74" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE74" t="n">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="AF74" t="n">
         <v>6.6</v>
@@ -10471,7 +10471,7 @@
         <v>11.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI74" t="n">
         <v>300</v>
@@ -10486,13 +10486,13 @@
         <v>55</v>
       </c>
       <c r="AM74" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AN74" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO74" t="n">
-        <v>590</v>
+        <v>670</v>
       </c>
     </row>
     <row r="75">
@@ -10522,34 +10522,34 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G75" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="H75" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I75" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J75" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K75" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L75" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M75" t="n">
         <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="O75" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="P75" t="n">
         <v>1.76</v>
@@ -10561,7 +10561,7 @@
         <v>1.09</v>
       </c>
       <c r="S75" t="n">
-        <v>3.75</v>
+        <v>2.22</v>
       </c>
       <c r="T75" t="n">
         <v>1.66</v>
@@ -10570,10 +10570,10 @@
         <v>1.84</v>
       </c>
       <c r="V75" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W75" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X75" t="n">
         <v>990</v>
@@ -10675,13 +10675,13 @@
         <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M76" t="n">
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O76" t="n">
         <v>1.24</v>
@@ -10714,22 +10714,22 @@
         <v>23</v>
       </c>
       <c r="Y76" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z76" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA76" t="n">
         <v>14</v>
       </c>
       <c r="AB76" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC76" t="n">
         <v>11</v>
       </c>
       <c r="AD76" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE76" t="n">
         <v>14</v>
@@ -10756,13 +10756,13 @@
         <v>80</v>
       </c>
       <c r="AM76" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN76" t="n">
         <v>90</v>
       </c>
       <c r="AO76" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G77" t="n">
         <v>1.76</v>
@@ -10807,7 +10807,7 @@
         <v>4.1</v>
       </c>
       <c r="K77" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10816,7 +10816,7 @@
         <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O77" t="n">
         <v>1.23</v>
@@ -10834,10 +10834,10 @@
         <v>2.6</v>
       </c>
       <c r="T77" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U77" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V77" t="n">
         <v>1.21</v>
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G78" t="n">
         <v>3.4</v>
       </c>
-      <c r="G78" t="n">
-        <v>3.5</v>
-      </c>
       <c r="H78" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I78" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J78" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K78" t="n">
         <v>3.7</v>
@@ -10960,25 +10960,25 @@
         <v>2.16</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R78" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S78" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T78" t="n">
         <v>1.68</v>
       </c>
       <c r="U78" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V78" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W78" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X78" t="n">
         <v>16</v>
@@ -10996,7 +10996,7 @@
         <v>15</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD78" t="n">
         <v>11</v>
@@ -11032,7 +11032,7 @@
         <v>28</v>
       </c>
       <c r="AO78" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -11062,16 +11062,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G79" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>3.45</v>
       </c>
       <c r="I79" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J79" t="n">
         <v>3.4</v>
@@ -11092,10 +11092,10 @@
         <v>1.26</v>
       </c>
       <c r="P79" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R79" t="n">
         <v>1.46</v>
@@ -11107,10 +11107,10 @@
         <v>1.65</v>
       </c>
       <c r="U79" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V79" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W79" t="n">
         <v>1.71</v>
@@ -11131,13 +11131,13 @@
         <v>12</v>
       </c>
       <c r="AC79" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD79" t="n">
         <v>14.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AF79" t="n">
         <v>16.5</v>
@@ -11146,13 +11146,13 @@
         <v>11.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI79" t="n">
         <v>46</v>
       </c>
       <c r="AJ79" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK79" t="n">
         <v>23</v>
@@ -11161,10 +11161,10 @@
         <v>34</v>
       </c>
       <c r="AM79" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN79" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AO79" t="n">
         <v>32</v>
@@ -11200,13 +11200,13 @@
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="I80" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J80" t="n">
         <v>3.7</v>
@@ -11230,7 +11230,7 @@
         <v>2.12</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R80" t="n">
         <v>1.44</v>
@@ -11242,16 +11242,16 @@
         <v>1.69</v>
       </c>
       <c r="U80" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V80" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W80" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X80" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y80" t="n">
         <v>12</v>
@@ -11266,7 +11266,7 @@
         <v>14</v>
       </c>
       <c r="AC80" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD80" t="n">
         <v>11.5</v>
@@ -11275,7 +11275,7 @@
         <v>25</v>
       </c>
       <c r="AF80" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG80" t="n">
         <v>13</v>
@@ -11287,7 +11287,7 @@
         <v>36</v>
       </c>
       <c r="AJ80" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK80" t="n">
         <v>32</v>
@@ -11299,7 +11299,7 @@
         <v>75</v>
       </c>
       <c r="AN80" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO80" t="n">
         <v>18.5</v>
@@ -11338,10 +11338,10 @@
         <v>1.25</v>
       </c>
       <c r="H81" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I81" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="J81" t="n">
         <v>7.4</v>
@@ -11356,28 +11356,28 @@
         <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O81" t="n">
         <v>1.18</v>
       </c>
       <c r="P81" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R81" t="n">
         <v>1.67</v>
       </c>
       <c r="S81" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T81" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U81" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V81" t="n">
         <v>1.06</v>
@@ -11386,7 +11386,7 @@
         <v>5</v>
       </c>
       <c r="X81" t="n">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="Y81" t="n">
         <v>60</v>
@@ -11404,7 +11404,7 @@
         <v>17</v>
       </c>
       <c r="AD81" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE81" t="n">
         <v>280</v>
@@ -11431,13 +11431,13 @@
         <v>38</v>
       </c>
       <c r="AM81" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN81" t="n">
         <v>4</v>
       </c>
       <c r="AO81" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82">
@@ -11473,7 +11473,7 @@
         <v>7.8</v>
       </c>
       <c r="H82" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="I82" t="n">
         <v>1.56</v>
@@ -11482,7 +11482,7 @@
         <v>4.6</v>
       </c>
       <c r="K82" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L82" t="n">
         <v>1.39</v>
@@ -11491,7 +11491,7 @@
         <v>1.06</v>
       </c>
       <c r="N82" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O82" t="n">
         <v>1.31</v>
@@ -11518,13 +11518,13 @@
         <v>2.78</v>
       </c>
       <c r="W82" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X82" t="n">
         <v>15.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z82" t="n">
         <v>9</v>
@@ -11563,16 +11563,16 @@
         <v>120</v>
       </c>
       <c r="AL82" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM82" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN82" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AO82" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="83">
@@ -11605,19 +11605,19 @@
         <v>1.81</v>
       </c>
       <c r="G83" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H83" t="n">
         <v>4.8</v>
       </c>
       <c r="I83" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J83" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K83" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L83" t="n">
         <v>1.37</v>
@@ -11626,7 +11626,7 @@
         <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O83" t="n">
         <v>1.36</v>
@@ -11650,7 +11650,7 @@
         <v>1.04</v>
       </c>
       <c r="V83" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W83" t="n">
         <v>2.06</v>
@@ -11671,7 +11671,7 @@
         <v>10.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD83" t="n">
         <v>29</v>
@@ -11737,22 +11737,22 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G84" t="n">
         <v>3.1</v>
       </c>
       <c r="H84" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I84" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J84" t="n">
         <v>3.45</v>
       </c>
       <c r="K84" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11761,7 +11761,7 @@
         <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O84" t="n">
         <v>1.28</v>
@@ -11785,7 +11785,7 @@
         <v>2.06</v>
       </c>
       <c r="V84" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W84" t="n">
         <v>1.47</v>
@@ -11794,7 +11794,7 @@
         <v>20</v>
       </c>
       <c r="Y84" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z84" t="n">
         <v>23</v>
@@ -11803,7 +11803,7 @@
         <v>48</v>
       </c>
       <c r="AB84" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC84" t="n">
         <v>11</v>
@@ -11815,13 +11815,13 @@
         <v>36</v>
       </c>
       <c r="AF84" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG84" t="n">
         <v>18</v>
       </c>
       <c r="AH84" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI84" t="n">
         <v>50</v>
@@ -11830,7 +11830,7 @@
         <v>1000</v>
       </c>
       <c r="AK84" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL84" t="n">
         <v>1000</v>
@@ -11839,7 +11839,7 @@
         <v>1000</v>
       </c>
       <c r="AN84" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO84" t="n">
         <v>28</v>
@@ -11875,10 +11875,10 @@
         <v>1.98</v>
       </c>
       <c r="G85" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I85" t="n">
         <v>4.7</v>
@@ -11923,7 +11923,7 @@
         <v>1.28</v>
       </c>
       <c r="W85" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12016,7 +12016,7 @@
         <v>2.88</v>
       </c>
       <c r="I86" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J86" t="n">
         <v>2.98</v>
@@ -12031,22 +12031,22 @@
         <v>1.11</v>
       </c>
       <c r="N86" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O86" t="n">
         <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R86" t="n">
         <v>1.2</v>
       </c>
       <c r="S86" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T86" t="n">
         <v>2</v>
@@ -12145,13 +12145,13 @@
         <v>2.24</v>
       </c>
       <c r="G87" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H87" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I87" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J87" t="n">
         <v>3.05</v>
@@ -12166,22 +12166,22 @@
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="O87" t="n">
         <v>1.01</v>
       </c>
       <c r="P87" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q87" t="n">
         <v>2.2</v>
       </c>
       <c r="R87" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S87" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T87" t="n">
         <v>1.04</v>
@@ -12190,10 +12190,10 @@
         <v>1.76</v>
       </c>
       <c r="V87" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W87" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12283,7 +12283,7 @@
         <v>2.4</v>
       </c>
       <c r="H88" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I88" t="n">
         <v>3.6</v>
@@ -12292,10 +12292,10 @@
         <v>3.5</v>
       </c>
       <c r="K88" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L88" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M88" t="n">
         <v>1.05</v>
@@ -12310,7 +12310,7 @@
         <v>2.08</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R88" t="n">
         <v>1.42</v>
@@ -12334,7 +12334,7 @@
         <v>18</v>
       </c>
       <c r="Y88" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z88" t="n">
         <v>980</v>
@@ -12382,7 +12382,7 @@
         <v>16</v>
       </c>
       <c r="AO88" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89">
@@ -12421,13 +12421,13 @@
         <v>2.02</v>
       </c>
       <c r="I89" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="J89" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K89" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L89" t="n">
         <v>1.35</v>
@@ -12460,7 +12460,7 @@
         <v>2.04</v>
       </c>
       <c r="V89" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W89" t="n">
         <v>1.31</v>
@@ -12553,7 +12553,7 @@
         <v>2.68</v>
       </c>
       <c r="H90" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I90" t="n">
         <v>4.5</v>
@@ -12562,7 +12562,7 @@
         <v>2.88</v>
       </c>
       <c r="K90" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="L90" t="n">
         <v>1.46</v>
@@ -12712,10 +12712,10 @@
         <v>1.38</v>
       </c>
       <c r="P91" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R91" t="n">
         <v>1.27</v>
@@ -12760,7 +12760,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG91" t="n">
         <v>11</v>
@@ -12823,10 +12823,10 @@
         <v>2.44</v>
       </c>
       <c r="H92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I92" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.6</v>
       </c>
       <c r="J92" t="n">
         <v>3.25</v>
@@ -12865,7 +12865,7 @@
         <v>2.08</v>
       </c>
       <c r="V92" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W92" t="n">
         <v>1.69</v>
@@ -12922,7 +12922,7 @@
         <v>23</v>
       </c>
       <c r="AO92" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93">
@@ -12964,7 +12964,7 @@
         <v>1.57</v>
       </c>
       <c r="J93" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K93" t="n">
         <v>5.2</v>
@@ -12979,19 +12979,19 @@
         <v>7.2</v>
       </c>
       <c r="O93" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P93" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R93" t="n">
         <v>1.85</v>
       </c>
       <c r="S93" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T93" t="n">
         <v>1.58</v>
@@ -13009,7 +13009,7 @@
         <v>36</v>
       </c>
       <c r="Y93" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z93" t="n">
         <v>12.5</v>
@@ -13117,22 +13117,22 @@
         <v>1.48</v>
       </c>
       <c r="P94" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q94" t="n">
         <v>2.42</v>
       </c>
       <c r="R94" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S94" t="n">
         <v>5</v>
       </c>
       <c r="T94" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U94" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V94" t="n">
         <v>1.28</v>
@@ -13159,7 +13159,7 @@
         <v>7.4</v>
       </c>
       <c r="AD94" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE94" t="n">
         <v>70</v>
@@ -13171,7 +13171,7 @@
         <v>13.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI94" t="n">
         <v>90</v>
@@ -13180,7 +13180,7 @@
         <v>27</v>
       </c>
       <c r="AK94" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL94" t="n">
         <v>55</v>
@@ -13225,7 +13225,7 @@
         <v>1.91</v>
       </c>
       <c r="G95" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H95" t="n">
         <v>4.3</v>
@@ -13234,10 +13234,10 @@
         <v>4.5</v>
       </c>
       <c r="J95" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K95" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L95" t="n">
         <v>1.32</v>
@@ -13252,7 +13252,7 @@
         <v>1.24</v>
       </c>
       <c r="P95" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q95" t="n">
         <v>1.73</v>
@@ -13264,7 +13264,7 @@
         <v>2.82</v>
       </c>
       <c r="T95" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U95" t="n">
         <v>2.4</v>
@@ -13369,25 +13369,25 @@
         <v>2.42</v>
       </c>
       <c r="J96" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K96" t="n">
         <v>3.2</v>
       </c>
       <c r="L96" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M96" t="n">
         <v>1.11</v>
       </c>
       <c r="N96" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O96" t="n">
         <v>1.46</v>
       </c>
       <c r="P96" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q96" t="n">
         <v>2.36</v>
@@ -13402,10 +13402,10 @@
         <v>1.96</v>
       </c>
       <c r="U96" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V96" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W96" t="n">
         <v>1.34</v>
@@ -13495,10 +13495,10 @@
         <v>1.81</v>
       </c>
       <c r="G97" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H97" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I97" t="n">
         <v>5.3</v>
@@ -13522,7 +13522,7 @@
         <v>1.06</v>
       </c>
       <c r="P97" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q97" t="n">
         <v>1.84</v>
@@ -13543,13 +13543,13 @@
         <v>1.23</v>
       </c>
       <c r="W97" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X97" t="n">
         <v>15</v>
       </c>
       <c r="Y97" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z97" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -697,67 +697,67 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
         <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
         <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
         <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -766,13 +766,13 @@
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,70 +802,70 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="G3" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
         <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
         <v>11</v>
@@ -877,7 +877,7 @@
         <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
@@ -892,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
@@ -904,10 +904,10 @@
         <v>85</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
         <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>3.4</v>
@@ -973,7 +973,7 @@
         <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
         <v>3.85</v>
@@ -988,7 +988,7 @@
         <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1111,16 +1111,16 @@
         <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
         <v>2.28</v>
@@ -1141,7 +1141,7 @@
         <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>21</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="H6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I6" t="n">
         <v>4.7</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.8</v>
-      </c>
       <c r="J6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.37</v>
@@ -1240,40 +1240,40 @@
         <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
         <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
         <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
@@ -1288,16 +1288,16 @@
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
         <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
@@ -1348,16 +1348,16 @@
         <v>2.06</v>
       </c>
       <c r="H7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.7</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.32</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
@@ -1381,19 +1381,19 @@
         <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T7" t="n">
         <v>1.65</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1402,13 +1402,13 @@
         <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
         <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
         <v>9.800000000000001</v>
@@ -1426,16 +1426,16 @@
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>28</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G8" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
         <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>3.65</v>
@@ -1501,7 +1501,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.39</v>
@@ -1525,10 +1525,10 @@
         <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X8" t="n">
         <v>14.5</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1636,10 +1636,10 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
         <v>1.73</v>
@@ -1654,25 +1654,25 @@
         <v>4.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
         <v>110</v>
@@ -1684,7 +1684,7 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>70</v>
@@ -1750,10 +1750,10 @@
         <v>5.8</v>
       </c>
       <c r="G10" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I10" t="n">
         <v>1.51</v>
@@ -1774,13 +1774,13 @@
         <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
         <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="R10" t="n">
         <v>1.52</v>
@@ -1798,7 +1798,7 @@
         <v>2.96</v>
       </c>
       <c r="W10" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H11" t="n">
         <v>4.5</v>
@@ -1897,7 +1897,7 @@
         <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1930,10 +1930,10 @@
         <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X11" t="n">
         <v>14.5</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>2.08</v>
@@ -2029,10 +2029,10 @@
         <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
         <v>1.56</v>
@@ -2047,28 +2047,28 @@
         <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q12" t="n">
         <v>2.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S12" t="n">
         <v>5.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="V12" t="n">
         <v>1.76</v>
       </c>
       <c r="W12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X12" t="n">
         <v>8.6</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I13" t="n">
         <v>3.15</v>
@@ -2194,7 +2194,7 @@
         <v>2.68</v>
       </c>
       <c r="T13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U13" t="n">
         <v>2.38</v>
@@ -2203,7 +2203,7 @@
         <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
@@ -2287,97 +2287,97 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.67</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
         <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
         <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>23</v>
@@ -2386,13 +2386,13 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="I15" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
         <v>3.5</v>
@@ -2446,7 +2446,7 @@
         <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O15" t="n">
         <v>1.47</v>
@@ -2461,25 +2461,25 @@
         <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="V15" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="W15" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>1000</v>
@@ -2509,22 +2509,22 @@
         <v>990</v>
       </c>
       <c r="AI15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>80</v>
       </c>
       <c r="AO15" t="n">
         <v>980</v>
@@ -2623,13 +2623,13 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="n">
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G17" t="n">
         <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2716,7 +2716,7 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O17" t="n">
         <v>1.49</v>
@@ -2725,7 +2725,7 @@
         <v>1.57</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R17" t="n">
         <v>1.2</v>
@@ -2734,22 +2734,22 @@
         <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.78</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.76</v>
       </c>
       <c r="X17" t="n">
         <v>9.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
         <v>32</v>
@@ -2764,7 +2764,7 @@
         <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2785,7 +2785,7 @@
         <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL17" t="n">
         <v>60</v>
@@ -2842,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.42</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H19" t="n">
         <v>5.2</v>
@@ -2974,10 +2974,10 @@
         <v>5.3</v>
       </c>
       <c r="J19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.35</v>
       </c>
       <c r="L19" t="n">
         <v>1.57</v>
@@ -2986,10 +2986,10 @@
         <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P19" t="n">
         <v>1.57</v>
@@ -3013,7 +3013,7 @@
         <v>1.23</v>
       </c>
       <c r="W19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
         <v>8.4</v>
@@ -3031,7 +3031,7 @@
         <v>6.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
         <v>22</v>
@@ -3103,7 +3103,7 @@
         <v>1.79</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
         <v>6.4</v>
@@ -3112,25 +3112,25 @@
         <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="O20" t="n">
         <v>1.06</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
@@ -3139,10 +3139,10 @@
         <v>2.58</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
         <v>1.18</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H21" t="n">
         <v>4.6</v>
@@ -3283,7 +3283,7 @@
         <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3304,7 +3304,7 @@
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
         <v>65</v>
@@ -3322,7 +3322,7 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -3367,46 +3367,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.09</v>
+        <v>1.68</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="H22" t="n">
-        <v>1.09</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.2</v>
+        <v>2.82</v>
       </c>
       <c r="K22" t="n">
-        <v>500</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="R22" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="T22" t="n">
         <v>1.05</v>
@@ -3415,10 +3415,10 @@
         <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="G23" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I23" t="n">
         <v>1000</v>
@@ -3526,13 +3526,13 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="O23" t="n">
         <v>1.07</v>
       </c>
       <c r="P23" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="Q23" t="n">
         <v>1.07</v>
@@ -3553,7 +3553,7 @@
         <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G24" t="n">
         <v>2.06</v>
@@ -3682,7 +3682,7 @@
         <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
         <v>1.27</v>
@@ -3850,7 +3850,7 @@
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
         <v>14.5</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G26" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I26" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="J26" t="n">
         <v>3.7</v>
@@ -3925,37 +3925,37 @@
         <v>3.95</v>
       </c>
       <c r="L26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.29</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.28</v>
-      </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="T26" t="n">
         <v>1.79</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W26" t="n">
         <v>1.58</v>
@@ -3967,13 +3967,13 @@
         <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
@@ -3982,7 +3982,7 @@
         <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="n">
         <v>980</v>
@@ -3991,25 +3991,25 @@
         <v>990</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ26" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
         <v>980</v>
@@ -4045,7 +4045,7 @@
         <v>2.58</v>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
         <v>2.78</v>
@@ -4054,10 +4054,10 @@
         <v>3.05</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.39</v>
@@ -4066,34 +4066,34 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
         <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U27" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V27" t="n">
         <v>1.48</v>
       </c>
       <c r="W27" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
@@ -4108,7 +4108,7 @@
         <v>60</v>
       </c>
       <c r="AB27" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
         <v>9</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G28" t="n">
         <v>4.6</v>
@@ -4186,13 +4186,13 @@
         <v>1.94</v>
       </c>
       <c r="I28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J28" t="n">
         <v>3.55</v>
       </c>
       <c r="K28" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
         <v>1.31</v>
@@ -4201,7 +4201,7 @@
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -4213,76 +4213,76 @@
         <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T28" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.94</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.92</v>
       </c>
       <c r="W28" t="n">
         <v>1.28</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD28" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13</v>
-      </c>
       <c r="AE28" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL28" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO28" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G31" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H31" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J31" t="n">
         <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
         <v>1.26</v>
@@ -4609,7 +4609,7 @@
         <v>3.15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
         <v>2.06</v>
@@ -4630,10 +4630,10 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="W31" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X31" t="n">
         <v>990</v>
@@ -4660,7 +4660,7 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG31" t="n">
         <v>990</v>
@@ -4858,7 +4858,7 @@
         <v>1.98</v>
       </c>
       <c r="H33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
         <v>5.7</v>
@@ -4870,7 +4870,7 @@
         <v>4.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
@@ -4894,7 +4894,7 @@
         <v>2.54</v>
       </c>
       <c r="T33" t="n">
-        <v>1.05</v>
+        <v>1.58</v>
       </c>
       <c r="U33" t="n">
         <v>1.83</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G34" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H34" t="n">
         <v>11.5</v>
@@ -4999,10 +4999,10 @@
         <v>12.5</v>
       </c>
       <c r="J34" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.31</v>
@@ -5017,7 +5017,7 @@
         <v>1.24</v>
       </c>
       <c r="P34" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q34" t="n">
         <v>1.73</v>
@@ -5026,7 +5026,7 @@
         <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T34" t="n">
         <v>2.14</v>
@@ -5038,19 +5038,19 @@
         <v>1.08</v>
       </c>
       <c r="W34" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="X34" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA34" t="n">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="AB34" t="n">
         <v>8.6</v>
@@ -5062,37 +5062,37 @@
         <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF34" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AI34" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN34" t="n">
         <v>5.4</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G35" t="n">
         <v>2.84</v>
       </c>
       <c r="H35" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I35" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
         <v>1.39</v>
@@ -5182,10 +5182,10 @@
         <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AB35" t="n">
         <v>13.5</v>
@@ -5194,10 +5194,10 @@
         <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="n">
         <v>19</v>
@@ -5227,7 +5227,7 @@
         <v>25</v>
       </c>
       <c r="AO35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G36" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H36" t="n">
         <v>4.4</v>
@@ -5272,7 +5272,7 @@
         <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>1.37</v>
@@ -5320,7 +5320,7 @@
         <v>34</v>
       </c>
       <c r="AA36" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
         <v>9.4</v>
@@ -5341,7 +5341,7 @@
         <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI36" t="n">
         <v>65</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>4.1</v>
@@ -5404,7 +5404,7 @@
         <v>4.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="n">
         <v>3.6</v>
@@ -5422,7 +5422,7 @@
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q37" t="n">
         <v>2.12</v>
@@ -5440,13 +5440,13 @@
         <v>2.02</v>
       </c>
       <c r="V37" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W37" t="n">
         <v>1.9</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
         <v>14.5</v>
@@ -5494,7 +5494,7 @@
         <v>120</v>
       </c>
       <c r="AN37" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO37" t="n">
         <v>70</v>
@@ -5530,16 +5530,16 @@
         <v>4.7</v>
       </c>
       <c r="G38" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H38" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I38" t="n">
         <v>1.9</v>
       </c>
       <c r="J38" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K38" t="n">
         <v>4</v>
@@ -5557,7 +5557,7 @@
         <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q38" t="n">
         <v>1.97</v>
@@ -5578,7 +5578,7 @@
         <v>2.1</v>
       </c>
       <c r="W38" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X38" t="n">
         <v>15</v>
@@ -5608,7 +5608,7 @@
         <v>38</v>
       </c>
       <c r="AG38" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH38" t="n">
         <v>21</v>
@@ -5620,16 +5620,16 @@
         <v>130</v>
       </c>
       <c r="AK38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
         <v>120</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO38" t="n">
         <v>13.5</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H39" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I39" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>2.26</v>
       </c>
       <c r="V39" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W39" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5803,7 +5803,7 @@
         <v>1.48</v>
       </c>
       <c r="H40" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I40" t="n">
         <v>13</v>
@@ -5830,7 +5830,7 @@
         <v>2.06</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R40" t="n">
         <v>1.42</v>
@@ -6250,7 +6250,7 @@
         <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W43" t="n">
         <v>1.44</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H45" t="n">
         <v>3.85</v>
       </c>
       <c r="I45" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J45" t="n">
         <v>4.2</v>
       </c>
       <c r="K45" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.19</v>
@@ -6520,7 +6520,7 @@
         <v>2.52</v>
       </c>
       <c r="V45" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
         <v>2</v>
@@ -6541,7 +6541,7 @@
         <v>14.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD45" t="n">
         <v>19</v>
@@ -6559,7 +6559,7 @@
         <v>17</v>
       </c>
       <c r="AI45" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ45" t="n">
         <v>24</v>
@@ -6610,13 +6610,13 @@
         <v>1.33</v>
       </c>
       <c r="G46" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H46" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="I46" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
         <v>5.5</v>
@@ -6658,7 +6658,7 @@
         <v>1.08</v>
       </c>
       <c r="W46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X46" t="n">
         <v>990</v>
@@ -6685,7 +6685,7 @@
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG46" t="n">
         <v>16</v>
@@ -6766,28 +6766,28 @@
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P47" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R47" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="S47" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="T47" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U47" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V47" t="n">
         <v>1.11</v>
@@ -6796,7 +6796,7 @@
         <v>3.3</v>
       </c>
       <c r="X47" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="Y47" t="n">
         <v>990</v>
@@ -6844,7 +6844,7 @@
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6880,28 +6880,28 @@
         <v>2.64</v>
       </c>
       <c r="G48" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H48" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I48" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
         <v>3.4</v>
       </c>
       <c r="K48" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>3.05</v>
+        <v>2.06</v>
       </c>
       <c r="O48" t="n">
         <v>1.3</v>
@@ -6916,7 +6916,7 @@
         <v>1.26</v>
       </c>
       <c r="S48" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T48" t="n">
         <v>1.05</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="G49" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="H49" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I49" t="n">
         <v>4.9</v>
@@ -7063,7 +7063,7 @@
         <v>1.26</v>
       </c>
       <c r="W49" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X49" t="n">
         <v>32</v>
@@ -7090,7 +7090,7 @@
         <v>60</v>
       </c>
       <c r="AF49" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG49" t="n">
         <v>12.5</v>
@@ -7114,7 +7114,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO49" t="n">
         <v>38</v>
@@ -7153,7 +7153,7 @@
         <v>2.54</v>
       </c>
       <c r="H50" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I50" t="n">
         <v>3.6</v>
@@ -7180,7 +7180,7 @@
         <v>1.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="R50" t="n">
         <v>1.3</v>
@@ -7198,7 +7198,7 @@
         <v>1.38</v>
       </c>
       <c r="W50" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X50" t="n">
         <v>990</v>
@@ -7285,13 +7285,13 @@
         <v>3.6</v>
       </c>
       <c r="G51" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H51" t="n">
         <v>2.14</v>
       </c>
       <c r="I51" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="J51" t="n">
         <v>3.5</v>
@@ -7315,7 +7315,7 @@
         <v>1.69</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R51" t="n">
         <v>1.25</v>
@@ -7324,13 +7324,13 @@
         <v>4.1</v>
       </c>
       <c r="T51" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
         <v>1.87</v>
       </c>
       <c r="V51" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W51" t="n">
         <v>1.33</v>
@@ -7354,7 +7354,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE51" t="n">
         <v>27</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G52" t="n">
         <v>1.51</v>
@@ -7426,13 +7426,13 @@
         <v>6.6</v>
       </c>
       <c r="I52" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K52" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G53" t="n">
         <v>2.26</v>
@@ -7594,10 +7594,10 @@
         <v>2.74</v>
       </c>
       <c r="T53" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U53" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V53" t="n">
         <v>1.37</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G55" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
@@ -7834,10 +7834,10 @@
         <v>3.05</v>
       </c>
       <c r="J55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K55" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.42</v>
@@ -7861,19 +7861,19 @@
         <v>1.33</v>
       </c>
       <c r="S55" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T55" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U55" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V55" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W55" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X55" t="n">
         <v>13</v>
@@ -7888,10 +7888,10 @@
         <v>50</v>
       </c>
       <c r="AB55" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD55" t="n">
         <v>13.5</v>
@@ -7903,13 +7903,13 @@
         <v>16</v>
       </c>
       <c r="AG55" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ55" t="n">
         <v>38</v>
@@ -7918,7 +7918,7 @@
         <v>30</v>
       </c>
       <c r="AL55" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM55" t="n">
         <v>100</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G56" t="n">
         <v>1.51</v>
@@ -8008,10 +8008,10 @@
         <v>1.14</v>
       </c>
       <c r="W56" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="X56" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y56" t="n">
         <v>27</v>
@@ -8020,7 +8020,7 @@
         <v>65</v>
       </c>
       <c r="AA56" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="AB56" t="n">
         <v>9.199999999999999</v>
@@ -8038,7 +8038,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG56" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH56" t="n">
         <v>23</v>
@@ -8050,7 +8050,7 @@
         <v>13</v>
       </c>
       <c r="AK56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL56" t="n">
         <v>32</v>
@@ -8062,7 +8062,7 @@
         <v>6.8</v>
       </c>
       <c r="AO56" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
@@ -8128,7 +8128,7 @@
         <v>1.84</v>
       </c>
       <c r="R57" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S57" t="n">
         <v>2.22</v>
@@ -8146,7 +8146,7 @@
         <v>2.6</v>
       </c>
       <c r="X57" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y57" t="n">
         <v>990</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H59" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I59" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K59" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
@@ -8389,31 +8389,31 @@
         <v>3.8</v>
       </c>
       <c r="O59" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P59" t="n">
         <v>1.96</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R59" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S59" t="n">
         <v>3.4</v>
       </c>
       <c r="T59" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U59" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V59" t="n">
         <v>1.14</v>
       </c>
       <c r="W59" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X59" t="n">
         <v>18</v>
@@ -8440,7 +8440,7 @@
         <v>140</v>
       </c>
       <c r="AF59" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG59" t="n">
         <v>11</v>
@@ -8452,10 +8452,10 @@
         <v>130</v>
       </c>
       <c r="AJ59" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL59" t="n">
         <v>48</v>
@@ -8464,7 +8464,7 @@
         <v>180</v>
       </c>
       <c r="AN59" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO59" t="n">
         <v>1000</v>
@@ -8521,7 +8521,7 @@
         <v>1.12</v>
       </c>
       <c r="N60" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O60" t="n">
         <v>1.5</v>
@@ -8548,13 +8548,13 @@
         <v>1.59</v>
       </c>
       <c r="W60" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X60" t="n">
         <v>9</v>
       </c>
       <c r="Y60" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z60" t="n">
         <v>16</v>
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G61" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H61" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I61" t="n">
         <v>5</v>
@@ -8647,7 +8647,7 @@
         <v>3.8</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L61" t="n">
         <v>1.37</v>
@@ -8662,13 +8662,13 @@
         <v>1.28</v>
       </c>
       <c r="P61" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R61" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S61" t="n">
         <v>3.15</v>
@@ -8683,7 +8683,7 @@
         <v>1.25</v>
       </c>
       <c r="W61" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X61" t="n">
         <v>18</v>
@@ -8698,7 +8698,7 @@
         <v>130</v>
       </c>
       <c r="AB61" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC61" t="n">
         <v>9.199999999999999</v>
@@ -8710,19 +8710,19 @@
         <v>60</v>
       </c>
       <c r="AF61" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG61" t="n">
         <v>10</v>
       </c>
       <c r="AH61" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI61" t="n">
         <v>65</v>
       </c>
       <c r="AJ61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK61" t="n">
         <v>22</v>
@@ -8770,10 +8770,10 @@
         <v>7.2</v>
       </c>
       <c r="G62" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="H62" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="I62" t="n">
         <v>1.45</v>
@@ -8782,7 +8782,7 @@
         <v>4.7</v>
       </c>
       <c r="K62" t="n">
-        <v>9.199999999999999</v>
+        <v>950</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8800,7 +8800,7 @@
         <v>2.12</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="R62" t="n">
         <v>1.47</v>
@@ -8815,7 +8815,7 @@
         <v>1.83</v>
       </c>
       <c r="V62" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W62" t="n">
         <v>1.04</v>
@@ -8911,7 +8911,7 @@
         <v>3.7</v>
       </c>
       <c r="I63" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J63" t="n">
         <v>3.35</v>
@@ -8926,19 +8926,19 @@
         <v>1.08</v>
       </c>
       <c r="N63" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O63" t="n">
         <v>1.38</v>
       </c>
       <c r="P63" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R63" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S63" t="n">
         <v>3.9</v>
@@ -8977,7 +8977,7 @@
         <v>1000</v>
       </c>
       <c r="AE63" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF63" t="n">
         <v>1000</v>
@@ -8986,7 +8986,7 @@
         <v>11.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI63" t="n">
         <v>60</v>
@@ -8995,7 +8995,7 @@
         <v>980</v>
       </c>
       <c r="AK63" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL63" t="n">
         <v>980</v>
@@ -9040,7 +9040,7 @@
         <v>1.1</v>
       </c>
       <c r="G64" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="H64" t="n">
         <v>1.04</v>
@@ -9073,7 +9073,7 @@
         <v>1.46</v>
       </c>
       <c r="R64" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S64" t="n">
         <v>2.34</v>
@@ -9088,7 +9088,7 @@
         <v>1.01</v>
       </c>
       <c r="W64" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G65" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I65" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.6</v>
       </c>
       <c r="J65" t="n">
         <v>3.9</v>
@@ -9208,7 +9208,7 @@
         <v>1.68</v>
       </c>
       <c r="R65" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S65" t="n">
         <v>2.6</v>
@@ -9217,13 +9217,13 @@
         <v>1.6</v>
       </c>
       <c r="U65" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V65" t="n">
         <v>1.39</v>
       </c>
       <c r="W65" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="X65" t="n">
         <v>22</v>
@@ -9253,7 +9253,7 @@
         <v>15.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH65" t="n">
         <v>15</v>
@@ -9349,7 +9349,7 @@
         <v>4.7</v>
       </c>
       <c r="T66" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U66" t="n">
         <v>1.74</v>
@@ -9451,7 +9451,7 @@
         <v>3.9</v>
       </c>
       <c r="I67" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="J67" t="n">
         <v>2.86</v>
@@ -9466,7 +9466,7 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>2.24</v>
+        <v>1.1</v>
       </c>
       <c r="O67" t="n">
         <v>1.27</v>
@@ -9580,13 +9580,13 @@
         <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H68" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I68" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J68" t="n">
         <v>2.96</v>
@@ -9607,13 +9607,13 @@
         <v>1.45</v>
       </c>
       <c r="P68" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q68" t="n">
         <v>2.42</v>
       </c>
       <c r="R68" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S68" t="n">
         <v>4.7</v>
@@ -9622,13 +9622,13 @@
         <v>1.96</v>
       </c>
       <c r="U68" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V68" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W68" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X68" t="n">
         <v>10.5</v>
@@ -9682,7 +9682,7 @@
         <v>1000</v>
       </c>
       <c r="AO68" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69">
@@ -9712,16 +9712,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G69" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H69" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I69" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="J69" t="n">
         <v>2.96</v>
@@ -9733,7 +9733,7 @@
         <v>1.42</v>
       </c>
       <c r="M69" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N69" t="n">
         <v>2.78</v>
@@ -9745,7 +9745,7 @@
         <v>1.61</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R69" t="n">
         <v>1.22</v>
@@ -9760,25 +9760,25 @@
         <v>1.87</v>
       </c>
       <c r="V69" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W69" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X69" t="n">
         <v>12</v>
       </c>
       <c r="Y69" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z69" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA69" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB69" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC69" t="n">
         <v>8.6</v>
@@ -9802,7 +9802,7 @@
         <v>70</v>
       </c>
       <c r="AJ69" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK69" t="n">
         <v>55</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G70" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H70" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I70" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J70" t="n">
         <v>3.8</v>
       </c>
       <c r="K70" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L70" t="n">
         <v>1.31</v>
@@ -9871,13 +9871,13 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="O70" t="n">
         <v>1.28</v>
       </c>
       <c r="P70" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q70" t="n">
         <v>1.8</v>
@@ -9892,22 +9892,22 @@
         <v>1.66</v>
       </c>
       <c r="U70" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V70" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W70" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X70" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y70" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z70" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA70" t="n">
         <v>1000</v>
@@ -9919,7 +9919,7 @@
         <v>13</v>
       </c>
       <c r="AD70" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="AE70" t="n">
         <v>95</v>
@@ -9931,7 +9931,7 @@
         <v>15</v>
       </c>
       <c r="AH70" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI70" t="n">
         <v>95</v>
@@ -10117,46 +10117,46 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G72" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="H72" t="n">
         <v>1.69</v>
       </c>
       <c r="I72" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J72" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K72" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L72" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M72" t="n">
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.1</v>
+        <v>2.56</v>
       </c>
       <c r="O72" t="n">
         <v>1.01</v>
       </c>
       <c r="P72" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R72" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S72" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T72" t="n">
         <v>1.96</v>
@@ -10168,13 +10168,13 @@
         <v>2.14</v>
       </c>
       <c r="W72" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X72" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="Z72" t="n">
         <v>1000</v>
@@ -10270,7 +10270,7 @@
         <v>6.2</v>
       </c>
       <c r="L73" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M73" t="n">
         <v>1.01</v>
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="F74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G74" t="n">
         <v>1.29</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>15.5</v>
@@ -10411,7 +10411,7 @@
         <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O74" t="n">
         <v>1.29</v>
@@ -10423,7 +10423,7 @@
         <v>1.88</v>
       </c>
       <c r="R74" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S74" t="n">
         <v>3.25</v>
@@ -10441,7 +10441,7 @@
         <v>4.4</v>
       </c>
       <c r="X74" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y74" t="n">
         <v>40</v>
@@ -10471,10 +10471,10 @@
         <v>11.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI74" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AJ74" t="n">
         <v>8.800000000000001</v>
@@ -10528,7 +10528,7 @@
         <v>2.66</v>
       </c>
       <c r="H75" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I75" t="n">
         <v>3.25</v>
@@ -10546,10 +10546,10 @@
         <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>2.58</v>
+        <v>1.1</v>
       </c>
       <c r="O75" t="n">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="P75" t="n">
         <v>1.76</v>
@@ -10561,10 +10561,10 @@
         <v>1.09</v>
       </c>
       <c r="S75" t="n">
-        <v>2.22</v>
+        <v>3.75</v>
       </c>
       <c r="T75" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="U75" t="n">
         <v>1.84</v>
@@ -10657,16 +10657,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G76" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I76" t="n">
         <v>1.54</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.55</v>
       </c>
       <c r="J76" t="n">
         <v>4.9</v>
@@ -10675,7 +10675,7 @@
         <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M76" t="n">
         <v>1.04</v>
@@ -10687,34 +10687,34 @@
         <v>1.24</v>
       </c>
       <c r="P76" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R76" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S76" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T76" t="n">
         <v>1.84</v>
       </c>
       <c r="U76" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V76" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="W76" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y76" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z76" t="n">
         <v>9.6</v>
@@ -10726,7 +10726,7 @@
         <v>26</v>
       </c>
       <c r="AC76" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD76" t="n">
         <v>9.800000000000001</v>
@@ -10741,7 +10741,7 @@
         <v>25</v>
       </c>
       <c r="AH76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI76" t="n">
         <v>29</v>
@@ -10759,7 +10759,7 @@
         <v>100</v>
       </c>
       <c r="AN76" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO76" t="n">
         <v>7</v>
@@ -10792,10 +10792,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G77" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H77" t="n">
         <v>4.9</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G78" t="n">
         <v>3.4</v>
@@ -10939,7 +10939,7 @@
         <v>2.34</v>
       </c>
       <c r="J78" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K78" t="n">
         <v>3.7</v>
@@ -10957,10 +10957,10 @@
         <v>1.27</v>
       </c>
       <c r="P78" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R78" t="n">
         <v>1.46</v>
@@ -10969,7 +10969,7 @@
         <v>3.05</v>
       </c>
       <c r="T78" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U78" t="n">
         <v>2.38</v>
@@ -10990,7 +10990,7 @@
         <v>15.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB78" t="n">
         <v>15</v>
@@ -11077,7 +11077,7 @@
         <v>3.4</v>
       </c>
       <c r="K79" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.35</v>
@@ -11092,7 +11092,7 @@
         <v>1.26</v>
       </c>
       <c r="P79" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q79" t="n">
         <v>1.8</v>
@@ -11104,13 +11104,13 @@
         <v>2.96</v>
       </c>
       <c r="T79" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U79" t="n">
         <v>2.38</v>
       </c>
       <c r="V79" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W79" t="n">
         <v>1.71</v>
@@ -11125,7 +11125,7 @@
         <v>26</v>
       </c>
       <c r="AA79" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB79" t="n">
         <v>12</v>
@@ -11137,7 +11137,7 @@
         <v>14.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF79" t="n">
         <v>16.5</v>
@@ -11152,7 +11152,7 @@
         <v>46</v>
       </c>
       <c r="AJ79" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK79" t="n">
         <v>23</v>
@@ -11161,13 +11161,13 @@
         <v>34</v>
       </c>
       <c r="AM79" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN79" t="n">
         <v>16</v>
       </c>
       <c r="AO79" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80">
@@ -11200,19 +11200,19 @@
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H80" t="n">
         <v>2.44</v>
       </c>
       <c r="I80" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J80" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K80" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L80" t="n">
         <v>1.36</v>
@@ -11227,10 +11227,10 @@
         <v>1.28</v>
       </c>
       <c r="P80" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R80" t="n">
         <v>1.44</v>
@@ -11245,10 +11245,10 @@
         <v>2.36</v>
       </c>
       <c r="V80" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W80" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X80" t="n">
         <v>16.5</v>
@@ -11302,7 +11302,7 @@
         <v>26</v>
       </c>
       <c r="AO80" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="81">
@@ -11335,13 +11335,13 @@
         <v>1.24</v>
       </c>
       <c r="G81" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H81" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I81" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J81" t="n">
         <v>7.4</v>
@@ -11371,19 +11371,19 @@
         <v>1.67</v>
       </c>
       <c r="S81" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T81" t="n">
         <v>2.14</v>
       </c>
       <c r="U81" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V81" t="n">
         <v>1.06</v>
       </c>
       <c r="W81" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X81" t="n">
         <v>36</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="G82" t="n">
         <v>7.8</v>
@@ -11476,7 +11476,7 @@
         <v>1.52</v>
       </c>
       <c r="I82" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="J82" t="n">
         <v>4.6</v>
@@ -11485,7 +11485,7 @@
         <v>4.8</v>
       </c>
       <c r="L82" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M82" t="n">
         <v>1.06</v>
@@ -11503,7 +11503,7 @@
         <v>1.89</v>
       </c>
       <c r="R82" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S82" t="n">
         <v>3.25</v>
@@ -11515,7 +11515,7 @@
         <v>1.92</v>
       </c>
       <c r="V82" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="W82" t="n">
         <v>1.14</v>
@@ -11554,7 +11554,7 @@
         <v>25</v>
       </c>
       <c r="AI82" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ82" t="n">
         <v>240</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="G83" t="n">
         <v>1.93</v>
@@ -11611,13 +11611,13 @@
         <v>4.8</v>
       </c>
       <c r="I83" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J83" t="n">
         <v>3.6</v>
       </c>
       <c r="K83" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L83" t="n">
         <v>1.37</v>
@@ -11632,7 +11632,7 @@
         <v>1.36</v>
       </c>
       <c r="P83" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q83" t="n">
         <v>2.1</v>
@@ -11692,7 +11692,7 @@
         <v>1000</v>
       </c>
       <c r="AJ83" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK83" t="n">
         <v>32</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G84" t="n">
         <v>3.1</v>
@@ -11746,7 +11746,7 @@
         <v>2.5</v>
       </c>
       <c r="I84" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J84" t="n">
         <v>3.45</v>
@@ -11761,19 +11761,19 @@
         <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O84" t="n">
         <v>1.28</v>
       </c>
       <c r="P84" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R84" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S84" t="n">
         <v>3.15</v>
@@ -11785,7 +11785,7 @@
         <v>2.06</v>
       </c>
       <c r="V84" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W84" t="n">
         <v>1.47</v>
@@ -11881,13 +11881,13 @@
         <v>4.1</v>
       </c>
       <c r="I85" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J85" t="n">
         <v>3.5</v>
       </c>
       <c r="K85" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,13 +11896,13 @@
         <v>1.07</v>
       </c>
       <c r="N85" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="O85" t="n">
         <v>1.34</v>
       </c>
       <c r="P85" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q85" t="n">
         <v>2.06</v>
@@ -11923,7 +11923,7 @@
         <v>1.28</v>
       </c>
       <c r="W85" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12010,7 +12010,7 @@
         <v>2.72</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H86" t="n">
         <v>2.88</v>
@@ -12019,7 +12019,7 @@
         <v>3.15</v>
       </c>
       <c r="J86" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
         <v>3.15</v>
@@ -12031,22 +12031,22 @@
         <v>1.11</v>
       </c>
       <c r="N86" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O86" t="n">
         <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R86" t="n">
         <v>1.2</v>
       </c>
       <c r="S86" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T86" t="n">
         <v>2</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G87" t="n">
         <v>2.42</v>
@@ -12157,7 +12157,7 @@
         <v>3.05</v>
       </c>
       <c r="K87" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12166,7 +12166,7 @@
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="O87" t="n">
         <v>1.01</v>
@@ -12175,7 +12175,7 @@
         <v>1.59</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R87" t="n">
         <v>1.17</v>
@@ -12184,13 +12184,13 @@
         <v>4.1</v>
       </c>
       <c r="T87" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="U87" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="V87" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W87" t="n">
         <v>1.7</v>
@@ -12280,7 +12280,7 @@
         <v>2.2</v>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H88" t="n">
         <v>3.25</v>
@@ -12289,7 +12289,7 @@
         <v>3.6</v>
       </c>
       <c r="J88" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K88" t="n">
         <v>3.8</v>
@@ -12301,7 +12301,7 @@
         <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O88" t="n">
         <v>1.26</v>
@@ -12328,7 +12328,7 @@
         <v>1.4</v>
       </c>
       <c r="W88" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X88" t="n">
         <v>18</v>
@@ -12418,7 +12418,7 @@
         <v>4.3</v>
       </c>
       <c r="H89" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I89" t="n">
         <v>2.18</v>
@@ -12427,13 +12427,13 @@
         <v>3.4</v>
       </c>
       <c r="K89" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L89" t="n">
         <v>1.35</v>
       </c>
       <c r="M89" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N89" t="n">
         <v>3.45</v>
@@ -12442,19 +12442,19 @@
         <v>1.34</v>
       </c>
       <c r="P89" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R89" t="n">
         <v>1.32</v>
       </c>
       <c r="S89" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T89" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U89" t="n">
         <v>2.04</v>
@@ -12466,7 +12466,7 @@
         <v>1.31</v>
       </c>
       <c r="X89" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y89" t="n">
         <v>10.5</v>
@@ -12502,7 +12502,7 @@
         <v>48</v>
       </c>
       <c r="AJ89" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="n">
         <v>55</v>
@@ -12574,13 +12574,13 @@
         <v>1.1</v>
       </c>
       <c r="O90" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P90" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R90" t="n">
         <v>1.18</v>
@@ -12595,7 +12595,7 @@
         <v>1.04</v>
       </c>
       <c r="V90" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W90" t="n">
         <v>1.59</v>
@@ -12682,64 +12682,64 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G91" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I91" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J91" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K91" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L91" t="n">
         <v>1.32</v>
       </c>
       <c r="M91" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O91" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P91" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R91" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S91" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T91" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U91" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V91" t="n">
         <v>1.23</v>
       </c>
       <c r="W91" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X91" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z91" t="n">
         <v>36</v>
@@ -12757,7 +12757,7 @@
         <v>21</v>
       </c>
       <c r="AE91" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF91" t="n">
         <v>11.5</v>
@@ -12772,10 +12772,10 @@
         <v>95</v>
       </c>
       <c r="AJ91" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK91" t="n">
         <v>23</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>24</v>
       </c>
       <c r="AL91" t="n">
         <v>48</v>
@@ -12784,10 +12784,10 @@
         <v>180</v>
       </c>
       <c r="AN91" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO91" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="92">
@@ -12817,10 +12817,10 @@
         </is>
       </c>
       <c r="F92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G92" t="n">
         <v>2.42</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2.44</v>
       </c>
       <c r="H92" t="n">
         <v>3.5</v>
@@ -12829,100 +12829,100 @@
         <v>3.55</v>
       </c>
       <c r="J92" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K92" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L92" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M92" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O92" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="P92" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T92" t="n">
         <v>1.81</v>
       </c>
-      <c r="Q92" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S92" t="n">
-        <v>4</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1.88</v>
-      </c>
       <c r="U92" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="V92" t="n">
         <v>1.39</v>
       </c>
       <c r="W92" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X92" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA92" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB92" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC92" t="n">
         <v>7.2</v>
       </c>
       <c r="AD92" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE92" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF92" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AG92" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH92" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI92" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ92" t="n">
         <v>32</v>
       </c>
       <c r="AK92" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL92" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM92" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN92" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO92" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
@@ -12952,70 +12952,70 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="G93" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H93" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="I93" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="J93" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K93" t="n">
         <v>5.2</v>
       </c>
       <c r="L93" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M93" t="n">
         <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O93" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P93" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R93" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S93" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="T93" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U93" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="V93" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="W93" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X93" t="n">
         <v>36</v>
       </c>
       <c r="Y93" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z93" t="n">
         <v>12.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB93" t="n">
         <v>36</v>
@@ -13024,25 +13024,25 @@
         <v>12.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE93" t="n">
         <v>13.5</v>
       </c>
       <c r="AF93" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG93" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH93" t="n">
         <v>17.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ93" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AK93" t="n">
         <v>65</v>
@@ -13051,13 +13051,13 @@
         <v>55</v>
       </c>
       <c r="AM93" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN93" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AO93" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="94">
@@ -13087,16 +13087,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G94" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H94" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I94" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J94" t="n">
         <v>3.2</v>
@@ -13105,46 +13105,46 @@
         <v>3.3</v>
       </c>
       <c r="L94" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M94" t="n">
         <v>1.11</v>
       </c>
       <c r="N94" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="O94" t="n">
         <v>1.48</v>
       </c>
       <c r="P94" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="R94" t="n">
         <v>1.22</v>
       </c>
       <c r="S94" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T94" t="n">
         <v>2.08</v>
       </c>
       <c r="U94" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V94" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W94" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="X94" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y94" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z94" t="n">
         <v>29</v>
@@ -13156,31 +13156,31 @@
         <v>7.4</v>
       </c>
       <c r="AC94" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD94" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE94" t="n">
         <v>70</v>
       </c>
       <c r="AF94" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG94" t="n">
         <v>13.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI94" t="n">
         <v>90</v>
       </c>
       <c r="AJ94" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK94" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL94" t="n">
         <v>55</v>
@@ -13189,7 +13189,7 @@
         <v>170</v>
       </c>
       <c r="AN94" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO94" t="n">
         <v>100</v>
@@ -13222,19 +13222,19 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G95" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I95" t="n">
         <v>4.5</v>
       </c>
       <c r="J95" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K95" t="n">
         <v>4.1</v>
@@ -13255,13 +13255,13 @@
         <v>2.3</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R95" t="n">
         <v>1.51</v>
       </c>
       <c r="S95" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T95" t="n">
         <v>1.67</v>
@@ -13270,13 +13270,13 @@
         <v>2.4</v>
       </c>
       <c r="V95" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W95" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X95" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y95" t="n">
         <v>19</v>
@@ -13315,7 +13315,7 @@
         <v>22</v>
       </c>
       <c r="AK95" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL95" t="n">
         <v>30</v>
@@ -13324,7 +13324,7 @@
         <v>80</v>
       </c>
       <c r="AN95" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO95" t="n">
         <v>40</v>
@@ -13390,25 +13390,25 @@
         <v>1.65</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R96" t="n">
         <v>1.24</v>
       </c>
       <c r="S96" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T96" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U96" t="n">
         <v>1.92</v>
       </c>
       <c r="V96" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W96" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X96" t="n">
         <v>9.800000000000001</v>
@@ -13426,7 +13426,7 @@
         <v>11.5</v>
       </c>
       <c r="AC96" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD96" t="n">
         <v>11.5</v>
@@ -13492,10 +13492,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G97" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H97" t="n">
         <v>4.5</v>
@@ -13507,7 +13507,7 @@
         <v>3.65</v>
       </c>
       <c r="K97" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L97" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.37</v>
@@ -691,55 +691,55 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
         <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD2" t="n">
         <v>22</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>75</v>
@@ -757,22 +757,22 @@
         <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>2.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
         <v>3.45</v>
@@ -829,13 +829,13 @@
         <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
         <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
         <v>1.43</v>
@@ -844,16 +844,16 @@
         <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
         <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -862,7 +862,7 @@
         <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
         <v>65</v>
@@ -880,16 +880,16 @@
         <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G4" t="n">
         <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
@@ -964,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
         <v>1.68</v>
@@ -985,13 +985,13 @@
         <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W4" t="n">
         <v>1.52</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10.5</v>
@@ -1009,13 +1009,13 @@
         <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1030,7 +1030,7 @@
         <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
         <v>190</v>
@@ -1090,19 +1090,19 @@
         <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
@@ -1138,13 +1138,13 @@
         <v>140</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>80</v>
@@ -1165,19 +1165,19 @@
         <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.85</v>
@@ -1240,7 +1240,7 @@
         <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
         <v>1.42</v>
@@ -1255,13 +1255,13 @@
         <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
         <v>17</v>
@@ -1273,10 +1273,10 @@
         <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>18</v>
@@ -1288,22 +1288,22 @@
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>90</v>
@@ -1345,22 +1345,22 @@
         <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.1</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1369,49 +1369,49 @@
         <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T7" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U7" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
         <v>1.36</v>
       </c>
       <c r="W7" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
         <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
         <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
         <v>15</v>
@@ -1420,7 +1420,7 @@
         <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
@@ -1435,16 +1435,16 @@
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO7" t="n">
         <v>28</v>
@@ -1477,52 +1477,52 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
         <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V8" t="n">
         <v>1.25</v>
@@ -1531,10 +1531,10 @@
         <v>2.02</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="n">
         <v>95</v>
@@ -1543,7 +1543,7 @@
         <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
         <v>8.199999999999999</v>
@@ -1555,34 +1555,34 @@
         <v>190</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>95</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1627,25 +1627,25 @@
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
         <v>1.27</v>
@@ -1654,10 +1654,10 @@
         <v>4.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
         <v>1.28</v>
@@ -1669,7 +1669,7 @@
         <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
         <v>29</v>
@@ -1681,7 +1681,7 @@
         <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
         <v>18</v>
@@ -1747,82 +1747,82 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="I10" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>2.14</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
         <v>2.02</v>
@@ -1891,7 +1891,7 @@
         <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.3</v>
@@ -1900,22 +1900,22 @@
         <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
@@ -1927,7 +1927,7 @@
         <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
         <v>1.24</v>
@@ -1987,7 +1987,7 @@
         <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2020,10 +2020,10 @@
         <v>4.2</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I12" t="n">
         <v>2.3</v>
@@ -2032,61 +2032,61 @@
         <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.56</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.6</v>
-      </c>
       <c r="P12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="R12" t="n">
         <v>1.16</v>
       </c>
       <c r="S12" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U12" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
         <v>1.76</v>
       </c>
       <c r="W12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X12" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
         <v>12.5</v>
@@ -2095,16 +2095,16 @@
         <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2119,10 +2119,10 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G13" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H13" t="n">
         <v>2.86</v>
@@ -2170,7 +2170,7 @@
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2188,13 +2188,13 @@
         <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U13" t="n">
         <v>2.38</v>
@@ -2206,7 +2206,7 @@
         <v>1.61</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
         <v>15</v>
@@ -2215,19 +2215,19 @@
         <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
         <v>18.5</v>
@@ -2236,28 +2236,28 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2287,37 +2287,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
         <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O14" t="n">
         <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
         <v>2.2</v>
@@ -2329,22 +2329,22 @@
         <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
         <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z14" t="n">
         <v>50</v>
@@ -2353,13 +2353,13 @@
         <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC14" t="n">
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
         <v>480</v>
@@ -2377,7 +2377,7 @@
         <v>290</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
         <v>23</v>
@@ -2392,7 +2392,7 @@
         <v>18.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2422,64 +2422,64 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="I15" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
         <v>4.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,13 +2488,13 @@
         <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="n">
         <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE15" t="n">
         <v>980</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="AO15" t="n">
         <v>980</v>
@@ -2557,88 +2557,88 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="G16" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="I16" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="P16" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V16" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="W16" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
         <v>12</v>
       </c>
-      <c r="Y16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>29</v>
-      </c>
       <c r="AE16" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
         <v>150</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2710,7 +2710,7 @@
         <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -2737,7 +2737,7 @@
         <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V17" t="n">
         <v>1.26</v>
@@ -2827,28 +2827,28 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G18" t="n">
         <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
         <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K18" t="n">
         <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
         <v>2.8</v>
@@ -2857,10 +2857,10 @@
         <v>1.45</v>
       </c>
       <c r="P18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R18" t="n">
         <v>1.22</v>
@@ -2875,7 +2875,7 @@
         <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
         <v>1.61</v>
@@ -2887,25 +2887,25 @@
         <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
         <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
         <v>14.5</v>
@@ -2914,16 +2914,16 @@
         <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ18" t="n">
-        <v>44</v>
+        <v>900</v>
       </c>
       <c r="AK18" t="n">
         <v>95</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2968,16 +2968,16 @@
         <v>2.04</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.57</v>
@@ -2989,13 +2989,13 @@
         <v>2.74</v>
       </c>
       <c r="O19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P19" t="n">
         <v>1.58</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R19" t="n">
         <v>1.2</v>
@@ -3061,13 +3061,13 @@
         <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="n">
         <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G20" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
         <v>6.4</v>
@@ -3112,7 +3112,7 @@
         <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.35</v>
@@ -3121,13 +3121,13 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>2.82</v>
+        <v>1.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.06</v>
       </c>
       <c r="P20" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q20" t="n">
         <v>1.7</v>
@@ -3136,7 +3136,7 @@
         <v>1.26</v>
       </c>
       <c r="S20" t="n">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
         <v>1.87</v>
@@ -3148,7 +3148,7 @@
         <v>1.18</v>
       </c>
       <c r="W20" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3187,7 +3187,7 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
@@ -3250,7 +3250,7 @@
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3370,16 +3370,16 @@
         <v>1.68</v>
       </c>
       <c r="G22" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
         <v>6.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
         <v>4.6</v>
@@ -3397,34 +3397,34 @@
         <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
-        <v>1.64</v>
+        <v>2.64</v>
       </c>
       <c r="T22" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="U22" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3445,22 +3445,22 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH22" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="G23" t="n">
         <v>1.12</v>
@@ -3640,16 +3640,16 @@
         <v>1.95</v>
       </c>
       <c r="G24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
         <v>3.75</v>
@@ -3661,16 +3661,16 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="O24" t="n">
         <v>1.07</v>
       </c>
       <c r="P24" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
         <v>1.09</v>
@@ -3679,7 +3679,7 @@
         <v>3.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="U24" t="n">
         <v>1.04</v>
@@ -3688,10 +3688,10 @@
         <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3739,7 +3739,7 @@
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H25" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="J25" t="n">
         <v>4.6</v>
       </c>
       <c r="K25" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.3</v>
@@ -3796,16 +3796,16 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="R25" t="n">
         <v>1.35</v>
@@ -3826,7 +3826,7 @@
         <v>3.05</v>
       </c>
       <c r="X25" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="n">
         <v>1000</v>
@@ -3841,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
@@ -3853,16 +3853,16 @@
         <v>9.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
         <v>34</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H26" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="I26" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="J26" t="n">
         <v>3.8</v>
@@ -3931,43 +3931,43 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.1</v>
+        <v>2.72</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>1.27</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
         <v>1.84</v>
       </c>
       <c r="U26" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V26" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="X26" t="n">
         <v>20</v>
       </c>
       <c r="Y26" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="Z26" t="n">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3979,7 +3979,7 @@
         <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
@@ -3991,7 +3991,7 @@
         <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4003,7 +4003,7 @@
         <v>28</v>
       </c>
       <c r="AL26" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
@@ -4045,10 +4045,10 @@
         <v>3.15</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I27" t="n">
         <v>2.4</v>
@@ -4066,49 +4066,49 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="R27" t="n">
         <v>1.41</v>
       </c>
       <c r="S27" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U27" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V27" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W27" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>990</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
         <v>8.800000000000001</v>
@@ -4117,16 +4117,16 @@
         <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
         <v>46</v>
       </c>
       <c r="AG27" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
         <v>38</v>
@@ -4135,10 +4135,10 @@
         <v>190</v>
       </c>
       <c r="AK27" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
@@ -4147,7 +4147,7 @@
         <v>980</v>
       </c>
       <c r="AO27" t="n">
-        <v>19.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G28" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
         <v>3.05</v>
@@ -4192,31 +4192,31 @@
         <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.39</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q28" t="n">
         <v>2.14</v>
       </c>
       <c r="R28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="T28" t="n">
         <v>1.85</v>
@@ -4264,7 +4264,7 @@
         <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
         <v>44</v>
@@ -4273,7 +4273,7 @@
         <v>36</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
@@ -4282,7 +4282,7 @@
         <v>34</v>
       </c>
       <c r="AO28" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -4318,13 +4318,13 @@
         <v>4.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I29" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
         <v>4.1</v>
@@ -4360,7 +4360,7 @@
         <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W29" t="n">
         <v>1.27</v>
@@ -4411,7 +4411,7 @@
         <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="AN29" t="n">
         <v>60</v>
@@ -4609,7 +4609,7 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
         <v>2.24</v>
@@ -4621,7 +4621,7 @@
         <v>1.49</v>
       </c>
       <c r="S31" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T31" t="n">
         <v>2.1</v>
@@ -4633,7 +4633,7 @@
         <v>1.08</v>
       </c>
       <c r="W31" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="X31" t="n">
         <v>25</v>
@@ -4723,10 +4723,10 @@
         <v>1.98</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J32" t="n">
         <v>3.35</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G33" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
@@ -4909,7 +4909,7 @@
         <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4921,7 +4921,7 @@
         <v>23</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD33" t="n">
         <v>15</v>
@@ -4945,7 +4945,7 @@
         <v>190</v>
       </c>
       <c r="AK33" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AL33" t="n">
         <v>150</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G34" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H34" t="n">
         <v>12.5</v>
       </c>
       <c r="I34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J34" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
         <v>6.4</v>
@@ -5011,7 +5011,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O34" t="n">
         <v>1.24</v>
@@ -5023,7 +5023,7 @@
         <v>1.72</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S34" t="n">
         <v>2.8</v>
@@ -5053,13 +5053,13 @@
         <v>640</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC34" t="n">
         <v>13.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
         <v>250</v>
@@ -5071,25 +5071,25 @@
         <v>10.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ34" t="n">
         <v>10.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AL34" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM34" t="n">
         <v>220</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO34" t="n">
         <v>330</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G35" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H35" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I35" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5143,7 +5143,7 @@
         <v>1.39</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
         <v>3.75</v>
@@ -5152,7 +5152,7 @@
         <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q35" t="n">
         <v>1.95</v>
@@ -5161,7 +5161,7 @@
         <v>1.37</v>
       </c>
       <c r="S35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T35" t="n">
         <v>1.75</v>
@@ -5173,7 +5173,7 @@
         <v>1.51</v>
       </c>
       <c r="W35" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X35" t="n">
         <v>14.5</v>
@@ -5209,7 +5209,7 @@
         <v>19.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AJ35" t="n">
         <v>240</v>
@@ -5257,70 +5257,70 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="G36" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O36" t="n">
         <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T36" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U36" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X36" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB36" t="n">
         <v>9.4</v>
@@ -5329,10 +5329,10 @@
         <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF36" t="n">
         <v>12</v>
@@ -5341,28 +5341,28 @@
         <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK36" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM36" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>4.1</v>
@@ -5404,10 +5404,10 @@
         <v>4.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
         <v>1.44</v>
@@ -5422,10 +5422,10 @@
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
         <v>1.31</v>
@@ -5443,13 +5443,13 @@
         <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z37" t="n">
         <v>32</v>
@@ -5458,7 +5458,7 @@
         <v>100</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC37" t="n">
         <v>7.6</v>
@@ -5467,10 +5467,10 @@
         <v>17.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF37" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
@@ -5479,7 +5479,7 @@
         <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ37" t="n">
         <v>25</v>
@@ -5494,7 +5494,7 @@
         <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO37" t="n">
         <v>65</v>
@@ -5530,16 +5530,16 @@
         <v>4.7</v>
       </c>
       <c r="G38" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H38" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="I38" t="n">
         <v>1.9</v>
       </c>
       <c r="J38" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K38" t="n">
         <v>3.85</v>
@@ -5551,7 +5551,7 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O38" t="n">
         <v>1.32</v>
@@ -5578,7 +5578,7 @@
         <v>2.1</v>
       </c>
       <c r="W38" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="X38" t="n">
         <v>15</v>
@@ -5593,19 +5593,19 @@
         <v>21</v>
       </c>
       <c r="AB38" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD38" t="n">
         <v>10.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AF38" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG38" t="n">
         <v>20</v>
@@ -5614,13 +5614,13 @@
         <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ38" t="n">
         <v>130</v>
       </c>
       <c r="AK38" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
         <v>75</v>
@@ -5629,7 +5629,7 @@
         <v>120</v>
       </c>
       <c r="AN38" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="AO38" t="n">
         <v>13.5</v>
@@ -5665,13 +5665,13 @@
         <v>2.38</v>
       </c>
       <c r="G39" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="H39" t="n">
         <v>2.78</v>
       </c>
       <c r="I39" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="J39" t="n">
         <v>3.05</v>
@@ -5683,13 +5683,13 @@
         <v>1.26</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="O39" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
         <v>2.08</v>
@@ -5698,25 +5698,25 @@
         <v>1.73</v>
       </c>
       <c r="R39" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="S39" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U39" t="n">
         <v>2.28</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>1.44</v>
       </c>
       <c r="W39" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X39" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
       <c r="Y39" t="n">
         <v>990</v>
@@ -5731,7 +5731,7 @@
         <v>990</v>
       </c>
       <c r="AC39" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AD39" t="n">
         <v>990</v>
@@ -5746,16 +5746,16 @@
         <v>990</v>
       </c>
       <c r="AH39" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ39" t="n">
         <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
@@ -5821,7 +5821,7 @@
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O40" t="n">
         <v>1.41</v>
@@ -5848,7 +5848,7 @@
         <v>1.8</v>
       </c>
       <c r="W40" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X40" t="n">
         <v>14</v>
@@ -5878,7 +5878,7 @@
         <v>28</v>
       </c>
       <c r="AG40" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH40" t="n">
         <v>22</v>
@@ -5935,7 +5935,7 @@
         <v>1.89</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H41" t="n">
         <v>4.1</v>
@@ -5944,13 +5944,13 @@
         <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K41" t="n">
         <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
@@ -5983,7 +5983,7 @@
         <v>1.29</v>
       </c>
       <c r="W41" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X41" t="n">
         <v>18.5</v>
@@ -6019,7 +6019,7 @@
         <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="AJ41" t="n">
         <v>22</v>
@@ -6031,7 +6031,7 @@
         <v>44</v>
       </c>
       <c r="AM41" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="n">
         <v>13</v>
@@ -6082,10 +6082,10 @@
         <v>4.1</v>
       </c>
       <c r="K42" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L42" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G43" t="n">
         <v>3.25</v>
@@ -6211,7 +6211,7 @@
         <v>2.44</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J43" t="n">
         <v>3.35</v>
@@ -6223,16 +6223,16 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>2.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P43" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q43" t="n">
         <v>1.87</v>
@@ -6244,19 +6244,19 @@
         <v>2.9</v>
       </c>
       <c r="T43" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U43" t="n">
         <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W43" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X43" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y43" t="n">
         <v>12</v>
@@ -6265,7 +6265,7 @@
         <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AB43" t="n">
         <v>13.5</v>
@@ -6274,7 +6274,7 @@
         <v>8.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE43" t="n">
         <v>34</v>
@@ -6289,7 +6289,7 @@
         <v>21</v>
       </c>
       <c r="AI43" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="n">
         <v>55</v>
@@ -6301,13 +6301,13 @@
         <v>55</v>
       </c>
       <c r="AM43" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO43" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -6472,25 +6472,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G45" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J45" t="n">
         <v>3.95</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -6505,16 +6505,16 @@
         <v>2.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R45" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
         <v>2.34</v>
       </c>
       <c r="T45" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U45" t="n">
         <v>2.52</v>
@@ -6523,7 +6523,7 @@
         <v>1.31</v>
       </c>
       <c r="W45" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X45" t="n">
         <v>26</v>
@@ -6532,7 +6532,7 @@
         <v>25</v>
       </c>
       <c r="Z45" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA45" t="n">
         <v>75</v>
@@ -6541,7 +6541,7 @@
         <v>14.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD45" t="n">
         <v>19</v>
@@ -6574,7 +6574,7 @@
         <v>60</v>
       </c>
       <c r="AN45" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO45" t="n">
         <v>29</v>
@@ -6610,13 +6610,13 @@
         <v>2.14</v>
       </c>
       <c r="G46" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H46" t="n">
         <v>3.65</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J46" t="n">
         <v>3.4</v>
@@ -6649,10 +6649,10 @@
         <v>3.8</v>
       </c>
       <c r="T46" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U46" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>1.33</v>
@@ -6697,10 +6697,10 @@
         <v>380</v>
       </c>
       <c r="AJ46" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK46" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL46" t="n">
         <v>150</v>
@@ -6712,7 +6712,7 @@
         <v>28</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47">
@@ -6745,16 +6745,16 @@
         <v>1.33</v>
       </c>
       <c r="G47" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H47" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I47" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="J47" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K47" t="n">
         <v>6.2</v>
@@ -6763,7 +6763,7 @@
         <v>1.22</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
         <v>2.42</v>
@@ -6775,7 +6775,7 @@
         <v>2.24</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R47" t="n">
         <v>1.46</v>
@@ -6784,7 +6784,7 @@
         <v>2.42</v>
       </c>
       <c r="T47" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="U47" t="n">
         <v>1.04</v>
@@ -6880,19 +6880,19 @@
         <v>1.36</v>
       </c>
       <c r="G48" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H48" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I48" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="J48" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K48" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L48" t="n">
         <v>1.22</v>
@@ -6901,7 +6901,7 @@
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.23</v>
@@ -6922,19 +6922,19 @@
         <v>1.98</v>
       </c>
       <c r="U48" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V48" t="n">
         <v>1.11</v>
       </c>
       <c r="W48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X48" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="Y48" t="n">
-        <v>990</v>
+        <v>85</v>
       </c>
       <c r="Z48" t="n">
         <v>1000</v>
@@ -6943,7 +6943,7 @@
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC48" t="n">
         <v>16</v>
@@ -6955,7 +6955,7 @@
         <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG48" t="n">
         <v>10.5</v>
@@ -6979,7 +6979,7 @@
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7018,10 +7018,10 @@
         <v>2.8</v>
       </c>
       <c r="H49" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I49" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J49" t="n">
         <v>3.4</v>
@@ -7036,22 +7036,22 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O49" t="n">
         <v>1.3</v>
       </c>
       <c r="P49" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R49" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S49" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T49" t="n">
         <v>1.05</v>
@@ -7063,13 +7063,13 @@
         <v>1.47</v>
       </c>
       <c r="W49" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X49" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="Y49" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="n">
         <v>980</v>
@@ -7078,10 +7078,10 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="AC49" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AD49" t="n">
         <v>990</v>
@@ -7093,7 +7093,7 @@
         <v>980</v>
       </c>
       <c r="AG49" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="AH49" t="n">
         <v>990</v>
@@ -7201,7 +7201,7 @@
         <v>1.65</v>
       </c>
       <c r="X50" t="n">
-        <v>90</v>
+        <v>990</v>
       </c>
       <c r="Y50" t="n">
         <v>14.5</v>
@@ -7210,13 +7210,13 @@
         <v>980</v>
       </c>
       <c r="AA50" t="n">
-        <v>70</v>
+        <v>440</v>
       </c>
       <c r="AB50" t="n">
         <v>11.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>9.4</v>
+        <v>990</v>
       </c>
       <c r="AD50" t="n">
         <v>990</v>
@@ -7225,7 +7225,7 @@
         <v>980</v>
       </c>
       <c r="AF50" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG50" t="n">
         <v>990</v>
@@ -7234,7 +7234,7 @@
         <v>990</v>
       </c>
       <c r="AI50" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AJ50" t="n">
         <v>980</v>
@@ -7243,7 +7243,7 @@
         <v>980</v>
       </c>
       <c r="AL50" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM50" t="n">
         <v>130</v>
@@ -7426,7 +7426,7 @@
         <v>6.6</v>
       </c>
       <c r="I52" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
         <v>4.7</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.03</v>
+        <v>1.48</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7555,13 +7555,13 @@
         <v>2.1</v>
       </c>
       <c r="G53" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I53" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J53" t="n">
         <v>3.8</v>
@@ -7570,13 +7570,13 @@
         <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O53" t="n">
         <v>1.23</v>
@@ -7597,16 +7597,16 @@
         <v>1.66</v>
       </c>
       <c r="U53" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V53" t="n">
         <v>1.37</v>
       </c>
       <c r="W53" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X53" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
         <v>1000</v>
@@ -7624,7 +7624,7 @@
         <v>13.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE53" t="n">
         <v>980</v>
@@ -7657,7 +7657,7 @@
         <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G54" t="n">
         <v>1.46</v>
@@ -7720,7 +7720,7 @@
         <v>2.14</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>1.37</v>
       </c>
       <c r="P55" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q55" t="n">
         <v>2.14</v>
@@ -7861,7 +7861,7 @@
         <v>1.33</v>
       </c>
       <c r="S55" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T55" t="n">
         <v>1.86</v>
@@ -7909,7 +7909,7 @@
         <v>17.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ55" t="n">
         <v>38</v>
@@ -7921,7 +7921,7 @@
         <v>44</v>
       </c>
       <c r="AM55" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN55" t="n">
         <v>26</v>
@@ -7984,13 +7984,13 @@
         <v>4.7</v>
       </c>
       <c r="O56" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P56" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R56" t="n">
         <v>1.5</v>
@@ -8050,13 +8050,13 @@
         <v>13</v>
       </c>
       <c r="AK56" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL56" t="n">
         <v>32</v>
       </c>
       <c r="AM56" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN56" t="n">
         <v>6.8</v>
@@ -8116,7 +8116,7 @@
         <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.17</v>
@@ -8125,19 +8125,19 @@
         <v>2.56</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R57" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S57" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T57" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U57" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="V57" t="n">
         <v>1.26</v>
@@ -8152,13 +8152,13 @@
         <v>28</v>
       </c>
       <c r="Z57" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA57" t="n">
         <v>110</v>
       </c>
       <c r="AB57" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC57" t="n">
         <v>11.5</v>
@@ -8167,7 +8167,7 @@
         <v>22</v>
       </c>
       <c r="AE57" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF57" t="n">
         <v>16.5</v>
@@ -8179,10 +8179,10 @@
         <v>19.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AJ57" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK57" t="n">
         <v>19.5</v>
@@ -8197,7 +8197,7 @@
         <v>8.6</v>
       </c>
       <c r="AO57" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G58" t="n">
         <v>1.89</v>
@@ -8239,10 +8239,10 @@
         <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K58" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
         <v>1.37</v>
@@ -8257,7 +8257,7 @@
         <v>1.28</v>
       </c>
       <c r="P58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q58" t="n">
         <v>1.82</v>
@@ -8266,7 +8266,7 @@
         <v>1.42</v>
       </c>
       <c r="S58" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T58" t="n">
         <v>1.75</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G59" t="n">
         <v>3.35</v>
@@ -8389,13 +8389,13 @@
         <v>2.92</v>
       </c>
       <c r="O59" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P59" t="n">
         <v>1.63</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R59" t="n">
         <v>1.22</v>
@@ -8416,7 +8416,7 @@
         <v>1.42</v>
       </c>
       <c r="X59" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y59" t="n">
         <v>8.4</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G60" t="n">
         <v>1.59</v>
@@ -8527,7 +8527,7 @@
         <v>1.31</v>
       </c>
       <c r="P60" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q60" t="n">
         <v>1.93</v>
@@ -8536,13 +8536,13 @@
         <v>1.37</v>
       </c>
       <c r="S60" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T60" t="n">
         <v>2.04</v>
       </c>
       <c r="U60" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V60" t="n">
         <v>1.14</v>
@@ -8551,19 +8551,19 @@
         <v>2.68</v>
       </c>
       <c r="X60" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y60" t="n">
         <v>24</v>
       </c>
       <c r="Z60" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AA60" t="n">
         <v>290</v>
       </c>
       <c r="AB60" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC60" t="n">
         <v>10</v>
@@ -8584,7 +8584,7 @@
         <v>25</v>
       </c>
       <c r="AI60" t="n">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="AJ60" t="n">
         <v>14.5</v>
@@ -8596,7 +8596,7 @@
         <v>44</v>
       </c>
       <c r="AM60" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN60" t="n">
         <v>9.4</v>
@@ -8668,10 +8668,10 @@
         <v>1.55</v>
       </c>
       <c r="R61" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="S61" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="T61" t="n">
         <v>1.04</v>
@@ -8701,7 +8701,7 @@
         <v>1000</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD61" t="n">
         <v>1000</v>
@@ -8737,7 +8737,7 @@
         <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -8782,10 +8782,10 @@
         <v>3.35</v>
       </c>
       <c r="K62" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L62" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M62" t="n">
         <v>1.08</v>
@@ -8800,7 +8800,7 @@
         <v>1.8</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R62" t="n">
         <v>1.3</v>
@@ -8821,55 +8821,55 @@
         <v>1.75</v>
       </c>
       <c r="X62" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y62" t="n">
         <v>13</v>
       </c>
       <c r="Z62" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA62" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB62" t="n">
         <v>9</v>
       </c>
       <c r="AC62" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ62" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AK62" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL62" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM62" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN62" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO62" t="n">
         <v>55</v>
@@ -8905,7 +8905,7 @@
         <v>1.1</v>
       </c>
       <c r="G63" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="H63" t="n">
         <v>1.04</v>
@@ -8914,7 +8914,7 @@
         <v>1000</v>
       </c>
       <c r="J63" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="K63" t="n">
         <v>1000</v>
@@ -8926,7 +8926,7 @@
         <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O63" t="n">
         <v>1.17</v>
@@ -8938,22 +8938,22 @@
         <v>1.47</v>
       </c>
       <c r="R63" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S63" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T63" t="n">
         <v>1.04</v>
       </c>
       <c r="U63" t="n">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="V63" t="n">
         <v>1.01</v>
       </c>
       <c r="W63" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9040,10 +9040,10 @@
         <v>2.18</v>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H64" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
         <v>3.5</v>
@@ -9061,10 +9061,10 @@
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O64" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P64" t="n">
         <v>2.42</v>
@@ -9076,7 +9076,7 @@
         <v>1.59</v>
       </c>
       <c r="S64" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T64" t="n">
         <v>1.6</v>
@@ -9088,7 +9088,7 @@
         <v>1.4</v>
       </c>
       <c r="W64" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X64" t="n">
         <v>22</v>
@@ -9118,7 +9118,7 @@
         <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH64" t="n">
         <v>15</v>
@@ -9178,7 +9178,7 @@
         <v>3.4</v>
       </c>
       <c r="H65" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I65" t="n">
         <v>2.78</v>
@@ -9190,22 +9190,22 @@
         <v>3.4</v>
       </c>
       <c r="L65" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.1</v>
       </c>
       <c r="N65" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="O65" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P65" t="n">
         <v>1.59</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="R65" t="n">
         <v>1.22</v>
@@ -9214,10 +9214,10 @@
         <v>4.7</v>
       </c>
       <c r="T65" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U65" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V65" t="n">
         <v>1.56</v>
@@ -9229,34 +9229,34 @@
         <v>10.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Z65" t="n">
         <v>16.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB65" t="n">
         <v>10.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD65" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AF65" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG65" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AI65" t="n">
         <v>980</v>
@@ -9268,7 +9268,7 @@
         <v>980</v>
       </c>
       <c r="AL65" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AM65" t="n">
         <v>1000</v>
@@ -9313,16 +9313,16 @@
         <v>2.2</v>
       </c>
       <c r="H66" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I66" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J66" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K66" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L66" t="n">
         <v>1.47</v>
@@ -9355,7 +9355,7 @@
         <v>1.6</v>
       </c>
       <c r="V66" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W66" t="n">
         <v>1.83</v>
@@ -9373,10 +9373,10 @@
         <v>1000</v>
       </c>
       <c r="AB66" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD66" t="n">
         <v>1000</v>
@@ -9397,7 +9397,7 @@
         <v>1000</v>
       </c>
       <c r="AJ66" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK66" t="n">
         <v>980</v>
@@ -9442,16 +9442,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H67" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I67" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J67" t="n">
         <v>2.96</v>
@@ -9466,10 +9466,10 @@
         <v>1.11</v>
       </c>
       <c r="N67" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O67" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P67" t="n">
         <v>1.61</v>
@@ -9490,7 +9490,7 @@
         <v>1.87</v>
       </c>
       <c r="V67" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W67" t="n">
         <v>1.38</v>
@@ -9502,7 +9502,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z67" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA67" t="n">
         <v>50</v>
@@ -9517,10 +9517,10 @@
         <v>15</v>
       </c>
       <c r="AE67" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF67" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG67" t="n">
         <v>17.5</v>
@@ -9529,7 +9529,7 @@
         <v>25</v>
       </c>
       <c r="AI67" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AJ67" t="n">
         <v>900</v>
@@ -9538,7 +9538,7 @@
         <v>55</v>
       </c>
       <c r="AL67" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AM67" t="n">
         <v>1000</v>
@@ -9547,7 +9547,7 @@
         <v>1000</v>
       </c>
       <c r="AO67" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68">
@@ -9577,10 +9577,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G68" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>4.9</v>
@@ -9619,7 +9619,7 @@
         <v>4.7</v>
       </c>
       <c r="T68" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U68" t="n">
         <v>1.74</v>
@@ -9634,7 +9634,7 @@
         <v>10.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z68" t="n">
         <v>980</v>
@@ -9652,34 +9652,34 @@
         <v>990</v>
       </c>
       <c r="AE68" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AF68" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AG68" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AH68" t="n">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="AI68" t="n">
         <v>130</v>
       </c>
       <c r="AJ68" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK68" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AL68" t="n">
-        <v>65</v>
+        <v>460</v>
       </c>
       <c r="AM68" t="n">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN68" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO68" t="n">
         <v>190</v>
@@ -9718,19 +9718,19 @@
         <v>1.85</v>
       </c>
       <c r="H69" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I69" t="n">
         <v>6.2</v>
       </c>
       <c r="J69" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K69" t="n">
         <v>4.3</v>
       </c>
       <c r="L69" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M69" t="n">
         <v>1.01</v>
@@ -9745,7 +9745,7 @@
         <v>2.06</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R69" t="n">
         <v>1.36</v>
@@ -9754,13 +9754,13 @@
         <v>2.82</v>
       </c>
       <c r="T69" t="n">
-        <v>1.05</v>
+        <v>1.62</v>
       </c>
       <c r="U69" t="n">
         <v>1.04</v>
       </c>
       <c r="V69" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W69" t="n">
         <v>2.16</v>
@@ -9772,7 +9772,7 @@
         <v>26</v>
       </c>
       <c r="Z69" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA69" t="n">
         <v>1000</v>
@@ -9787,7 +9787,7 @@
         <v>29</v>
       </c>
       <c r="AE69" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AF69" t="n">
         <v>16</v>
@@ -9799,16 +9799,16 @@
         <v>28</v>
       </c>
       <c r="AI69" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AJ69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK69" t="n">
         <v>25</v>
       </c>
       <c r="AL69" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM69" t="n">
         <v>1000</v>
@@ -9850,10 +9850,10 @@
         <v>3.75</v>
       </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H70" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I70" t="n">
         <v>2.06</v>
@@ -9862,43 +9862,43 @@
         <v>3.85</v>
       </c>
       <c r="K70" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L70" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M70" t="n">
         <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O70" t="n">
         <v>1.2</v>
       </c>
       <c r="P70" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q70" t="n">
         <v>1.61</v>
       </c>
       <c r="R70" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S70" t="n">
         <v>2.5</v>
       </c>
       <c r="T70" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U70" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V70" t="n">
         <v>1.94</v>
       </c>
       <c r="W70" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X70" t="n">
         <v>28</v>
@@ -9949,7 +9949,7 @@
         <v>80</v>
       </c>
       <c r="AN70" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AO70" t="n">
         <v>12</v>
@@ -9985,7 +9985,7 @@
         <v>3.4</v>
       </c>
       <c r="G71" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>1.69</v>
@@ -9994,7 +9994,7 @@
         <v>1.87</v>
       </c>
       <c r="J71" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K71" t="n">
         <v>4.1</v>
@@ -10015,7 +10015,7 @@
         <v>1.73</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R71" t="n">
         <v>1.21</v>
@@ -10030,7 +10030,7 @@
         <v>1.04</v>
       </c>
       <c r="V71" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W71" t="n">
         <v>1.18</v>
@@ -10042,22 +10042,22 @@
         <v>10</v>
       </c>
       <c r="Z71" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AA71" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB71" t="n">
         <v>1000</v>
       </c>
       <c r="AC71" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD71" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="AE71" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF71" t="n">
         <v>1000</v>
@@ -10066,7 +10066,7 @@
         <v>1000</v>
       </c>
       <c r="AH71" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="n">
         <v>1000</v>
@@ -10087,7 +10087,7 @@
         <v>1000</v>
       </c>
       <c r="AO71" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
@@ -10135,13 +10135,13 @@
         <v>6.2</v>
       </c>
       <c r="L72" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M72" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>2.32</v>
+        <v>4.7</v>
       </c>
       <c r="O72" t="n">
         <v>1.21</v>
@@ -10150,19 +10150,19 @@
         <v>2.32</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R72" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="S72" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T72" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U72" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="V72" t="n">
         <v>3.4</v>
@@ -10174,25 +10174,25 @@
         <v>1000</v>
       </c>
       <c r="Y72" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z72" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB72" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AC72" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AD72" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF72" t="n">
         <v>1000</v>
@@ -10201,7 +10201,7 @@
         <v>1000</v>
       </c>
       <c r="AH72" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="n">
         <v>1000</v>
@@ -10222,7 +10222,7 @@
         <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="73">
@@ -10258,19 +10258,19 @@
         <v>1.3</v>
       </c>
       <c r="H73" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I73" t="n">
         <v>16</v>
       </c>
       <c r="J73" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K73" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L73" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M73" t="n">
         <v>1.06</v>
@@ -10285,7 +10285,7 @@
         <v>2.08</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R73" t="n">
         <v>1.41</v>
@@ -10303,7 +10303,7 @@
         <v>1.06</v>
       </c>
       <c r="W73" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X73" t="n">
         <v>17.5</v>
@@ -10330,7 +10330,7 @@
         <v>380</v>
       </c>
       <c r="AF73" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG73" t="n">
         <v>11.5</v>
@@ -10339,7 +10339,7 @@
         <v>44</v>
       </c>
       <c r="AI73" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AJ73" t="n">
         <v>8.800000000000001</v>
@@ -10354,7 +10354,7 @@
         <v>340</v>
       </c>
       <c r="AN73" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO73" t="n">
         <v>610</v>
@@ -10387,25 +10387,25 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G74" t="n">
         <v>2.64</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I74" t="n">
         <v>3.3</v>
       </c>
       <c r="J74" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K74" t="n">
         <v>3.55</v>
       </c>
       <c r="L74" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M74" t="n">
         <v>1.07</v>
@@ -10414,10 +10414,10 @@
         <v>2.58</v>
       </c>
       <c r="O74" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="P74" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q74" t="n">
         <v>2.16</v>
@@ -10432,7 +10432,7 @@
         <v>1.76</v>
       </c>
       <c r="U74" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V74" t="n">
         <v>1.44</v>
@@ -10450,10 +10450,10 @@
         <v>30</v>
       </c>
       <c r="AA74" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AB74" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC74" t="n">
         <v>11</v>
@@ -10462,37 +10462,37 @@
         <v>20</v>
       </c>
       <c r="AE74" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AF74" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG74" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH74" t="n">
         <v>28</v>
       </c>
       <c r="AI74" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AJ74" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK74" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL74" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AM74" t="n">
         <v>1000</v>
       </c>
       <c r="AN74" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AO74" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
@@ -10537,7 +10537,7 @@
         <v>4.9</v>
       </c>
       <c r="K75" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L75" t="n">
         <v>1.3</v>
@@ -10546,7 +10546,7 @@
         <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O75" t="n">
         <v>1.23</v>
@@ -10558,10 +10558,10 @@
         <v>1.7</v>
       </c>
       <c r="R75" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S75" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T75" t="n">
         <v>1.84</v>
@@ -10579,22 +10579,22 @@
         <v>22</v>
       </c>
       <c r="Y75" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z75" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA75" t="n">
         <v>14</v>
       </c>
       <c r="AB75" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC75" t="n">
         <v>11.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AE75" t="n">
         <v>14</v>
@@ -10612,19 +10612,19 @@
         <v>29</v>
       </c>
       <c r="AJ75" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK75" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL75" t="n">
         <v>80</v>
       </c>
       <c r="AM75" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN75" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AO75" t="n">
         <v>6.8</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G76" t="n">
         <v>1.75</v>
@@ -10714,7 +10714,7 @@
         <v>26</v>
       </c>
       <c r="Y76" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z76" t="n">
         <v>46</v>
@@ -10723,13 +10723,13 @@
         <v>900</v>
       </c>
       <c r="AB76" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC76" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE76" t="n">
         <v>80</v>
@@ -10741,25 +10741,25 @@
         <v>10.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI76" t="n">
         <v>65</v>
       </c>
       <c r="AJ76" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK76" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL76" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM76" t="n">
         <v>110</v>
       </c>
       <c r="AN76" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO76" t="n">
         <v>65</v>
@@ -10822,13 +10822,13 @@
         <v>1.27</v>
       </c>
       <c r="P77" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R77" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S77" t="n">
         <v>3.1</v>
@@ -10876,7 +10876,7 @@
         <v>14</v>
       </c>
       <c r="AH77" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI77" t="n">
         <v>34</v>
@@ -10897,7 +10897,7 @@
         <v>30</v>
       </c>
       <c r="AO77" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="78">
@@ -10927,16 +10927,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G78" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H78" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I78" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J78" t="n">
         <v>3.4</v>
@@ -10957,16 +10957,16 @@
         <v>1.27</v>
       </c>
       <c r="P78" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R78" t="n">
         <v>1.46</v>
       </c>
       <c r="S78" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T78" t="n">
         <v>1.65</v>
@@ -10975,7 +10975,7 @@
         <v>2.38</v>
       </c>
       <c r="V78" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W78" t="n">
         <v>1.7</v>
@@ -10984,7 +10984,7 @@
         <v>16.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z78" t="n">
         <v>26</v>
@@ -10996,13 +10996,13 @@
         <v>12</v>
       </c>
       <c r="AC78" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD78" t="n">
         <v>14.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF78" t="n">
         <v>16.5</v>
@@ -11020,19 +11020,19 @@
         <v>32</v>
       </c>
       <c r="AK78" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL78" t="n">
         <v>34</v>
       </c>
       <c r="AM78" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN78" t="n">
         <v>18.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
@@ -11065,13 +11065,13 @@
         <v>3.05</v>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H79" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I79" t="n">
         <v>2.46</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.48</v>
       </c>
       <c r="J79" t="n">
         <v>3.7</v>
@@ -11092,7 +11092,7 @@
         <v>1.28</v>
       </c>
       <c r="P79" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q79" t="n">
         <v>1.84</v>
@@ -11110,7 +11110,7 @@
         <v>2.36</v>
       </c>
       <c r="V79" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W79" t="n">
         <v>1.47</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G80" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H80" t="n">
         <v>15</v>
       </c>
       <c r="I80" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J80" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K80" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L80" t="n">
         <v>1.26</v>
@@ -11230,49 +11230,49 @@
         <v>2.68</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R80" t="n">
         <v>1.67</v>
       </c>
       <c r="S80" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T80" t="n">
         <v>2.14</v>
       </c>
       <c r="U80" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V80" t="n">
         <v>1.06</v>
       </c>
       <c r="W80" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X80" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y80" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>940</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD80" t="n">
         <v>60</v>
       </c>
-      <c r="Z80" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>810</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>55</v>
-      </c>
       <c r="AE80" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AF80" t="n">
         <v>8</v>
@@ -11281,7 +11281,7 @@
         <v>11</v>
       </c>
       <c r="AH80" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI80" t="n">
         <v>220</v>
@@ -11293,16 +11293,16 @@
         <v>13.5</v>
       </c>
       <c r="AL80" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM80" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN80" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AO80" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81">
@@ -11332,19 +11332,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G81" t="n">
         <v>7.6</v>
       </c>
       <c r="H81" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I81" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="J81" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K81" t="n">
         <v>4.8</v>
@@ -11356,22 +11356,22 @@
         <v>1.06</v>
       </c>
       <c r="N81" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O81" t="n">
         <v>1.31</v>
       </c>
       <c r="P81" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R81" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S81" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T81" t="n">
         <v>2.04</v>
@@ -11380,7 +11380,7 @@
         <v>1.87</v>
       </c>
       <c r="V81" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="W81" t="n">
         <v>1.15</v>
@@ -11398,7 +11398,7 @@
         <v>14.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC81" t="n">
         <v>10.5</v>
@@ -11410,7 +11410,7 @@
         <v>16.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG81" t="n">
         <v>28</v>
@@ -11419,7 +11419,7 @@
         <v>26</v>
       </c>
       <c r="AI81" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ81" t="n">
         <v>240</v>
@@ -11470,19 +11470,19 @@
         <v>1.83</v>
       </c>
       <c r="G82" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H82" t="n">
         <v>4.8</v>
       </c>
       <c r="I82" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J82" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K82" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L82" t="n">
         <v>1.45</v>
@@ -11491,7 +11491,7 @@
         <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="O82" t="n">
         <v>1.37</v>
@@ -11569,7 +11569,7 @@
         <v>1000</v>
       </c>
       <c r="AN82" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO82" t="n">
         <v>1000</v>
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H83" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I83" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J83" t="n">
         <v>3.4</v>
@@ -11632,28 +11632,28 @@
         <v>1.28</v>
       </c>
       <c r="P83" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="R83" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S83" t="n">
         <v>3.15</v>
       </c>
       <c r="T83" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U83" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="V83" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W83" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X83" t="n">
         <v>20</v>
@@ -11737,19 +11737,19 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
         <v>2.1</v>
       </c>
       <c r="H84" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I84" t="n">
         <v>4.6</v>
       </c>
       <c r="J84" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K84" t="n">
         <v>3.55</v>
@@ -11761,7 +11761,7 @@
         <v>1.07</v>
       </c>
       <c r="N84" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O84" t="n">
         <v>1.34</v>
@@ -11770,7 +11770,7 @@
         <v>1.8</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R84" t="n">
         <v>1.18</v>
@@ -11785,7 +11785,7 @@
         <v>1.9</v>
       </c>
       <c r="V84" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W84" t="n">
         <v>1.9</v>
@@ -11875,16 +11875,16 @@
         <v>2.72</v>
       </c>
       <c r="G85" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I85" t="n">
         <v>3.2</v>
       </c>
       <c r="J85" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K85" t="n">
         <v>3.15</v>
@@ -11896,7 +11896,7 @@
         <v>1.11</v>
       </c>
       <c r="N85" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O85" t="n">
         <v>1.5</v>
@@ -11905,13 +11905,13 @@
         <v>1.58</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R85" t="n">
         <v>1.2</v>
       </c>
       <c r="S85" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T85" t="n">
         <v>2</v>
@@ -11920,7 +11920,7 @@
         <v>1.83</v>
       </c>
       <c r="V85" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W85" t="n">
         <v>1.52</v>
@@ -11929,31 +11929,31 @@
         <v>11</v>
       </c>
       <c r="Y85" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA85" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB85" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC85" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD85" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE85" t="n">
         <v>55</v>
       </c>
       <c r="AF85" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG85" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH85" t="n">
         <v>23</v>
@@ -11965,7 +11965,7 @@
         <v>60</v>
       </c>
       <c r="AK85" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL85" t="n">
         <v>70</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G86" t="n">
         <v>2.36</v>
@@ -12016,13 +12016,13 @@
         <v>3.85</v>
       </c>
       <c r="I86" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J86" t="n">
         <v>3.05</v>
       </c>
       <c r="K86" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12031,7 +12031,7 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O86" t="n">
         <v>1.01</v>
@@ -12040,7 +12040,7 @@
         <v>1.58</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="R86" t="n">
         <v>1.17</v>
@@ -12055,7 +12055,7 @@
         <v>1.86</v>
       </c>
       <c r="V86" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W86" t="n">
         <v>1.73</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G87" t="n">
         <v>2.38</v>
@@ -12166,22 +12166,22 @@
         <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O87" t="n">
         <v>1.26</v>
       </c>
       <c r="P87" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q87" t="n">
         <v>1.83</v>
       </c>
       <c r="R87" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S87" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T87" t="n">
         <v>1.66</v>
@@ -12190,7 +12190,7 @@
         <v>2.24</v>
       </c>
       <c r="V87" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W87" t="n">
         <v>1.72</v>
@@ -12199,7 +12199,7 @@
         <v>18</v>
       </c>
       <c r="Y87" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z87" t="n">
         <v>980</v>
@@ -12208,7 +12208,7 @@
         <v>70</v>
       </c>
       <c r="AB87" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC87" t="n">
         <v>10</v>
@@ -12277,46 +12277,46 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G88" t="n">
         <v>4.3</v>
       </c>
       <c r="H88" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I88" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J88" t="n">
         <v>3.3</v>
       </c>
       <c r="K88" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L88" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="M88" t="n">
         <v>1.08</v>
       </c>
       <c r="N88" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O88" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P88" t="n">
         <v>1.81</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R88" t="n">
         <v>1.32</v>
       </c>
       <c r="S88" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T88" t="n">
         <v>1.83</v>
@@ -12325,10 +12325,10 @@
         <v>2.02</v>
       </c>
       <c r="V88" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W88" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X88" t="n">
         <v>15.5</v>
@@ -12412,25 +12412,25 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G89" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="H89" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I89" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J89" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="K89" t="n">
         <v>3.45</v>
       </c>
       <c r="L89" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M89" t="n">
         <v>1.01</v>
@@ -12451,19 +12451,19 @@
         <v>1.18</v>
       </c>
       <c r="S89" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T89" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="U89" t="n">
         <v>1.04</v>
       </c>
       <c r="V89" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W89" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="X89" t="n">
         <v>1000</v>
@@ -12547,70 +12547,70 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G90" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H90" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I90" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J90" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K90" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L90" t="n">
         <v>1.33</v>
       </c>
       <c r="M90" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N90" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O90" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P90" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R90" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S90" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T90" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U90" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V90" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W90" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y90" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA90" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB90" t="n">
         <v>8.800000000000001</v>
@@ -12619,10 +12619,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD90" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE90" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF90" t="n">
         <v>11.5</v>
@@ -12640,19 +12640,19 @@
         <v>22</v>
       </c>
       <c r="AK90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL90" t="n">
         <v>980</v>
       </c>
       <c r="AM90" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN90" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO90" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
@@ -12682,10 +12682,10 @@
         </is>
       </c>
       <c r="F91" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G91" t="n">
         <v>2.4</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2.42</v>
       </c>
       <c r="H91" t="n">
         <v>3.55</v>
@@ -12700,16 +12700,16 @@
         <v>3.35</v>
       </c>
       <c r="L91" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M91" t="n">
         <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O91" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P91" t="n">
         <v>1.87</v>
@@ -12718,13 +12718,13 @@
         <v>2.12</v>
       </c>
       <c r="R91" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S91" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T91" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U91" t="n">
         <v>2.16</v>
@@ -12742,13 +12742,13 @@
         <v>13</v>
       </c>
       <c r="Z91" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA91" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB91" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC91" t="n">
         <v>7.2</v>
@@ -12757,19 +12757,19 @@
         <v>14</v>
       </c>
       <c r="AE91" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF91" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG91" t="n">
         <v>11</v>
       </c>
       <c r="AH91" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI91" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ91" t="n">
         <v>32</v>
@@ -12781,13 +12781,13 @@
         <v>40</v>
       </c>
       <c r="AM91" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN91" t="n">
         <v>21</v>
       </c>
       <c r="AO91" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92">
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G92" t="n">
         <v>6.6</v>
@@ -12832,10 +12832,10 @@
         <v>5.1</v>
       </c>
       <c r="K92" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L92" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
@@ -12844,7 +12844,7 @@
         <v>7.6</v>
       </c>
       <c r="O92" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P92" t="n">
         <v>3.2</v>
@@ -12853,16 +12853,16 @@
         <v>1.44</v>
       </c>
       <c r="R92" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S92" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T92" t="n">
         <v>1.6</v>
       </c>
       <c r="U92" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V92" t="n">
         <v>2.84</v>
@@ -12877,7 +12877,7 @@
         <v>15.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA92" t="n">
         <v>15</v>
@@ -12904,7 +12904,7 @@
         <v>17.5</v>
       </c>
       <c r="AI92" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ92" t="n">
         <v>160</v>
@@ -12919,7 +12919,7 @@
         <v>65</v>
       </c>
       <c r="AN92" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO92" t="n">
         <v>4.7</v>
@@ -12952,10 +12952,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G93" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H93" t="n">
         <v>4.2</v>
@@ -13096,7 +13096,7 @@
         <v>4.4</v>
       </c>
       <c r="I94" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J94" t="n">
         <v>4</v>
@@ -13114,19 +13114,19 @@
         <v>5</v>
       </c>
       <c r="O94" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P94" t="n">
         <v>2.36</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R94" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S94" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T94" t="n">
         <v>1.67</v>
@@ -13141,13 +13141,13 @@
         <v>2.1</v>
       </c>
       <c r="X94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y94" t="n">
         <v>19.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA94" t="n">
         <v>90</v>
@@ -13156,7 +13156,7 @@
         <v>11.5</v>
       </c>
       <c r="AC94" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD94" t="n">
         <v>17.5</v>
@@ -13177,7 +13177,7 @@
         <v>50</v>
       </c>
       <c r="AJ94" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK94" t="n">
         <v>17.5</v>
@@ -13186,10 +13186,10 @@
         <v>30</v>
       </c>
       <c r="AM94" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN94" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO94" t="n">
         <v>40</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G95" t="n">
         <v>3.8</v>
@@ -13252,10 +13252,10 @@
         <v>1.46</v>
       </c>
       <c r="P95" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R95" t="n">
         <v>1.24</v>
@@ -13306,7 +13306,7 @@
         <v>18</v>
       </c>
       <c r="AH95" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI95" t="n">
         <v>55</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G96" t="n">
         <v>1.95</v>
@@ -13366,13 +13366,13 @@
         <v>4.5</v>
       </c>
       <c r="I96" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J96" t="n">
         <v>3.7</v>
       </c>
       <c r="K96" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13381,16 +13381,16 @@
         <v>1.06</v>
       </c>
       <c r="N96" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O96" t="n">
         <v>1.06</v>
       </c>
       <c r="P96" t="n">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R96" t="n">
         <v>1.22</v>
@@ -13402,10 +13402,10 @@
         <v>1.04</v>
       </c>
       <c r="U96" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W96" t="n">
         <v>2.04</v>
@@ -13423,7 +13423,7 @@
         <v>1000</v>
       </c>
       <c r="AB96" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC96" t="n">
         <v>8.800000000000001</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
         <v>55</v>
@@ -733,10 +733,10 @@
         <v>210</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>22</v>
@@ -745,7 +745,7 @@
         <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>9.6</v>
@@ -754,25 +754,25 @@
         <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
         <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.45</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.55</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -835,64 +835,64 @@
         <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
         <v>2.34</v>
       </c>
       <c r="V3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
         <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="n">
         <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
@@ -904,7 +904,7 @@
         <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -955,34 +955,34 @@
         <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
         <v>1.91</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
         <v>1.48</v>
@@ -994,13 +994,13 @@
         <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="n">
         <v>9.4</v>
@@ -1009,40 +1009,40 @@
         <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -1081,7 +1081,7 @@
         <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.8</v>
@@ -1105,13 +1105,13 @@
         <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
         <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -1132,7 +1132,7 @@
         <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
         <v>140</v>
@@ -1171,10 +1171,10 @@
         <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
         <v>100</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.85</v>
@@ -1228,7 +1228,7 @@
         <v>1.37</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>4.2</v>
@@ -1237,34 +1237,34 @@
         <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R6" t="n">
         <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
         <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
         <v>34</v>
@@ -1276,7 +1276,7 @@
         <v>9.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
         <v>18</v>
@@ -1300,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
         <v>90</v>
@@ -1312,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1345,109 +1345,109 @@
         <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
         <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T7" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U7" t="n">
         <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
         <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H8" t="n">
         <v>4.7</v>
@@ -1489,13 +1489,13 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
@@ -1516,10 +1516,10 @@
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
         <v>1.97</v>
@@ -1537,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
         <v>150</v>
@@ -1558,13 +1558,13 @@
         <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
@@ -1627,19 +1627,19 @@
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.49</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
         <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
         <v>1.74</v>
@@ -1654,10 +1654,10 @@
         <v>4.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
         <v>1.28</v>
@@ -1750,25 +1750,25 @@
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
         <v>5</v>
@@ -1777,16 +1777,16 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
         <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
         <v>1.86</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="W10" t="n">
         <v>1.11</v>
@@ -1804,16 +1804,16 @@
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>9.6</v>
       </c>
       <c r="AA10" t="n">
         <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="n">
         <v>42</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
         <v>4.5</v>
@@ -1894,10 +1894,10 @@
         <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>1.46</v>
@@ -1927,13 +1927,13 @@
         <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
         <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G12" t="n">
         <v>4.8</v>
@@ -2032,7 +2032,7 @@
         <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
         <v>1.6</v>
@@ -2041,13 +2041,13 @@
         <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="O12" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q12" t="n">
         <v>2.78</v>
@@ -2068,7 +2068,7 @@
         <v>1.76</v>
       </c>
       <c r="W12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X12" t="n">
         <v>8.199999999999999</v>
@@ -2155,10 +2155,10 @@
         <v>2.42</v>
       </c>
       <c r="G13" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H13" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
         <v>3.15</v>
@@ -2170,46 +2170,46 @@
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T13" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W13" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
         <v>23</v>
@@ -2224,13 +2224,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
         <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2257,7 +2257,7 @@
         <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G14" t="n">
         <v>1.87</v>
@@ -2299,7 +2299,7 @@
         <v>6.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>3.85</v>
@@ -2311,16 +2311,16 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
         <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
@@ -2329,7 +2329,7 @@
         <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
         <v>1.8</v>
@@ -2338,7 +2338,7 @@
         <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G15" t="n">
         <v>3.25</v>
@@ -2440,31 +2440,31 @@
         <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="M15" t="n">
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="O15" t="n">
         <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U15" t="n">
         <v>1.83</v>
@@ -2479,7 +2479,7 @@
         <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2494,7 +2494,7 @@
         <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
         <v>980</v>
@@ -2560,28 +2560,28 @@
         <v>4.9</v>
       </c>
       <c r="G16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H16" t="n">
         <v>1.88</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J16" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O16" t="n">
         <v>1.56</v>
@@ -2605,10 +2605,10 @@
         <v>1.64</v>
       </c>
       <c r="V16" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W16" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X16" t="n">
         <v>8.6</v>
@@ -2623,7 +2623,7 @@
         <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8</v>
@@ -2644,7 +2644,7 @@
         <v>150</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2710,13 +2710,13 @@
         <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O17" t="n">
         <v>1.49</v>
@@ -2725,7 +2725,7 @@
         <v>1.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
         <v>1.2</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G18" t="n">
         <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
         <v>3.9</v>
@@ -2842,10 +2842,10 @@
         <v>2.98</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
@@ -2857,10 +2857,10 @@
         <v>1.45</v>
       </c>
       <c r="P18" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
         <v>1.22</v>
@@ -2875,13 +2875,13 @@
         <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W18" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
         <v>11.5</v>
@@ -2932,7 +2932,7 @@
         <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2980,13 +2980,13 @@
         <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M19" t="n">
         <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O19" t="n">
         <v>1.55</v>
@@ -3010,7 +3010,7 @@
         <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W19" t="n">
         <v>1.96</v>
@@ -3055,7 +3055,7 @@
         <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>60</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G20" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
         <v>6.4</v>
@@ -3115,94 +3115,94 @@
         <v>3.8</v>
       </c>
       <c r="L20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.35</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.06</v>
-      </c>
       <c r="P20" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="T20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.87</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>900</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -3238,10 +3238,10 @@
         <v>2.04</v>
       </c>
       <c r="H21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I21" t="n">
         <v>4.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.7</v>
       </c>
       <c r="J21" t="n">
         <v>3.45</v>
@@ -3250,7 +3250,7 @@
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3262,7 +3262,7 @@
         <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q21" t="n">
         <v>2.22</v>
@@ -3274,7 +3274,7 @@
         <v>4.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U21" t="n">
         <v>1.98</v>
@@ -3283,7 +3283,7 @@
         <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3304,13 +3304,13 @@
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
         <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3328,7 +3328,7 @@
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
         <v>130</v>
@@ -3373,58 +3373,58 @@
         <v>1.87</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>6.6</v>
+        <v>23</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>2.64</v>
+        <v>1.79</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="U22" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
         <v>42</v>
@@ -3445,22 +3445,22 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="G23" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H23" t="n">
         <v>36</v>
       </c>
       <c r="I23" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="J23" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="K23" t="n">
-        <v>350</v>
+        <v>17.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1</v>
+        <v>9.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P23" t="n">
-        <v>2.82</v>
+        <v>3.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="R23" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="S23" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="T23" t="n">
         <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
         <v>1000</v>
@@ -3580,10 +3580,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -3592,10 +3592,10 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>29</v>
+        <v>2.28</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3640,100 +3640,100 @@
         <v>1.95</v>
       </c>
       <c r="G24" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I24" t="n">
         <v>4.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="P24" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="S24" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V24" t="n">
         <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>90</v>
+        <v>14.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="n">
         <v>900</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC24" t="n">
-        <v>42</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
         <v>580</v>
@@ -3742,7 +3742,7 @@
         <v>60</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G25" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H25" t="n">
         <v>8</v>
@@ -3784,49 +3784,49 @@
         <v>10.5</v>
       </c>
       <c r="J25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K25" t="n">
         <v>5.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="R25" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U25" t="n">
         <v>1.73</v>
       </c>
       <c r="V25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X25" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="Y25" t="n">
         <v>1000</v>
@@ -3838,7 +3838,7 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AC25" t="n">
         <v>25</v>
@@ -3850,13 +3850,13 @@
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG25" t="n">
         <v>22</v>
       </c>
       <c r="AH25" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3865,7 +3865,7 @@
         <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>6.8</v>
+        <v>22</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G26" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="H26" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="I26" t="n">
         <v>6.8</v>
@@ -3925,46 +3925,46 @@
         <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P26" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R26" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="U26" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="V26" t="n">
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="n">
         <v>270</v>
@@ -3973,43 +3973,43 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG26" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH26" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,76 +4042,76 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R27" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S27" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U27" t="n">
         <v>2.24</v>
       </c>
       <c r="V27" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="W27" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X27" t="n">
         <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD27" t="n">
         <v>12</v>
@@ -4120,10 +4120,10 @@
         <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
         <v>25</v>
@@ -4132,22 +4132,22 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -4177,49 +4177,49 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="G28" t="n">
         <v>2.9</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I28" t="n">
         <v>3.05</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.39</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P28" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R28" t="n">
         <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
         <v>1.96</v>
@@ -4234,19 +4234,19 @@
         <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
         <v>23</v>
       </c>
       <c r="AA28" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
         <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>15.5</v>
@@ -4258,16 +4258,16 @@
         <v>19</v>
       </c>
       <c r="AG28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
         <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="n">
         <v>36</v>
@@ -4279,10 +4279,10 @@
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -4315,43 +4315,43 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
         <v>1.89</v>
       </c>
       <c r="I29" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
         <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
         <v>1.95</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R29" t="n">
         <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T29" t="n">
         <v>1.86</v>
@@ -4360,7 +4360,7 @@
         <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
         <v>1.27</v>
@@ -4369,10 +4369,10 @@
         <v>18.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA29" t="n">
         <v>23</v>
@@ -4393,7 +4393,7 @@
         <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH29" t="n">
         <v>19</v>
@@ -4408,7 +4408,7 @@
         <v>55</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM29" t="n">
         <v>430</v>
@@ -4585,61 +4585,61 @@
         <v>1.3</v>
       </c>
       <c r="G31" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I31" t="n">
         <v>13.5</v>
       </c>
       <c r="J31" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K31" t="n">
         <v>6.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>2.66</v>
+        <v>5.2</v>
       </c>
       <c r="O31" t="n">
         <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="R31" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="S31" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="T31" t="n">
         <v>2.1</v>
       </c>
       <c r="U31" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
         <v>1.08</v>
       </c>
       <c r="W31" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X31" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="Y31" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4651,22 +4651,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG31" t="n">
         <v>11.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
@@ -4678,13 +4678,13 @@
         <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,61 +4717,61 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="G32" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S32" t="n">
         <v>2.92</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.54</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W32" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="X32" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
       <c r="Y32" t="n">
         <v>1000</v>
@@ -4783,34 +4783,34 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC32" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4852,37 +4852,37 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G33" t="n">
         <v>3.95</v>
       </c>
       <c r="H33" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I33" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q33" t="n">
         <v>1.7</v>
@@ -4891,10 +4891,10 @@
         <v>1.45</v>
       </c>
       <c r="S33" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T33" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
         <v>2.26</v>
@@ -4903,61 +4903,61 @@
         <v>1.83</v>
       </c>
       <c r="W33" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AF33" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AG33" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AJ33" t="n">
         <v>190</v>
       </c>
       <c r="AK33" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="34">
@@ -4987,25 +4987,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G34" t="n">
         <v>1.33</v>
       </c>
       <c r="H34" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K34" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5014,16 +5014,16 @@
         <v>4.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q34" t="n">
         <v>1.72</v>
       </c>
       <c r="R34" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S34" t="n">
         <v>2.8</v>
@@ -5032,7 +5032,7 @@
         <v>2.18</v>
       </c>
       <c r="U34" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V34" t="n">
         <v>1.07</v>
@@ -5041,7 +5041,7 @@
         <v>4.1</v>
       </c>
       <c r="X34" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="Y34" t="n">
         <v>42</v>
@@ -5050,7 +5050,7 @@
         <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="AB34" t="n">
         <v>8.6</v>
@@ -5059,7 +5059,7 @@
         <v>13.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE34" t="n">
         <v>250</v>
@@ -5071,7 +5071,7 @@
         <v>10.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="n">
         <v>190</v>
@@ -5080,19 +5080,19 @@
         <v>10.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM34" t="n">
         <v>220</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO34" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5125,10 +5125,10 @@
         <v>2.66</v>
       </c>
       <c r="G35" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H35" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="I35" t="n">
         <v>2.96</v>
@@ -5140,34 +5140,34 @@
         <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O35" t="n">
         <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R35" t="n">
         <v>1.37</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T35" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U35" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V35" t="n">
         <v>1.51</v>
@@ -5200,13 +5200,13 @@
         <v>38</v>
       </c>
       <c r="AF35" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG35" t="n">
         <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI35" t="n">
         <v>44</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G36" t="n">
         <v>1.95</v>
@@ -5275,31 +5275,31 @@
         <v>4.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
         <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R36" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S36" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U36" t="n">
         <v>2.1</v>
@@ -5308,10 +5308,10 @@
         <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y36" t="n">
         <v>15.5</v>
@@ -5326,7 +5326,7 @@
         <v>9.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
         <v>17</v>
@@ -5404,40 +5404,40 @@
         <v>4.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R37" t="n">
         <v>1.31</v>
       </c>
       <c r="S37" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T37" t="n">
         <v>1.88</v>
       </c>
       <c r="U37" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V37" t="n">
         <v>1.3</v>
@@ -5446,7 +5446,7 @@
         <v>1.9</v>
       </c>
       <c r="X37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
         <v>14</v>
@@ -5461,7 +5461,7 @@
         <v>8.6</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD37" t="n">
         <v>17.5</v>
@@ -5470,7 +5470,7 @@
         <v>60</v>
       </c>
       <c r="AF37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
@@ -5479,7 +5479,7 @@
         <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AJ37" t="n">
         <v>25</v>
@@ -5494,7 +5494,7 @@
         <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO37" t="n">
         <v>65</v>
@@ -5530,13 +5530,13 @@
         <v>4.7</v>
       </c>
       <c r="G38" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I38" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J38" t="n">
         <v>3.75</v>
@@ -5545,40 +5545,40 @@
         <v>3.85</v>
       </c>
       <c r="L38" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O38" t="n">
         <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U38" t="n">
         <v>2.02</v>
       </c>
       <c r="V38" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W38" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X38" t="n">
         <v>15</v>
@@ -5605,7 +5605,7 @@
         <v>25</v>
       </c>
       <c r="AF38" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG38" t="n">
         <v>20</v>
@@ -5620,10 +5620,10 @@
         <v>130</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL38" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="n">
         <v>120</v>
@@ -5662,58 +5662,58 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="G39" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="H39" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K39" t="n">
         <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="O39" t="n">
         <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R39" t="n">
         <v>1.43</v>
       </c>
       <c r="S39" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="T39" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U39" t="n">
         <v>2.28</v>
       </c>
       <c r="V39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W39" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="X39" t="n">
         <v>990</v>
@@ -5731,13 +5731,13 @@
         <v>990</v>
       </c>
       <c r="AC39" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD39" t="n">
         <v>990</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF39" t="n">
         <v>980</v>
@@ -5800,13 +5800,13 @@
         <v>3.7</v>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H40" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I40" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J40" t="n">
         <v>3.45</v>
@@ -5815,13 +5815,13 @@
         <v>3.65</v>
       </c>
       <c r="L40" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="M40" t="n">
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="n">
         <v>1.41</v>
@@ -5830,13 +5830,13 @@
         <v>1.69</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R40" t="n">
         <v>1.25</v>
       </c>
       <c r="S40" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T40" t="n">
         <v>2</v>
@@ -5845,10 +5845,10 @@
         <v>1.87</v>
       </c>
       <c r="V40" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W40" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X40" t="n">
         <v>14</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G41" t="n">
         <v>1.96</v>
@@ -5947,22 +5947,22 @@
         <v>3.8</v>
       </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O41" t="n">
         <v>1.29</v>
       </c>
       <c r="P41" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q41" t="n">
         <v>1.86</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G42" t="n">
         <v>1.62</v>
       </c>
       <c r="H42" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J42" t="n">
         <v>4.1</v>
@@ -6085,34 +6085,34 @@
         <v>4.7</v>
       </c>
       <c r="L42" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="O42" t="n">
         <v>1.28</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R42" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="S42" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.05</v>
+        <v>1.93</v>
       </c>
       <c r="U42" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V42" t="n">
         <v>1.14</v>
@@ -6121,7 +6121,7 @@
         <v>2.6</v>
       </c>
       <c r="X42" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="Y42" t="n">
         <v>990</v>
@@ -6136,7 +6136,7 @@
         <v>22</v>
       </c>
       <c r="AC42" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AD42" t="n">
         <v>990</v>
@@ -6145,22 +6145,22 @@
         <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AG42" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AH42" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AL42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G43" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I43" t="n">
         <v>2.68</v>
       </c>
       <c r="J43" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K43" t="n">
         <v>3.85</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="O43" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="P43" t="n">
         <v>1.95</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R43" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="S43" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="T43" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V43" t="n">
         <v>1.59</v>
@@ -6268,7 +6268,7 @@
         <v>36</v>
       </c>
       <c r="AB43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
         <v>8.4</v>
@@ -6277,10 +6277,10 @@
         <v>12.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG43" t="n">
         <v>16.5</v>
@@ -6292,10 +6292,10 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK43" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL43" t="n">
         <v>55</v>
@@ -6304,7 +6304,7 @@
         <v>200</v>
       </c>
       <c r="AN43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO43" t="n">
         <v>24</v>
@@ -6472,25 +6472,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>4.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -6511,13 +6511,13 @@
         <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T45" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U45" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V45" t="n">
         <v>1.31</v>
@@ -6541,13 +6541,13 @@
         <v>14.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE45" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF45" t="n">
         <v>15.5</v>
@@ -6562,7 +6562,7 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK45" t="n">
         <v>18</v>
@@ -6574,7 +6574,7 @@
         <v>60</v>
       </c>
       <c r="AN45" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AO45" t="n">
         <v>29</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G46" t="n">
         <v>2.22</v>
       </c>
       <c r="H46" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I46" t="n">
         <v>4.1</v>
@@ -6625,34 +6625,34 @@
         <v>3.65</v>
       </c>
       <c r="L46" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O46" t="n">
         <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R46" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S46" t="n">
         <v>3.8</v>
       </c>
       <c r="T46" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V46" t="n">
         <v>1.33</v>
@@ -6661,58 +6661,58 @@
         <v>1.81</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AA46" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AB46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG46" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="AJ46" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AK46" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AL46" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AO46" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47">
@@ -6748,52 +6748,52 @@
         <v>1.35</v>
       </c>
       <c r="H47" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I47" t="n">
         <v>14.5</v>
       </c>
       <c r="J47" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K47" t="n">
         <v>6.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>2.42</v>
+        <v>4.7</v>
       </c>
       <c r="O47" t="n">
         <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R47" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S47" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="T47" t="n">
         <v>2.12</v>
       </c>
       <c r="U47" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="V47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W47" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="X47" t="n">
         <v>990</v>
@@ -6808,10 +6808,10 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AC47" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AD47" t="n">
         <v>1000</v>
@@ -6820,10 +6820,10 @@
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG47" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AH47" t="n">
         <v>70</v>
@@ -6832,10 +6832,10 @@
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK47" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL47" t="n">
         <v>1000</v>
@@ -6844,7 +6844,7 @@
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6877,25 +6877,25 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G48" t="n">
         <v>1.42</v>
       </c>
       <c r="H48" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="J48" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
@@ -6910,31 +6910,31 @@
         <v>2.2</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R48" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S48" t="n">
         <v>2.76</v>
       </c>
       <c r="T48" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U48" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V48" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W48" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="X48" t="n">
         <v>90</v>
       </c>
       <c r="Y48" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="Z48" t="n">
         <v>1000</v>
@@ -6946,7 +6946,7 @@
         <v>9</v>
       </c>
       <c r="AC48" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AD48" t="n">
         <v>990</v>
@@ -7012,31 +7012,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H49" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I49" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K49" t="n">
         <v>3.65</v>
       </c>
       <c r="L49" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>2.06</v>
+        <v>3.7</v>
       </c>
       <c r="O49" t="n">
         <v>1.3</v>
@@ -7045,31 +7045,31 @@
         <v>1.91</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R49" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="S49" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="T49" t="n">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="U49" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V49" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W49" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X49" t="n">
         <v>26</v>
       </c>
       <c r="Y49" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="Z49" t="n">
         <v>980</v>
@@ -7078,10 +7078,10 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AC49" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AD49" t="n">
         <v>990</v>
@@ -7093,7 +7093,7 @@
         <v>980</v>
       </c>
       <c r="AG49" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="AH49" t="n">
         <v>990</v>
@@ -7147,25 +7147,25 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G50" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H50" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I50" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J50" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="n">
         <v>3.65</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M50" t="n">
         <v>1.07</v>
@@ -7180,13 +7180,13 @@
         <v>1.81</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
         <v>1.3</v>
       </c>
       <c r="S50" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T50" t="n">
         <v>1.79</v>
@@ -7195,7 +7195,7 @@
         <v>2.02</v>
       </c>
       <c r="V50" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W50" t="n">
         <v>1.65</v>
@@ -7207,7 +7207,7 @@
         <v>14.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA50" t="n">
         <v>440</v>
@@ -7225,7 +7225,7 @@
         <v>980</v>
       </c>
       <c r="AF50" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AG50" t="n">
         <v>990</v>
@@ -7249,7 +7249,7 @@
         <v>130</v>
       </c>
       <c r="AN50" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO50" t="n">
         <v>980</v>
@@ -7294,7 +7294,7 @@
         <v>1000</v>
       </c>
       <c r="J51" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K51" t="n">
         <v>4.3</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="G52" t="n">
         <v>1.51</v>
       </c>
       <c r="H52" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I52" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J52" t="n">
         <v>4.7</v>
@@ -7450,7 +7450,7 @@
         <v>2.64</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>2.1</v>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H53" t="n">
         <v>3.35</v>
@@ -7570,7 +7570,7 @@
         <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -7582,22 +7582,22 @@
         <v>1.23</v>
       </c>
       <c r="P53" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R53" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S53" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T53" t="n">
         <v>1.66</v>
       </c>
       <c r="U53" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V53" t="n">
         <v>1.37</v>
@@ -7720,7 +7720,7 @@
         <v>2.14</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G55" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
@@ -7840,7 +7840,7 @@
         <v>3.45</v>
       </c>
       <c r="L55" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
@@ -7849,19 +7849,19 @@
         <v>3.55</v>
       </c>
       <c r="O55" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R55" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S55" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T55" t="n">
         <v>1.86</v>
@@ -7870,10 +7870,10 @@
         <v>2.12</v>
       </c>
       <c r="V55" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W55" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X55" t="n">
         <v>13</v>
@@ -7888,7 +7888,7 @@
         <v>48</v>
       </c>
       <c r="AB55" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
         <v>7.2</v>
@@ -7909,22 +7909,22 @@
         <v>17.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ55" t="n">
         <v>38</v>
       </c>
       <c r="AK55" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL55" t="n">
         <v>44</v>
       </c>
       <c r="AM55" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO55" t="n">
         <v>34</v>
@@ -7975,22 +7975,22 @@
         <v>4.9</v>
       </c>
       <c r="L56" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M56" t="n">
         <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P56" t="n">
         <v>2.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R56" t="n">
         <v>1.5</v>
@@ -8059,7 +8059,7 @@
         <v>100</v>
       </c>
       <c r="AN56" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO56" t="n">
         <v>110</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G57" t="n">
         <v>1.8</v>
@@ -8101,13 +8101,13 @@
         <v>4.3</v>
       </c>
       <c r="I57" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J57" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K57" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L57" t="n">
         <v>1.27</v>
@@ -8119,28 +8119,28 @@
         <v>5.5</v>
       </c>
       <c r="O57" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P57" t="n">
         <v>2.56</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R57" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S57" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T57" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U57" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V57" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W57" t="n">
         <v>2.24</v>
@@ -8149,10 +8149,10 @@
         <v>32</v>
       </c>
       <c r="Y57" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z57" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="AA57" t="n">
         <v>110</v>
@@ -8164,7 +8164,7 @@
         <v>11.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE57" t="n">
         <v>50</v>
@@ -8176,7 +8176,7 @@
         <v>12.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI57" t="n">
         <v>250</v>
@@ -8188,13 +8188,13 @@
         <v>19.5</v>
       </c>
       <c r="AL57" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM57" t="n">
         <v>80</v>
       </c>
       <c r="AN57" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AO57" t="n">
         <v>36</v>
@@ -8227,46 +8227,46 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G58" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H58" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J58" t="n">
         <v>3.85</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L58" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O58" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P58" t="n">
         <v>2.1</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="R58" t="n">
         <v>1.42</v>
       </c>
       <c r="S58" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T58" t="n">
         <v>1.75</v>
@@ -8275,13 +8275,13 @@
         <v>2.18</v>
       </c>
       <c r="V58" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X58" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y58" t="n">
         <v>18.5</v>
@@ -8290,7 +8290,7 @@
         <v>40</v>
       </c>
       <c r="AA58" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB58" t="n">
         <v>10</v>
@@ -8299,19 +8299,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD58" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE58" t="n">
         <v>150</v>
       </c>
       <c r="AF58" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG58" t="n">
         <v>10</v>
       </c>
       <c r="AH58" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI58" t="n">
         <v>330</v>
@@ -8320,19 +8320,19 @@
         <v>20</v>
       </c>
       <c r="AK58" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL58" t="n">
         <v>34</v>
       </c>
       <c r="AM58" t="n">
-        <v>95</v>
+        <v>390</v>
       </c>
       <c r="AN58" t="n">
         <v>12</v>
       </c>
       <c r="AO58" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59">
@@ -8380,31 +8380,31 @@
         <v>3.15</v>
       </c>
       <c r="L59" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M59" t="n">
         <v>1.12</v>
       </c>
       <c r="N59" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O59" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P59" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R59" t="n">
         <v>1.22</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T59" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U59" t="n">
         <v>1.9</v>
@@ -8497,58 +8497,58 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G60" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H60" t="n">
         <v>7.4</v>
       </c>
       <c r="I60" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J60" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K60" t="n">
         <v>4.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O60" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P60" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R60" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S60" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T60" t="n">
         <v>2.04</v>
       </c>
       <c r="U60" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V60" t="n">
         <v>1.14</v>
       </c>
       <c r="W60" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="X60" t="n">
         <v>16</v>
@@ -8557,7 +8557,7 @@
         <v>24</v>
       </c>
       <c r="Z60" t="n">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="AA60" t="n">
         <v>290</v>
@@ -8587,7 +8587,7 @@
         <v>520</v>
       </c>
       <c r="AJ60" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK60" t="n">
         <v>17.5</v>
@@ -8599,7 +8599,7 @@
         <v>580</v>
       </c>
       <c r="AN60" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8632,82 +8632,82 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="H61" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="I61" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="J61" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N61" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K61" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.46</v>
       </c>
       <c r="O61" t="n">
         <v>1.22</v>
       </c>
       <c r="P61" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="R61" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="S61" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="T61" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U61" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V61" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="W61" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X61" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC61" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF61" t="n">
         <v>1000</v>
@@ -8716,10 +8716,10 @@
         <v>1000</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="n">
         <v>1000</v>
@@ -8737,7 +8737,7 @@
         <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>29</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="62">
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="G62" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="I62" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="J62" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K62" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L62" t="n">
         <v>1.46</v>
@@ -8794,13 +8794,13 @@
         <v>3.35</v>
       </c>
       <c r="O62" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P62" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R62" t="n">
         <v>1.3</v>
@@ -8809,70 +8809,70 @@
         <v>4.1</v>
       </c>
       <c r="T62" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="U62" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V62" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="W62" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X62" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y62" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA62" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AB62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC62" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD62" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AF62" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI62" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AJ62" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK62" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL62" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM62" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN62" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO62" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63">
@@ -8905,10 +8905,10 @@
         <v>1.1</v>
       </c>
       <c r="G63" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="H63" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I63" t="n">
         <v>1000</v>
@@ -8926,19 +8926,19 @@
         <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O63" t="n">
         <v>1.17</v>
       </c>
       <c r="P63" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q63" t="n">
         <v>1.47</v>
       </c>
       <c r="R63" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S63" t="n">
         <v>2.36</v>
@@ -9040,7 +9040,7 @@
         <v>2.18</v>
       </c>
       <c r="G64" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>3.4</v>
@@ -9061,10 +9061,10 @@
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O64" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P64" t="n">
         <v>2.42</v>
@@ -9088,7 +9088,7 @@
         <v>1.4</v>
       </c>
       <c r="W64" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X64" t="n">
         <v>22</v>
@@ -9112,13 +9112,13 @@
         <v>14.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF64" t="n">
         <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH64" t="n">
         <v>15</v>
@@ -9184,13 +9184,13 @@
         <v>2.78</v>
       </c>
       <c r="J65" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K65" t="n">
         <v>3.4</v>
       </c>
       <c r="L65" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M65" t="n">
         <v>1.1</v>
@@ -9199,13 +9199,13 @@
         <v>2.86</v>
       </c>
       <c r="O65" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P65" t="n">
         <v>1.59</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R65" t="n">
         <v>1.22</v>
@@ -9217,7 +9217,7 @@
         <v>1.93</v>
       </c>
       <c r="U65" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V65" t="n">
         <v>1.56</v>
@@ -9307,61 +9307,61 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H66" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I66" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J66" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K66" t="n">
         <v>3.4</v>
       </c>
       <c r="L66" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="M66" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N66" t="n">
-        <v>1.1</v>
+        <v>2.66</v>
       </c>
       <c r="O66" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P66" t="n">
         <v>1.55</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="R66" t="n">
         <v>1.18</v>
       </c>
       <c r="S66" t="n">
-        <v>3.9</v>
+        <v>2.78</v>
       </c>
       <c r="T66" t="n">
         <v>1.96</v>
       </c>
       <c r="U66" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="V66" t="n">
         <v>1.2</v>
       </c>
       <c r="W66" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X66" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="Y66" t="n">
         <v>1000</v>
@@ -9445,7 +9445,7 @@
         <v>3.2</v>
       </c>
       <c r="G67" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>2.44</v>
@@ -9460,7 +9460,7 @@
         <v>3.4</v>
       </c>
       <c r="L67" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="M67" t="n">
         <v>1.11</v>
@@ -9469,13 +9469,13 @@
         <v>2.8</v>
       </c>
       <c r="O67" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P67" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R67" t="n">
         <v>1.22</v>
@@ -9484,7 +9484,7 @@
         <v>4.6</v>
       </c>
       <c r="T67" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U67" t="n">
         <v>1.87</v>
@@ -9493,7 +9493,7 @@
         <v>1.59</v>
       </c>
       <c r="W67" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X67" t="n">
         <v>12</v>
@@ -9538,7 +9538,7 @@
         <v>55</v>
       </c>
       <c r="AL67" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="AM67" t="n">
         <v>1000</v>
@@ -9586,7 +9586,7 @@
         <v>4.9</v>
       </c>
       <c r="I68" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J68" t="n">
         <v>3.2</v>
@@ -9595,13 +9595,13 @@
         <v>3.65</v>
       </c>
       <c r="L68" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="M68" t="n">
         <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O68" t="n">
         <v>1.46</v>
@@ -9610,7 +9610,7 @@
         <v>1.6</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R68" t="n">
         <v>1.21</v>
@@ -9619,7 +9619,7 @@
         <v>4.7</v>
       </c>
       <c r="T68" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U68" t="n">
         <v>1.74</v>
@@ -9715,13 +9715,13 @@
         <v>1.74</v>
       </c>
       <c r="G69" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H69" t="n">
         <v>4.6</v>
       </c>
       <c r="I69" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="J69" t="n">
         <v>3.85</v>
@@ -9730,13 +9730,13 @@
         <v>4.3</v>
       </c>
       <c r="L69" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O69" t="n">
         <v>1.28</v>
@@ -9748,73 +9748,73 @@
         <v>1.8</v>
       </c>
       <c r="R69" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="S69" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="T69" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="U69" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V69" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W69" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X69" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="Y69" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="Z69" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AA69" t="n">
         <v>1000</v>
       </c>
       <c r="AB69" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="AE69" t="n">
         <v>320</v>
       </c>
       <c r="AF69" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG69" t="n">
         <v>16</v>
       </c>
-      <c r="AG69" t="n">
-        <v>15</v>
-      </c>
       <c r="AH69" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AI69" t="n">
         <v>330</v>
       </c>
       <c r="AJ69" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AK69" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AL69" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AM69" t="n">
         <v>1000</v>
       </c>
       <c r="AN69" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO69" t="n">
         <v>1000</v>
@@ -9850,10 +9850,10 @@
         <v>3.75</v>
       </c>
       <c r="G70" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H70" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="I70" t="n">
         <v>2.06</v>
@@ -9877,7 +9877,7 @@
         <v>1.2</v>
       </c>
       <c r="P70" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q70" t="n">
         <v>1.61</v>
@@ -9889,7 +9889,7 @@
         <v>2.5</v>
       </c>
       <c r="T70" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U70" t="n">
         <v>2.44</v>
@@ -9898,7 +9898,7 @@
         <v>1.94</v>
       </c>
       <c r="W70" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X70" t="n">
         <v>28</v>
@@ -9982,16 +9982,16 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="H71" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I71" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J71" t="n">
         <v>3.5</v>
@@ -10003,61 +10003,61 @@
         <v>1.37</v>
       </c>
       <c r="M71" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N71" t="n">
-        <v>2.56</v>
+        <v>3.15</v>
       </c>
       <c r="O71" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P71" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Q71" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="n">
         <v>2.04</v>
       </c>
-      <c r="R71" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S71" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U71" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="V71" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="W71" t="n">
         <v>1.18</v>
       </c>
       <c r="X71" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y71" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Z71" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA71" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB71" t="n">
         <v>1000</v>
       </c>
       <c r="AC71" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AD71" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AE71" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF71" t="n">
         <v>1000</v>
@@ -10066,7 +10066,7 @@
         <v>1000</v>
       </c>
       <c r="AH71" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AI71" t="n">
         <v>1000</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
         <v>13.5</v>
@@ -10126,16 +10126,16 @@
         <v>1.33</v>
       </c>
       <c r="I72" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J72" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K72" t="n">
         <v>6.2</v>
       </c>
       <c r="L72" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M72" t="n">
         <v>1.03</v>
@@ -10153,19 +10153,19 @@
         <v>1.63</v>
       </c>
       <c r="R72" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S72" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T72" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U72" t="n">
         <v>1.83</v>
       </c>
       <c r="V72" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="W72" t="n">
         <v>1.08</v>
@@ -10174,7 +10174,7 @@
         <v>1000</v>
       </c>
       <c r="Y72" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z72" t="n">
         <v>10.5</v>
@@ -10222,7 +10222,7 @@
         <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="73">
@@ -10261,13 +10261,13 @@
         <v>15.5</v>
       </c>
       <c r="I73" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J73" t="n">
+        <v>6</v>
+      </c>
+      <c r="K73" t="n">
         <v>6.2</v>
-      </c>
-      <c r="K73" t="n">
-        <v>6.4</v>
       </c>
       <c r="L73" t="n">
         <v>1.34</v>
@@ -10282,13 +10282,13 @@
         <v>1.29</v>
       </c>
       <c r="P73" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q73" t="n">
         <v>1.89</v>
       </c>
       <c r="R73" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S73" t="n">
         <v>3.25</v>
@@ -10330,7 +10330,7 @@
         <v>380</v>
       </c>
       <c r="AF73" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AG73" t="n">
         <v>11.5</v>
@@ -10339,7 +10339,7 @@
         <v>44</v>
       </c>
       <c r="AI73" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AJ73" t="n">
         <v>8.800000000000001</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G74" t="n">
         <v>2.64</v>
       </c>
       <c r="H74" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J74" t="n">
         <v>3.25</v>
       </c>
       <c r="K74" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L74" t="n">
         <v>1.36</v>
@@ -10423,10 +10423,10 @@
         <v>2.16</v>
       </c>
       <c r="R74" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="S74" t="n">
-        <v>2.22</v>
+        <v>3.45</v>
       </c>
       <c r="T74" t="n">
         <v>1.76</v>
@@ -10534,10 +10534,10 @@
         <v>1.53</v>
       </c>
       <c r="J75" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L75" t="n">
         <v>1.3</v>
@@ -10549,7 +10549,7 @@
         <v>4.9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P75" t="n">
         <v>2.4</v>
@@ -10558,7 +10558,7 @@
         <v>1.7</v>
       </c>
       <c r="R75" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S75" t="n">
         <v>2.78</v>
@@ -10627,7 +10627,7 @@
         <v>100</v>
       </c>
       <c r="AO75" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="76">
@@ -10657,10 +10657,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G76" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H76" t="n">
         <v>5</v>
@@ -10669,46 +10669,46 @@
         <v>5.8</v>
       </c>
       <c r="J76" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K76" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L76" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M76" t="n">
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O76" t="n">
         <v>1.22</v>
       </c>
       <c r="P76" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R76" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S76" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T76" t="n">
         <v>1.7</v>
       </c>
       <c r="U76" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V76" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W76" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="X76" t="n">
         <v>26</v>
@@ -10723,7 +10723,7 @@
         <v>900</v>
       </c>
       <c r="AB76" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC76" t="n">
         <v>10.5</v>
@@ -10744,7 +10744,7 @@
         <v>22</v>
       </c>
       <c r="AI76" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AJ76" t="n">
         <v>20</v>
@@ -10753,7 +10753,7 @@
         <v>19.5</v>
       </c>
       <c r="AL76" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM76" t="n">
         <v>110</v>
@@ -10762,7 +10762,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO76" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77">
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G77" t="n">
         <v>3.4</v>
       </c>
       <c r="H77" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I77" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J77" t="n">
         <v>3.6</v>
@@ -10810,7 +10810,7 @@
         <v>3.65</v>
       </c>
       <c r="L77" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -10828,7 +10828,7 @@
         <v>1.84</v>
       </c>
       <c r="R77" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S77" t="n">
         <v>3.1</v>
@@ -10837,10 +10837,10 @@
         <v>1.69</v>
       </c>
       <c r="U77" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V77" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W77" t="n">
         <v>1.41</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G78" t="n">
         <v>2.42</v>
@@ -10936,7 +10936,7 @@
         <v>3.4</v>
       </c>
       <c r="I78" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J78" t="n">
         <v>3.4</v>
@@ -10945,28 +10945,28 @@
         <v>3.5</v>
       </c>
       <c r="L78" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O78" t="n">
         <v>1.27</v>
       </c>
       <c r="P78" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R78" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S78" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T78" t="n">
         <v>1.65</v>
@@ -10975,13 +10975,13 @@
         <v>2.38</v>
       </c>
       <c r="V78" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W78" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X78" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y78" t="n">
         <v>15.5</v>
@@ -11020,19 +11020,19 @@
         <v>32</v>
       </c>
       <c r="AK78" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL78" t="n">
         <v>34</v>
       </c>
       <c r="AM78" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN78" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AO78" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
@@ -11080,31 +11080,31 @@
         <v>3.75</v>
       </c>
       <c r="L79" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M79" t="n">
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O79" t="n">
         <v>1.28</v>
       </c>
       <c r="P79" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R79" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S79" t="n">
         <v>3.1</v>
       </c>
       <c r="T79" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U79" t="n">
         <v>2.36</v>
@@ -11158,16 +11158,16 @@
         <v>32</v>
       </c>
       <c r="AL79" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM79" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN79" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO79" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -11197,79 +11197,79 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="G80" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H80" t="n">
         <v>15</v>
       </c>
       <c r="I80" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J80" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K80" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="L80" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M80" t="n">
         <v>1.03</v>
       </c>
       <c r="N80" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O80" t="n">
         <v>1.18</v>
       </c>
       <c r="P80" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R80" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S80" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T80" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U80" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V80" t="n">
         <v>1.06</v>
       </c>
       <c r="W80" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X80" t="n">
         <v>32</v>
       </c>
       <c r="Y80" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="Z80" t="n">
         <v>170</v>
       </c>
       <c r="AA80" t="n">
-        <v>940</v>
+        <v>860</v>
       </c>
       <c r="AB80" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE80" t="n">
         <v>290</v>
@@ -11281,7 +11281,7 @@
         <v>11</v>
       </c>
       <c r="AH80" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI80" t="n">
         <v>220</v>
@@ -11296,13 +11296,13 @@
         <v>40</v>
       </c>
       <c r="AM80" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO80" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81">
@@ -11350,19 +11350,19 @@
         <v>4.8</v>
       </c>
       <c r="L81" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M81" t="n">
         <v>1.06</v>
       </c>
       <c r="N81" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O81" t="n">
         <v>1.31</v>
       </c>
       <c r="P81" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q81" t="n">
         <v>1.93</v>
@@ -11377,7 +11377,7 @@
         <v>2.04</v>
       </c>
       <c r="U81" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V81" t="n">
         <v>2.78</v>
@@ -11398,7 +11398,7 @@
         <v>14.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC81" t="n">
         <v>10.5</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G82" t="n">
         <v>1.94</v>
@@ -11476,13 +11476,13 @@
         <v>4.8</v>
       </c>
       <c r="I82" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="J82" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K82" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L82" t="n">
         <v>1.45</v>
@@ -11491,10 +11491,10 @@
         <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="O82" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P82" t="n">
         <v>1.76</v>
@@ -11509,67 +11509,67 @@
         <v>3.9</v>
       </c>
       <c r="T82" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="U82" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V82" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W82" t="n">
         <v>2.06</v>
       </c>
       <c r="X82" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y82" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>480</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ82" t="n">
         <v>22</v>
       </c>
-      <c r="Z82" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>29</v>
-      </c>
       <c r="AK82" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AL82" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AM82" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN82" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AO82" t="n">
         <v>1000</v>
@@ -11602,19 +11602,19 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G83" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H83" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I83" t="n">
         <v>2.7</v>
       </c>
       <c r="J83" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K83" t="n">
         <v>3.65</v>
@@ -11623,79 +11623,79 @@
         <v>1.01</v>
       </c>
       <c r="M83" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="O83" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P83" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R83" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="S83" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T83" t="n">
         <v>1.74</v>
       </c>
       <c r="U83" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V83" t="n">
         <v>1.59</v>
       </c>
       <c r="W83" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X83" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Y83" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="Z83" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA83" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB83" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AC83" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD83" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AE83" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF83" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AG83" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AH83" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI83" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ83" t="n">
         <v>1000</v>
       </c>
       <c r="AK83" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL83" t="n">
         <v>1000</v>
@@ -11704,10 +11704,10 @@
         <v>1000</v>
       </c>
       <c r="AN83" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO83" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84">
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G84" t="n">
         <v>2.1</v>
@@ -11746,7 +11746,7 @@
         <v>4.2</v>
       </c>
       <c r="I84" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J84" t="n">
         <v>3.45</v>
@@ -11761,7 +11761,7 @@
         <v>1.07</v>
       </c>
       <c r="N84" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O84" t="n">
         <v>1.34</v>
@@ -11773,10 +11773,10 @@
         <v>2.06</v>
       </c>
       <c r="R84" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S84" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T84" t="n">
         <v>1.04</v>
@@ -11800,13 +11800,13 @@
         <v>1000</v>
       </c>
       <c r="AA84" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB84" t="n">
         <v>1000</v>
       </c>
       <c r="AC84" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD84" t="n">
         <v>1000</v>
@@ -11836,7 +11836,7 @@
         <v>1000</v>
       </c>
       <c r="AM84" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN84" t="n">
         <v>1000</v>
@@ -11875,22 +11875,22 @@
         <v>2.72</v>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H85" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3.2</v>
       </c>
       <c r="J85" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K85" t="n">
         <v>3.15</v>
       </c>
       <c r="L85" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M85" t="n">
         <v>1.11</v>
@@ -11899,7 +11899,7 @@
         <v>2.66</v>
       </c>
       <c r="O85" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P85" t="n">
         <v>1.58</v>
@@ -11911,7 +11911,7 @@
         <v>1.2</v>
       </c>
       <c r="S85" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T85" t="n">
         <v>2</v>
@@ -11923,7 +11923,7 @@
         <v>1.45</v>
       </c>
       <c r="W85" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X85" t="n">
         <v>11</v>
@@ -11935,10 +11935,10 @@
         <v>20</v>
       </c>
       <c r="AA85" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AB85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC85" t="n">
         <v>8.4</v>
@@ -11959,25 +11959,25 @@
         <v>23</v>
       </c>
       <c r="AI85" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ85" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK85" t="n">
         <v>48</v>
       </c>
       <c r="AL85" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM85" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN85" t="n">
         <v>55</v>
       </c>
       <c r="AO85" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
@@ -12010,13 +12010,13 @@
         <v>2.28</v>
       </c>
       <c r="G86" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>3.85</v>
       </c>
       <c r="I86" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J86" t="n">
         <v>3.05</v>
@@ -12028,25 +12028,25 @@
         <v>1.01</v>
       </c>
       <c r="M86" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N86" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="O86" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P86" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R86" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S86" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="T86" t="n">
         <v>2</v>
@@ -12055,58 +12055,58 @@
         <v>1.86</v>
       </c>
       <c r="V86" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W86" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X86" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y86" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z86" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA86" t="n">
         <v>1000</v>
       </c>
       <c r="AB86" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC86" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD86" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE86" t="n">
         <v>1000</v>
       </c>
       <c r="AF86" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG86" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH86" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI86" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AJ86" t="n">
         <v>1000</v>
       </c>
       <c r="AK86" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL86" t="n">
         <v>1000</v>
       </c>
       <c r="AM86" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN86" t="n">
         <v>1000</v>
@@ -12142,109 +12142,109 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G87" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I87" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J87" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K87" t="n">
         <v>3.65</v>
       </c>
       <c r="L87" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M87" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="O87" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P87" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="R87" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="S87" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="T87" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="U87" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="V87" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W87" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X87" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z87" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AA87" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AB87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC87" t="n">
         <v>10</v>
       </c>
       <c r="AD87" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE87" t="n">
         <v>980</v>
       </c>
       <c r="AF87" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG87" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI87" t="n">
         <v>980</v>
       </c>
       <c r="AJ87" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AK87" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AL87" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM87" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN87" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AO87" t="n">
         <v>1000</v>
@@ -12283,16 +12283,16 @@
         <v>4.3</v>
       </c>
       <c r="H88" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I88" t="n">
         <v>2.22</v>
       </c>
       <c r="J88" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K88" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L88" t="n">
         <v>1.43</v>
@@ -12307,19 +12307,19 @@
         <v>1.36</v>
       </c>
       <c r="P88" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="Q88" t="n">
         <v>2.06</v>
       </c>
       <c r="R88" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S88" t="n">
         <v>3.7</v>
       </c>
       <c r="T88" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U88" t="n">
         <v>2.02</v>
@@ -12370,13 +12370,13 @@
         <v>100</v>
       </c>
       <c r="AK88" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AL88" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AM88" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN88" t="n">
         <v>1000</v>
@@ -12412,19 +12412,19 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G89" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="H89" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I89" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J89" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K89" t="n">
         <v>3.45</v>
@@ -12439,7 +12439,7 @@
         <v>1.1</v>
       </c>
       <c r="O89" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P89" t="n">
         <v>1.51</v>
@@ -12448,22 +12448,22 @@
         <v>2.2</v>
       </c>
       <c r="R89" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S89" t="n">
-        <v>2.62</v>
+        <v>1.05</v>
       </c>
       <c r="T89" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U89" t="n">
         <v>1.04</v>
       </c>
       <c r="V89" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W89" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="X89" t="n">
         <v>1000</v>
@@ -12550,28 +12550,28 @@
         <v>1.87</v>
       </c>
       <c r="G90" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H90" t="n">
         <v>4.6</v>
       </c>
       <c r="I90" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J90" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K90" t="n">
         <v>3.7</v>
       </c>
       <c r="L90" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="M90" t="n">
         <v>1.09</v>
       </c>
       <c r="N90" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O90" t="n">
         <v>1.38</v>
@@ -12580,7 +12580,7 @@
         <v>1.73</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R90" t="n">
         <v>1.28</v>
@@ -12595,10 +12595,10 @@
         <v>1.9</v>
       </c>
       <c r="V90" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W90" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X90" t="n">
         <v>12</v>
@@ -12628,7 +12628,7 @@
         <v>11.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH90" t="n">
         <v>24</v>
@@ -12643,7 +12643,7 @@
         <v>23</v>
       </c>
       <c r="AL90" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM90" t="n">
         <v>170</v>
@@ -12682,10 +12682,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H91" t="n">
         <v>3.55</v>
@@ -12694,19 +12694,19 @@
         <v>3.6</v>
       </c>
       <c r="J91" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K91" t="n">
         <v>3.35</v>
       </c>
       <c r="L91" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M91" t="n">
         <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O91" t="n">
         <v>1.36</v>
@@ -12721,7 +12721,7 @@
         <v>1.33</v>
       </c>
       <c r="S91" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T91" t="n">
         <v>1.83</v>
@@ -12733,10 +12733,10 @@
         <v>1.38</v>
       </c>
       <c r="W91" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X91" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y91" t="n">
         <v>13</v>
@@ -12748,13 +12748,13 @@
         <v>65</v>
       </c>
       <c r="AB91" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC91" t="n">
         <v>7.2</v>
       </c>
       <c r="AD91" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE91" t="n">
         <v>42</v>
@@ -12763,7 +12763,7 @@
         <v>15</v>
       </c>
       <c r="AG91" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH91" t="n">
         <v>17.5</v>
@@ -12775,10 +12775,10 @@
         <v>32</v>
       </c>
       <c r="AK91" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL91" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM91" t="n">
         <v>100</v>
@@ -12820,22 +12820,22 @@
         <v>6.4</v>
       </c>
       <c r="G92" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H92" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I92" t="n">
         <v>1.53</v>
       </c>
-      <c r="I92" t="n">
-        <v>1.54</v>
-      </c>
       <c r="J92" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K92" t="n">
         <v>5.3</v>
       </c>
       <c r="L92" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
@@ -12847,10 +12847,10 @@
         <v>1.13</v>
       </c>
       <c r="P92" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R92" t="n">
         <v>1.89</v>
@@ -12865,10 +12865,10 @@
         <v>2.56</v>
       </c>
       <c r="V92" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="W92" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X92" t="n">
         <v>36</v>
@@ -12889,7 +12889,7 @@
         <v>13</v>
       </c>
       <c r="AD92" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE92" t="n">
         <v>13.5</v>
@@ -12907,7 +12907,7 @@
         <v>25</v>
       </c>
       <c r="AJ92" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK92" t="n">
         <v>65</v>
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="F93" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G93" t="n">
         <v>2.18</v>
       </c>
-      <c r="G93" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H93" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I93" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J93" t="n">
         <v>3.15</v>
@@ -12970,13 +12970,13 @@
         <v>3.2</v>
       </c>
       <c r="L93" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="M93" t="n">
         <v>1.11</v>
       </c>
       <c r="N93" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O93" t="n">
         <v>1.49</v>
@@ -12985,13 +12985,13 @@
         <v>1.63</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="R93" t="n">
         <v>1.22</v>
       </c>
       <c r="S93" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="T93" t="n">
         <v>2.1</v>
@@ -13000,10 +13000,10 @@
         <v>1.87</v>
       </c>
       <c r="V93" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W93" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X93" t="n">
         <v>9.800000000000001</v>
@@ -13024,10 +13024,10 @@
         <v>7.2</v>
       </c>
       <c r="AD93" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE93" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF93" t="n">
         <v>12</v>
@@ -13036,10 +13036,10 @@
         <v>13.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI93" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ93" t="n">
         <v>28</v>
@@ -13048,16 +13048,16 @@
         <v>28</v>
       </c>
       <c r="AL93" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM93" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN93" t="n">
         <v>26</v>
       </c>
       <c r="AO93" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G94" t="n">
         <v>1.9</v>
@@ -13111,7 +13111,7 @@
         <v>1.05</v>
       </c>
       <c r="N94" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O94" t="n">
         <v>1.23</v>
@@ -13126,13 +13126,13 @@
         <v>1.53</v>
       </c>
       <c r="S94" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T94" t="n">
         <v>1.67</v>
       </c>
       <c r="U94" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V94" t="n">
         <v>1.28</v>
@@ -13144,7 +13144,7 @@
         <v>19</v>
       </c>
       <c r="Y94" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z94" t="n">
         <v>36</v>
@@ -13192,7 +13192,7 @@
         <v>9.6</v>
       </c>
       <c r="AO94" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
@@ -13234,7 +13234,7 @@
         <v>2.38</v>
       </c>
       <c r="J95" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K95" t="n">
         <v>3.25</v>
@@ -13246,28 +13246,28 @@
         <v>1.11</v>
       </c>
       <c r="N95" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O95" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P95" t="n">
         <v>1.64</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R95" t="n">
         <v>1.24</v>
       </c>
       <c r="S95" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T95" t="n">
         <v>2</v>
       </c>
       <c r="U95" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V95" t="n">
         <v>1.72</v>
@@ -13285,7 +13285,7 @@
         <v>13.5</v>
       </c>
       <c r="AA95" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB95" t="n">
         <v>11.5</v>
@@ -13303,7 +13303,7 @@
         <v>27</v>
       </c>
       <c r="AG95" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH95" t="n">
         <v>21</v>
@@ -13321,7 +13321,7 @@
         <v>80</v>
       </c>
       <c r="AM95" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN95" t="n">
         <v>75</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G96" t="n">
         <v>1.95</v>
@@ -13366,43 +13366,43 @@
         <v>4.5</v>
       </c>
       <c r="I96" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J96" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K96" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L96" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M96" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N96" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="O96" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="P96" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R96" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="S96" t="n">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="T96" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="U96" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V96" t="n">
         <v>1.24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.6</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.62</v>
-      </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH2" t="n">
         <v>10</v>
       </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -802,85 +802,85 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
         <v>15</v>
       </c>
-      <c r="Z3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -889,13 +889,13 @@
         <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
@@ -904,10 +904,10 @@
         <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -964,43 +964,43 @@
         <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
         <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
         <v>9.4</v>
@@ -1009,40 +1009,40 @@
         <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1075,13 +1075,13 @@
         <v>1.81</v>
       </c>
       <c r="G5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
         <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.8</v>
@@ -1090,7 +1090,7 @@
         <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1108,7 +1108,7 @@
         <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
         <v>3.9</v>
@@ -1132,13 +1132,13 @@
         <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
         <v>140</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
         <v>8.199999999999999</v>
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.85</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>4.2</v>
@@ -1237,55 +1237,55 @@
         <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
         <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
         <v>9.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1297,22 +1297,22 @@
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.1</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.33</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
         <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -1477,100 +1477,100 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="G8" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.97</v>
       </c>
-      <c r="V8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.02</v>
-      </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
         <v>48</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1630,10 +1630,10 @@
         <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
         <v>3.25</v>
@@ -1642,19 +1642,19 @@
         <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
         <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
         <v>4.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
         <v>1.93</v>
@@ -1672,7 +1672,7 @@
         <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
         <v>110</v>
@@ -1714,7 +1714,7 @@
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
         <v>85</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I10" t="n">
         <v>1.48</v>
@@ -1765,7 +1765,7 @@
         <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1777,19 +1777,19 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
         <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
         <v>9.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1834,7 +1834,7 @@
         <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="G11" t="n">
         <v>1.99</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
         <v>5.1</v>
@@ -1897,31 +1897,31 @@
         <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
         <v>1.94</v>
@@ -1930,7 +1930,7 @@
         <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
         <v>2</v>
@@ -2035,13 +2035,13 @@
         <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="M12" t="n">
         <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="O12" t="n">
         <v>1.6</v>
@@ -2050,7 +2050,7 @@
         <v>1.47</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="R12" t="n">
         <v>1.16</v>
@@ -2080,7 +2080,7 @@
         <v>12.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
@@ -2095,7 +2095,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2104,16 +2104,16 @@
         <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="G13" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2179,70 +2179,70 @@
         <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
         <v>2.34</v>
       </c>
       <c r="V13" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
         <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="n">
         <v>26</v>
@@ -2251,13 +2251,13 @@
         <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I14" t="n">
         <v>6.6</v>
@@ -2305,7 +2305,7 @@
         <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>
@@ -2317,10 +2317,10 @@
         <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
@@ -2332,7 +2332,7 @@
         <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V14" t="n">
         <v>1.18</v>
@@ -2371,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>290</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G15" t="n">
         <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L15" t="n">
         <v>1.54</v>
@@ -2446,22 +2446,22 @@
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R15" t="n">
         <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
         <v>1.96</v>
@@ -2470,13 +2470,13 @@
         <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W15" t="n">
         <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
         <v>24</v>
@@ -2488,7 +2488,7 @@
         <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
         <v>14</v>
@@ -2557,61 +2557,61 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G16" t="n">
         <v>5.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I16" t="n">
         <v>2.06</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
         <v>1.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="O16" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P16" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="U16" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W16" t="n">
         <v>1.21</v>
       </c>
       <c r="X16" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y16" t="n">
         <v>6.4</v>
@@ -2629,19 +2629,19 @@
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
         <v>110</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>150</v>
       </c>
       <c r="AI16" t="n">
         <v>460</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G17" t="n">
         <v>2.3</v>
@@ -2704,19 +2704,19 @@
         <v>4.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
         <v>1.49</v>
@@ -2731,16 +2731,16 @@
         <v>1.2</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
         <v>1.79</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W17" t="n">
         <v>1.78</v>
@@ -2764,10 +2764,10 @@
         <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="n">
         <v>13</v>
@@ -2776,10 +2776,10 @@
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
         <v>32</v>
@@ -2839,7 +2839,7 @@
         <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>3.35</v>
@@ -2851,7 +2851,7 @@
         <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
         <v>1.45</v>
@@ -2866,7 +2866,7 @@
         <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T18" t="n">
         <v>1.94</v>
@@ -2875,13 +2875,13 @@
         <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
         <v>11.5</v>
@@ -2932,7 +2932,7 @@
         <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2965,13 +2965,13 @@
         <v>2.02</v>
       </c>
       <c r="G19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I19" t="n">
         <v>5.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
@@ -2980,28 +2980,28 @@
         <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P19" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="R19" t="n">
         <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T19" t="n">
         <v>2.26</v>
@@ -3010,22 +3010,22 @@
         <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W19" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X19" t="n">
         <v>8.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB19" t="n">
         <v>6.6</v>
@@ -3034,7 +3034,7 @@
         <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>90</v>
@@ -3064,7 +3064,7 @@
         <v>210</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>140</v>
@@ -3100,16 +3100,16 @@
         <v>1.75</v>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I20" t="n">
         <v>6.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
         <v>3.8</v>
@@ -3130,28 +3130,28 @@
         <v>1.86</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V20" t="n">
         <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" t="n">
         <v>18.5</v>
@@ -3163,10 +3163,10 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
         <v>23</v>
@@ -3187,19 +3187,19 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK20" t="n">
         <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
         <v>130</v>
@@ -3232,76 +3232,76 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I21" t="n">
         <v>4.5</v>
       </c>
-      <c r="I21" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
         <v>1.78</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
         <v>1.98</v>
       </c>
       <c r="V21" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W21" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z21" t="n">
         <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
         <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
         <v>17.5</v>
@@ -3322,7 +3322,7 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -3334,10 +3334,10 @@
         <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="G22" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>23</v>
+        <v>6.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.37</v>
@@ -3391,22 +3391,22 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="S22" t="n">
-        <v>1.79</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
         <v>1.05</v>
@@ -3415,61 +3415,61 @@
         <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>42</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>85</v>
+        <v>10.5</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,61 +3502,61 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="G23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="R23" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="U23" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="V23" t="n">
         <v>1.02</v>
       </c>
       <c r="W23" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC23" t="n">
         <v>1000</v>
@@ -3580,10 +3580,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG23" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -3592,10 +3592,10 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,79 +3637,79 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H24" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R24" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="S24" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T24" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U24" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V24" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
         <v>900</v>
       </c>
       <c r="AB24" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC24" t="n">
         <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE24" t="n">
         <v>230</v>
@@ -3727,22 +3727,22 @@
         <v>380</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G25" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K25" t="n">
         <v>5.4</v>
@@ -3799,31 +3799,31 @@
         <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
         <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T25" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U25" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V25" t="n">
         <v>1.11</v>
       </c>
       <c r="W25" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="X25" t="n">
         <v>90</v>
@@ -3838,7 +3838,7 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>18</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
         <v>25</v>
@@ -3850,10 +3850,10 @@
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
         <v>1000</v>
@@ -3865,7 +3865,7 @@
         <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G26" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
         <v>4.3</v>
@@ -3931,34 +3931,34 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O26" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P26" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R26" t="n">
         <v>1.32</v>
       </c>
       <c r="S26" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T26" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U26" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V26" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W26" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="X26" t="n">
         <v>14.5</v>
@@ -4042,73 +4042,73 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="I27" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L27" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="O27" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R27" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T27" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U27" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V27" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="W27" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
         <v>8.4</v>
@@ -4117,13 +4117,13 @@
         <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
         <v>25</v>
@@ -4132,22 +4132,22 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AN27" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AO27" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="28">
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H28" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
         <v>3.05</v>
@@ -4225,7 +4225,7 @@
         <v>1.96</v>
       </c>
       <c r="V28" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W28" t="n">
         <v>1.54</v>
@@ -4237,7 +4237,7 @@
         <v>10</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
         <v>150</v>
@@ -4267,7 +4267,7 @@
         <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AK28" t="n">
         <v>36</v>
@@ -4279,7 +4279,7 @@
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO28" t="n">
         <v>38</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G29" t="n">
         <v>4.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
         <v>1.4</v>
@@ -4345,10 +4345,10 @@
         <v>1.95</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S29" t="n">
         <v>3.3</v>
@@ -4360,16 +4360,16 @@
         <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W29" t="n">
         <v>1.27</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z29" t="n">
         <v>12.5</v>
@@ -4378,7 +4378,7 @@
         <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
         <v>8.800000000000001</v>
@@ -4393,7 +4393,7 @@
         <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
         <v>19</v>
@@ -4405,7 +4405,7 @@
         <v>110</v>
       </c>
       <c r="AK29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL29" t="n">
         <v>150</v>
@@ -4414,10 +4414,10 @@
         <v>430</v>
       </c>
       <c r="AN29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G31" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H31" t="n">
         <v>13</v>
@@ -4594,10 +4594,10 @@
         <v>13.5</v>
       </c>
       <c r="J31" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
         <v>1.29</v>
@@ -4612,13 +4612,13 @@
         <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q31" t="n">
         <v>1.58</v>
       </c>
       <c r="R31" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S31" t="n">
         <v>2.48</v>
@@ -4633,10 +4633,10 @@
         <v>1.08</v>
       </c>
       <c r="W31" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X31" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="Y31" t="n">
         <v>42</v>
@@ -4648,7 +4648,7 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
         <v>15</v>
@@ -4660,7 +4660,7 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG31" t="n">
         <v>11.5</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4726,7 +4726,7 @@
         <v>4.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
         <v>3.75</v>
@@ -4741,7 +4741,7 @@
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O32" t="n">
         <v>1.26</v>
@@ -4750,7 +4750,7 @@
         <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R32" t="n">
         <v>1.41</v>
@@ -4759,10 +4759,10 @@
         <v>2.92</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
         <v>1.25</v>
@@ -4786,10 +4786,10 @@
         <v>40</v>
       </c>
       <c r="AC32" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD32" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
@@ -4801,19 +4801,19 @@
         <v>40</v>
       </c>
       <c r="AH32" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK32" t="n">
         <v>160</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
@@ -4882,16 +4882,16 @@
         <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R33" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S33" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T33" t="n">
         <v>1.66</v>
@@ -4906,7 +4906,7 @@
         <v>1.34</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="n">
         <v>12.5</v>
@@ -4939,7 +4939,7 @@
         <v>17.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
         <v>190</v>
@@ -4951,7 +4951,7 @@
         <v>980</v>
       </c>
       <c r="AM33" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN33" t="n">
         <v>1000</v>
@@ -4987,109 +4987,109 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H34" t="n">
+        <v>15</v>
+      </c>
+      <c r="I34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L34" t="n">
         <v>1.32</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.33</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R34" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S34" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="T34" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="U34" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="V34" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W34" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="X34" t="n">
         <v>23</v>
       </c>
       <c r="Y34" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Z34" t="n">
         <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
         <v>8.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE34" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="AF34" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AI34" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="AJ34" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AK34" t="n">
         <v>14.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM34" t="n">
         <v>220</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="G35" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="I35" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5140,7 +5140,7 @@
         <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
@@ -5149,85 +5149,85 @@
         <v>3.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P35" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R35" t="n">
         <v>1.37</v>
       </c>
       <c r="S35" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U35" t="n">
         <v>2.2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="W35" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="X35" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE35" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ35" t="n">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="AK35" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO35" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -5257,79 +5257,79 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="n">
         <v>4.2</v>
       </c>
       <c r="I36" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K36" t="n">
         <v>4</v>
       </c>
-      <c r="K36" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L36" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P36" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S36" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T36" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V36" t="n">
         <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X36" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
         <v>15.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE36" t="n">
         <v>55</v>
@@ -5341,28 +5341,28 @@
         <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
         <v>23</v>
       </c>
       <c r="AK36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
         <v>14</v>
       </c>
       <c r="AO36" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -5392,49 +5392,49 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G37" t="n">
         <v>2.1</v>
       </c>
       <c r="H37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I37" t="n">
         <v>4.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L37" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P37" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R37" t="n">
         <v>1.31</v>
       </c>
       <c r="S37" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U37" t="n">
         <v>2.04</v>
@@ -5476,10 +5476,10 @@
         <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="AJ37" t="n">
         <v>25</v>
@@ -5494,7 +5494,7 @@
         <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO37" t="n">
         <v>65</v>
@@ -5530,7 +5530,7 @@
         <v>4.7</v>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H38" t="n">
         <v>1.86</v>
@@ -5539,7 +5539,7 @@
         <v>1.89</v>
       </c>
       <c r="J38" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K38" t="n">
         <v>3.85</v>
@@ -5554,13 +5554,13 @@
         <v>3.75</v>
       </c>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
         <v>1.94</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R38" t="n">
         <v>1.36</v>
@@ -5569,13 +5569,13 @@
         <v>3.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U38" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V38" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W38" t="n">
         <v>1.25</v>
@@ -5593,7 +5593,7 @@
         <v>21</v>
       </c>
       <c r="AB38" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
         <v>8.800000000000001</v>
@@ -5608,7 +5608,7 @@
         <v>38</v>
       </c>
       <c r="AG38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH38" t="n">
         <v>21</v>
@@ -5617,7 +5617,7 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK38" t="n">
         <v>160</v>
@@ -5665,19 +5665,19 @@
         <v>2.48</v>
       </c>
       <c r="G39" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H39" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I39" t="n">
         <v>3.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L39" t="n">
         <v>1.36</v>
@@ -5710,10 +5710,10 @@
         <v>2.28</v>
       </c>
       <c r="V39" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W39" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X39" t="n">
         <v>990</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
         <v>2.12</v>
       </c>
       <c r="I40" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J40" t="n">
         <v>3.45</v>
@@ -5821,7 +5821,7 @@
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O40" t="n">
         <v>1.41</v>
@@ -5845,7 +5845,7 @@
         <v>1.87</v>
       </c>
       <c r="V40" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W40" t="n">
         <v>1.33</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G41" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H41" t="n">
         <v>4.1</v>
@@ -5944,19 +5944,19 @@
         <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O41" t="n">
         <v>1.29</v>
@@ -5965,10 +5965,10 @@
         <v>1.98</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R41" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S41" t="n">
         <v>3.15</v>
@@ -5983,7 +5983,7 @@
         <v>1.29</v>
       </c>
       <c r="W41" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X41" t="n">
         <v>18.5</v>
@@ -5992,7 +5992,7 @@
         <v>17</v>
       </c>
       <c r="Z41" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AA41" t="n">
         <v>110</v>
@@ -6019,7 +6019,7 @@
         <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="n">
         <v>22</v>
@@ -6070,19 +6070,19 @@
         <v>1.55</v>
       </c>
       <c r="G42" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H42" t="n">
         <v>6.6</v>
       </c>
       <c r="I42" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J42" t="n">
         <v>4.1</v>
       </c>
       <c r="K42" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L42" t="n">
         <v>1.38</v>
@@ -6091,7 +6091,7 @@
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O42" t="n">
         <v>1.28</v>
@@ -6115,7 +6115,7 @@
         <v>1.9</v>
       </c>
       <c r="V42" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W42" t="n">
         <v>2.6</v>
@@ -6145,7 +6145,7 @@
         <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AG42" t="n">
         <v>26</v>
@@ -6205,52 +6205,52 @@
         <v>2.88</v>
       </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H43" t="n">
         <v>2.46</v>
       </c>
       <c r="I43" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J43" t="n">
         <v>3.5</v>
       </c>
       <c r="K43" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R43" t="n">
         <v>1.37</v>
       </c>
       <c r="S43" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T43" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U43" t="n">
         <v>2.18</v>
       </c>
       <c r="V43" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W43" t="n">
         <v>1.46</v>
@@ -6259,13 +6259,13 @@
         <v>15.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="n">
         <v>13</v>
@@ -6283,10 +6283,10 @@
         <v>22</v>
       </c>
       <c r="AG43" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH43" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI43" t="n">
         <v>40</v>
@@ -6298,7 +6298,7 @@
         <v>36</v>
       </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM43" t="n">
         <v>200</v>
@@ -6490,7 +6490,7 @@
         <v>4.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -6502,22 +6502,22 @@
         <v>1.18</v>
       </c>
       <c r="P45" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q45" t="n">
         <v>1.56</v>
       </c>
       <c r="R45" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S45" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T45" t="n">
         <v>1.56</v>
       </c>
       <c r="U45" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V45" t="n">
         <v>1.31</v>
@@ -6574,7 +6574,7 @@
         <v>60</v>
       </c>
       <c r="AN45" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO45" t="n">
         <v>29</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G46" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H46" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I46" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J46" t="n">
         <v>3.4</v>
@@ -6637,7 +6637,7 @@
         <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q46" t="n">
         <v>2.1</v>
@@ -6649,70 +6649,70 @@
         <v>3.8</v>
       </c>
       <c r="T46" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U46" t="n">
         <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W46" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X46" t="n">
         <v>13</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z46" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA46" t="n">
         <v>190</v>
       </c>
       <c r="AB46" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC46" t="n">
         <v>8</v>
       </c>
       <c r="AD46" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE46" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AF46" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG46" t="n">
         <v>11.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI46" t="n">
         <v>170</v>
       </c>
       <c r="AJ46" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK46" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL46" t="n">
         <v>190</v>
       </c>
       <c r="AM46" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO46" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
@@ -6751,13 +6751,13 @@
         <v>11.5</v>
       </c>
       <c r="I47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J47" t="n">
         <v>5.5</v>
       </c>
       <c r="K47" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L47" t="n">
         <v>1.32</v>
@@ -6766,37 +6766,37 @@
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O47" t="n">
         <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q47" t="n">
         <v>1.67</v>
       </c>
       <c r="R47" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S47" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T47" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U47" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W47" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X47" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="Y47" t="n">
         <v>1000</v>
@@ -6811,7 +6811,7 @@
         <v>9</v>
       </c>
       <c r="AC47" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AD47" t="n">
         <v>1000</v>
@@ -6826,7 +6826,7 @@
         <v>11.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
@@ -6877,61 +6877,61 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G48" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H48" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I48" t="n">
         <v>12.5</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K48" t="n">
         <v>5.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O48" t="n">
         <v>1.23</v>
       </c>
       <c r="P48" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R48" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T48" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U48" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="V48" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W48" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X48" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
         <v>990</v>
@@ -6943,10 +6943,10 @@
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC48" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AD48" t="n">
         <v>990</v>
@@ -6979,7 +6979,7 @@
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7015,34 +7015,34 @@
         <v>2.54</v>
       </c>
       <c r="G49" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H49" t="n">
         <v>2.76</v>
       </c>
-      <c r="H49" t="n">
-        <v>2.84</v>
-      </c>
       <c r="I49" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J49" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
         <v>3.65</v>
       </c>
       <c r="L49" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M49" t="n">
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P49" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q49" t="n">
         <v>1.96</v>
@@ -7051,22 +7051,22 @@
         <v>1.36</v>
       </c>
       <c r="S49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U49" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V49" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W49" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X49" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="Y49" t="n">
         <v>990</v>
@@ -7090,7 +7090,7 @@
         <v>980</v>
       </c>
       <c r="AF49" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG49" t="n">
         <v>990</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G50" t="n">
         <v>2.52</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I50" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J50" t="n">
         <v>3.3</v>
@@ -7165,58 +7165,58 @@
         <v>3.65</v>
       </c>
       <c r="L50" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O50" t="n">
         <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q50" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U50" t="n">
         <v>2</v>
       </c>
-      <c r="R50" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V50" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W50" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X50" t="n">
         <v>990</v>
       </c>
       <c r="Y50" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="Z50" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AA50" t="n">
         <v>440</v>
       </c>
       <c r="AB50" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AC50" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="AD50" t="n">
         <v>990</v>
@@ -7225,7 +7225,7 @@
         <v>980</v>
       </c>
       <c r="AF50" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AG50" t="n">
         <v>990</v>
@@ -7249,7 +7249,7 @@
         <v>130</v>
       </c>
       <c r="AN50" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AO50" t="n">
         <v>980</v>
@@ -7420,16 +7420,16 @@
         <v>1.44</v>
       </c>
       <c r="G52" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H52" t="n">
         <v>6.8</v>
       </c>
       <c r="I52" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K52" t="n">
         <v>5.7</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7552,58 +7552,58 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G53" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H53" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I53" t="n">
         <v>3.65</v>
       </c>
       <c r="J53" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K53" t="n">
         <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O53" t="n">
         <v>1.23</v>
       </c>
       <c r="P53" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R53" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S53" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T53" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U53" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V53" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W53" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7621,10 +7621,10 @@
         <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
         <v>980</v>
@@ -7690,7 +7690,7 @@
         <v>1.39</v>
       </c>
       <c r="G54" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H54" t="n">
         <v>8.800000000000001</v>
@@ -7699,10 +7699,10 @@
         <v>10.5</v>
       </c>
       <c r="J54" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K54" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>3.45</v>
       </c>
       <c r="L55" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
@@ -7849,19 +7849,19 @@
         <v>3.55</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P55" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R55" t="n">
         <v>1.32</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T55" t="n">
         <v>1.86</v>
@@ -7888,13 +7888,13 @@
         <v>48</v>
       </c>
       <c r="AB55" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC55" t="n">
         <v>7.2</v>
       </c>
       <c r="AD55" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE55" t="n">
         <v>34</v>
@@ -7921,7 +7921,7 @@
         <v>44</v>
       </c>
       <c r="AM55" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN55" t="n">
         <v>27</v>
@@ -7969,13 +7969,13 @@
         <v>8</v>
       </c>
       <c r="J56" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K56" t="n">
         <v>4.8</v>
       </c>
-      <c r="K56" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L56" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M56" t="n">
         <v>1.05</v>
@@ -7993,16 +7993,16 @@
         <v>1.74</v>
       </c>
       <c r="R56" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S56" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T56" t="n">
         <v>1.92</v>
       </c>
       <c r="U56" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V56" t="n">
         <v>1.14</v>
@@ -8023,7 +8023,7 @@
         <v>240</v>
       </c>
       <c r="AB56" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC56" t="n">
         <v>10.5</v>
@@ -8035,7 +8035,7 @@
         <v>110</v>
       </c>
       <c r="AF56" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG56" t="n">
         <v>9.6</v>
@@ -8056,7 +8056,7 @@
         <v>32</v>
       </c>
       <c r="AM56" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN56" t="n">
         <v>6.6</v>
@@ -8104,34 +8104,34 @@
         <v>4.8</v>
       </c>
       <c r="J57" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K57" t="n">
         <v>4.8</v>
       </c>
       <c r="L57" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O57" t="n">
         <v>1.18</v>
       </c>
       <c r="P57" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R57" t="n">
         <v>1.63</v>
       </c>
       <c r="S57" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="T57" t="n">
         <v>1.6</v>
@@ -8227,76 +8227,76 @@
         </is>
       </c>
       <c r="F58" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T58" t="n">
         <v>1.86</v>
       </c>
-      <c r="G58" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N58" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S58" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.75</v>
-      </c>
       <c r="U58" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="V58" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W58" t="n">
         <v>2.1</v>
       </c>
       <c r="X58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y58" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA58" t="n">
         <v>120</v>
       </c>
       <c r="AB58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD58" t="n">
         <v>19</v>
@@ -8305,31 +8305,31 @@
         <v>150</v>
       </c>
       <c r="AF58" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG58" t="n">
         <v>10</v>
       </c>
       <c r="AH58" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI58" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AJ58" t="n">
         <v>20</v>
       </c>
       <c r="AK58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL58" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM58" t="n">
         <v>390</v>
       </c>
       <c r="AN58" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AO58" t="n">
         <v>280</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G59" t="n">
         <v>3.3</v>
       </c>
-      <c r="G59" t="n">
-        <v>3.35</v>
-      </c>
       <c r="H59" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I59" t="n">
         <v>2.64</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2.66</v>
       </c>
       <c r="J59" t="n">
         <v>3.1</v>
@@ -8380,7 +8380,7 @@
         <v>3.15</v>
       </c>
       <c r="L59" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M59" t="n">
         <v>1.12</v>
@@ -8401,7 +8401,7 @@
         <v>1.22</v>
       </c>
       <c r="S59" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T59" t="n">
         <v>2.06</v>
@@ -8413,7 +8413,7 @@
         <v>1.6</v>
       </c>
       <c r="W59" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X59" t="n">
         <v>9.199999999999999</v>
@@ -8446,7 +8446,7 @@
         <v>14.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI59" t="n">
         <v>60</v>
@@ -8503,10 +8503,10 @@
         <v>1.57</v>
       </c>
       <c r="H60" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I60" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J60" t="n">
         <v>4.2</v>
@@ -8515,34 +8515,34 @@
         <v>4.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O60" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P60" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R60" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S60" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T60" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="U60" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="V60" t="n">
         <v>1.14</v>
@@ -8551,55 +8551,55 @@
         <v>2.74</v>
       </c>
       <c r="X60" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y60" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z60" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="n">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="AB60" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC60" t="n">
         <v>10</v>
       </c>
       <c r="AD60" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AE60" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AF60" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG60" t="n">
         <v>11</v>
       </c>
       <c r="AH60" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI60" t="n">
         <v>520</v>
       </c>
       <c r="AJ60" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AL60" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM60" t="n">
         <v>580</v>
       </c>
       <c r="AN60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G61" t="n">
         <v>11</v>
       </c>
       <c r="H61" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="I61" t="n">
         <v>1.43</v>
@@ -8650,31 +8650,31 @@
         <v>5.8</v>
       </c>
       <c r="L61" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O61" t="n">
         <v>1.22</v>
       </c>
       <c r="P61" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R61" t="n">
         <v>1.51</v>
       </c>
       <c r="S61" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="T61" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U61" t="n">
         <v>1.87</v>
@@ -8689,7 +8689,7 @@
         <v>27</v>
       </c>
       <c r="Y61" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z61" t="n">
         <v>9.800000000000001</v>
@@ -8767,112 +8767,112 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.98</v>
+        <v>2.34</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="H62" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S62" t="n">
         <v>4.4</v>
       </c>
-      <c r="J62" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N62" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S62" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T62" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U62" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V62" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W62" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="X62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y62" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AA62" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB62" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD62" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AF62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG62" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH62" t="n">
         <v>21</v>
       </c>
       <c r="AI62" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AJ62" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK62" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AL62" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM62" t="n">
         <v>130</v>
       </c>
       <c r="AN62" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AO62" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
@@ -8902,58 +8902,58 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="G63" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H63" t="n">
-        <v>1.09</v>
+        <v>26</v>
       </c>
       <c r="I63" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K63" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="L63" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M63" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V63" t="n">
         <v>1.02</v>
       </c>
-      <c r="N63" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P63" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S63" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V63" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W63" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -8968,7 +8968,7 @@
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC63" t="n">
         <v>1000</v>
@@ -8980,10 +8980,10 @@
         <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH63" t="n">
         <v>1000</v>
@@ -8992,10 +8992,10 @@
         <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AK63" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL63" t="n">
         <v>1000</v>
@@ -9004,7 +9004,7 @@
         <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9040,7 +9040,7 @@
         <v>2.18</v>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H64" t="n">
         <v>3.4</v>
@@ -9055,19 +9055,19 @@
         <v>3.95</v>
       </c>
       <c r="L64" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M64" t="n">
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O64" t="n">
         <v>1.22</v>
       </c>
       <c r="P64" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q64" t="n">
         <v>1.68</v>
@@ -9076,7 +9076,7 @@
         <v>1.59</v>
       </c>
       <c r="S64" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T64" t="n">
         <v>1.6</v>
@@ -9088,10 +9088,10 @@
         <v>1.4</v>
       </c>
       <c r="W64" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y64" t="n">
         <v>18</v>
@@ -9118,7 +9118,7 @@
         <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH64" t="n">
         <v>15</v>
@@ -9127,7 +9127,7 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK64" t="n">
         <v>19.5</v>
@@ -9142,7 +9142,7 @@
         <v>11.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
@@ -9172,64 +9172,64 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G65" t="n">
         <v>3.4</v>
       </c>
       <c r="H65" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I65" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N65" t="n">
         <v>2.78</v>
       </c>
-      <c r="J65" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2.86</v>
-      </c>
       <c r="O65" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P65" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R65" t="n">
         <v>1.22</v>
       </c>
       <c r="S65" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T65" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U65" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V65" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="W65" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X65" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y65" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z65" t="n">
         <v>16.5</v>
@@ -9238,10 +9238,10 @@
         <v>900</v>
       </c>
       <c r="AB65" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC65" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD65" t="n">
         <v>13.5</v>
@@ -9313,16 +9313,16 @@
         <v>2.16</v>
       </c>
       <c r="H66" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I66" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="K66" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L66" t="n">
         <v>1.58</v>
@@ -9331,40 +9331,40 @@
         <v>1.12</v>
       </c>
       <c r="N66" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O66" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P66" t="n">
         <v>1.55</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R66" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S66" t="n">
-        <v>2.78</v>
+        <v>5</v>
       </c>
       <c r="T66" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="U66" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="V66" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W66" t="n">
         <v>1.86</v>
       </c>
       <c r="X66" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y66" t="n">
         <v>990</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>1000</v>
       </c>
       <c r="Z66" t="n">
         <v>1000</v>
@@ -9376,7 +9376,7 @@
         <v>15.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AD66" t="n">
         <v>1000</v>
@@ -9388,7 +9388,7 @@
         <v>1000</v>
       </c>
       <c r="AG66" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AH66" t="n">
         <v>1000</v>
@@ -9397,7 +9397,7 @@
         <v>1000</v>
       </c>
       <c r="AJ66" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AK66" t="n">
         <v>980</v>
@@ -9460,22 +9460,22 @@
         <v>3.4</v>
       </c>
       <c r="L67" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M67" t="n">
         <v>1.11</v>
       </c>
       <c r="N67" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="O67" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P67" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="R67" t="n">
         <v>1.22</v>
@@ -9484,7 +9484,7 @@
         <v>4.6</v>
       </c>
       <c r="T67" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U67" t="n">
         <v>1.87</v>
@@ -9496,7 +9496,7 @@
         <v>1.39</v>
       </c>
       <c r="X67" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y67" t="n">
         <v>9.800000000000001</v>
@@ -9517,7 +9517,7 @@
         <v>15</v>
       </c>
       <c r="AE67" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AF67" t="n">
         <v>25</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -9589,52 +9589,52 @@
         <v>5.9</v>
       </c>
       <c r="J68" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K68" t="n">
         <v>3.65</v>
       </c>
       <c r="L68" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M68" t="n">
         <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O68" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P68" t="n">
         <v>1.6</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R68" t="n">
         <v>1.21</v>
       </c>
       <c r="S68" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T68" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U68" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V68" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W68" t="n">
         <v>2</v>
       </c>
       <c r="X68" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y68" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z68" t="n">
         <v>980</v>
@@ -9643,7 +9643,7 @@
         <v>900</v>
       </c>
       <c r="AB68" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC68" t="n">
         <v>8.199999999999999</v>
@@ -9667,10 +9667,10 @@
         <v>130</v>
       </c>
       <c r="AJ68" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK68" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AL68" t="n">
         <v>460</v>
@@ -9682,7 +9682,7 @@
         <v>55</v>
       </c>
       <c r="AO68" t="n">
-        <v>190</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69">
@@ -9715,16 +9715,16 @@
         <v>1.74</v>
       </c>
       <c r="G69" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H69" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I69" t="n">
         <v>5.4</v>
       </c>
       <c r="J69" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K69" t="n">
         <v>4.3</v>
@@ -9733,10 +9733,10 @@
         <v>1.37</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N69" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O69" t="n">
         <v>1.28</v>
@@ -9745,25 +9745,25 @@
         <v>2.06</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R69" t="n">
         <v>1.41</v>
       </c>
       <c r="S69" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T69" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U69" t="n">
         <v>2.08</v>
       </c>
       <c r="V69" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W69" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X69" t="n">
         <v>90</v>
@@ -9790,7 +9790,7 @@
         <v>320</v>
       </c>
       <c r="AF69" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AG69" t="n">
         <v>16</v>
@@ -9814,10 +9814,10 @@
         <v>1000</v>
       </c>
       <c r="AN69" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO69" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -9847,46 +9847,46 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G70" t="n">
         <v>4.2</v>
       </c>
       <c r="H70" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="I70" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J70" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K70" t="n">
         <v>4.3</v>
       </c>
       <c r="L70" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M70" t="n">
         <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O70" t="n">
         <v>1.2</v>
       </c>
       <c r="P70" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R70" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S70" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T70" t="n">
         <v>1.58</v>
@@ -9895,7 +9895,7 @@
         <v>2.44</v>
       </c>
       <c r="V70" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W70" t="n">
         <v>1.31</v>
@@ -9946,7 +9946,7 @@
         <v>55</v>
       </c>
       <c r="AM70" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN70" t="n">
         <v>60</v>
@@ -9982,43 +9982,43 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G71" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H71" t="n">
         <v>1.71</v>
       </c>
       <c r="I71" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J71" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K71" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="M71" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N71" t="n">
         <v>3.15</v>
       </c>
       <c r="O71" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P71" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="R71" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S71" t="n">
         <v>4</v>
@@ -10027,22 +10027,22 @@
         <v>2.04</v>
       </c>
       <c r="U71" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V71" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W71" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X71" t="n">
         <v>1000</v>
       </c>
       <c r="Y71" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AA71" t="n">
         <v>1000</v>
@@ -10117,64 +10117,64 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="H72" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K72" t="n">
+        <v>6</v>
+      </c>
+      <c r="L72" t="n">
         <v>1.33</v>
       </c>
-      <c r="I72" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K72" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1.26</v>
-      </c>
       <c r="M72" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
         <v>4.7</v>
       </c>
       <c r="O72" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P72" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="R72" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S72" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="T72" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
         <v>1.83</v>
       </c>
       <c r="V72" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="W72" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
       </c>
       <c r="Y72" t="n">
-        <v>9.4</v>
+        <v>17.5</v>
       </c>
       <c r="Z72" t="n">
         <v>10.5</v>
@@ -10183,16 +10183,16 @@
         <v>12</v>
       </c>
       <c r="AB72" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AC72" t="n">
         <v>24</v>
       </c>
       <c r="AD72" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AE72" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AF72" t="n">
         <v>1000</v>
@@ -10201,7 +10201,7 @@
         <v>1000</v>
       </c>
       <c r="AH72" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AI72" t="n">
         <v>1000</v>
@@ -10222,7 +10222,7 @@
         <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="73">
@@ -10270,55 +10270,55 @@
         <v>6.2</v>
       </c>
       <c r="L73" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M73" t="n">
         <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O73" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P73" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="R73" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="S73" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="T73" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="U73" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="V73" t="n">
         <v>1.06</v>
       </c>
       <c r="W73" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X73" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y73" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z73" t="n">
         <v>160</v>
       </c>
       <c r="AA73" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="AB73" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC73" t="n">
         <v>14</v>
@@ -10327,37 +10327,37 @@
         <v>65</v>
       </c>
       <c r="AE73" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="AF73" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AG73" t="n">
         <v>11.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI73" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="AJ73" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AK73" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL73" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM73" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AN73" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AO73" t="n">
-        <v>610</v>
+        <v>800</v>
       </c>
     </row>
     <row r="74">
@@ -10396,7 +10396,7 @@
         <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J74" t="n">
         <v>3.25</v>
@@ -10405,16 +10405,16 @@
         <v>3.5</v>
       </c>
       <c r="L74" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="M74" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N74" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="O74" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P74" t="n">
         <v>1.78</v>
@@ -10423,16 +10423,16 @@
         <v>2.16</v>
       </c>
       <c r="R74" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S74" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="T74" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="U74" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="V74" t="n">
         <v>1.44</v>
@@ -10441,58 +10441,58 @@
         <v>1.6</v>
       </c>
       <c r="X74" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Z74" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AA74" t="n">
         <v>500</v>
       </c>
       <c r="AB74" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AC74" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD74" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE74" t="n">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AF74" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AI74" t="n">
         <v>290</v>
       </c>
       <c r="AJ74" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK74" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL74" t="n">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AM74" t="n">
         <v>1000</v>
       </c>
       <c r="AN74" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AO74" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75">
@@ -10522,10 +10522,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G75" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H75" t="n">
         <v>1.52</v>
@@ -10540,43 +10540,43 @@
         <v>5.1</v>
       </c>
       <c r="L75" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M75" t="n">
         <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O75" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P75" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R75" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S75" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T75" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U75" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V75" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="W75" t="n">
         <v>1.16</v>
       </c>
       <c r="X75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y75" t="n">
         <v>9.6</v>
@@ -10585,16 +10585,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AA75" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB75" t="n">
         <v>26</v>
       </c>
       <c r="AC75" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD75" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE75" t="n">
         <v>14</v>
@@ -10603,28 +10603,28 @@
         <v>60</v>
       </c>
       <c r="AG75" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI75" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ75" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AK75" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN75" t="n">
         <v>90</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>100</v>
       </c>
       <c r="AO75" t="n">
         <v>6.6</v>
@@ -10657,19 +10657,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G76" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H76" t="n">
         <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J76" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K76" t="n">
         <v>4.8</v>
@@ -10681,10 +10681,10 @@
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P76" t="n">
         <v>2.34</v>
@@ -10693,13 +10693,13 @@
         <v>1.64</v>
       </c>
       <c r="R76" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S76" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T76" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U76" t="n">
         <v>2.2</v>
@@ -10708,10 +10708,10 @@
         <v>1.2</v>
       </c>
       <c r="W76" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X76" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y76" t="n">
         <v>26</v>
@@ -10729,13 +10729,13 @@
         <v>10.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE76" t="n">
         <v>80</v>
       </c>
       <c r="AF76" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG76" t="n">
         <v>10.5</v>
@@ -10747,10 +10747,10 @@
         <v>330</v>
       </c>
       <c r="AJ76" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL76" t="n">
         <v>30</v>
@@ -10759,7 +10759,7 @@
         <v>110</v>
       </c>
       <c r="AN76" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO76" t="n">
         <v>1000</v>
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="I77" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="J77" t="n">
         <v>3.6</v>
@@ -10810,61 +10810,61 @@
         <v>3.65</v>
       </c>
       <c r="L77" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O77" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P77" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="R77" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S77" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="T77" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U77" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="W77" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X77" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB77" t="n">
         <v>16</v>
       </c>
-      <c r="Y77" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>15</v>
-      </c>
       <c r="AC77" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD77" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE77" t="n">
         <v>22</v>
@@ -10876,7 +10876,7 @@
         <v>14</v>
       </c>
       <c r="AH77" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI77" t="n">
         <v>34</v>
@@ -10891,13 +10891,13 @@
         <v>42</v>
       </c>
       <c r="AM77" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN77" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO77" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="78">
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="G78" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="H78" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K78" t="n">
         <v>3.55</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K78" t="n">
-        <v>3.5</v>
       </c>
       <c r="L78" t="n">
         <v>1.36</v>
@@ -10951,46 +10951,46 @@
         <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O78" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P78" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R78" t="n">
         <v>1.47</v>
       </c>
       <c r="S78" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T78" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U78" t="n">
         <v>2.38</v>
       </c>
       <c r="V78" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W78" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="X78" t="n">
         <v>17</v>
       </c>
       <c r="Y78" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z78" t="n">
         <v>26</v>
       </c>
       <c r="AA78" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB78" t="n">
         <v>12</v>
@@ -11002,37 +11002,37 @@
         <v>14.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF78" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG78" t="n">
         <v>11.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ78" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AK78" t="n">
         <v>23</v>
       </c>
       <c r="AL78" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO78" t="n">
         <v>34</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="79">
@@ -11062,112 +11062,112 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G79" t="n">
         <v>3.15</v>
       </c>
       <c r="H79" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="I79" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J79" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K79" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L79" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M79" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N79" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="O79" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="P79" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="R79" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="S79" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="T79" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V79" t="n">
         <v>1.7</v>
       </c>
-      <c r="U79" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V79" t="n">
-        <v>1.68</v>
-      </c>
       <c r="W79" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X79" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y79" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z79" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AA79" t="n">
         <v>34</v>
       </c>
       <c r="AB79" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD79" t="n">
         <v>11.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF79" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG79" t="n">
         <v>13</v>
       </c>
       <c r="AH79" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AJ79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK79" t="n">
         <v>32</v>
       </c>
       <c r="AL79" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM79" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AN79" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AO79" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="80">
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G80" t="n">
         <v>1.26</v>
       </c>
       <c r="H80" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I80" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J80" t="n">
         <v>7</v>
       </c>
       <c r="K80" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L80" t="n">
         <v>1.28</v>
@@ -11221,46 +11221,46 @@
         <v>1.03</v>
       </c>
       <c r="N80" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O80" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P80" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R80" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S80" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T80" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U80" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V80" t="n">
         <v>1.06</v>
       </c>
       <c r="W80" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="X80" t="n">
         <v>32</v>
       </c>
       <c r="Y80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z80" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA80" t="n">
-        <v>860</v>
+        <v>750</v>
       </c>
       <c r="AB80" t="n">
         <v>10.5</v>
@@ -11272,7 +11272,7 @@
         <v>55</v>
       </c>
       <c r="AE80" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AF80" t="n">
         <v>8</v>
@@ -11296,13 +11296,13 @@
         <v>40</v>
       </c>
       <c r="AM80" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AO80" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81">
@@ -11332,58 +11332,58 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="G81" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="H81" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="I81" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="J81" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K81" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L81" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M81" t="n">
         <v>1.06</v>
       </c>
       <c r="N81" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O81" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P81" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R81" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S81" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T81" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U81" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="V81" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="W81" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X81" t="n">
         <v>15.5</v>
@@ -11392,52 +11392,52 @@
         <v>8</v>
       </c>
       <c r="Z81" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AA81" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC81" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD81" t="n">
         <v>9.6</v>
       </c>
       <c r="AE81" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG81" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AH81" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI81" t="n">
         <v>38</v>
       </c>
       <c r="AJ81" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AK81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN81" t="n">
         <v>120</v>
       </c>
-      <c r="AL81" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>160</v>
-      </c>
       <c r="AO81" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -11467,58 +11467,58 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G82" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H82" t="n">
         <v>4.8</v>
       </c>
       <c r="I82" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J82" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K82" t="n">
         <v>3.8</v>
       </c>
       <c r="L82" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M82" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O82" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P82" t="n">
         <v>1.76</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R82" t="n">
         <v>1.28</v>
       </c>
       <c r="S82" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T82" t="n">
         <v>1.96</v>
       </c>
       <c r="U82" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V82" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W82" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X82" t="n">
         <v>12.5</v>
@@ -11527,7 +11527,7 @@
         <v>15.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AA82" t="n">
         <v>160</v>
@@ -11539,7 +11539,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD82" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AE82" t="n">
         <v>480</v>
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G83" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="H83" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="I83" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J83" t="n">
         <v>3.45</v>
@@ -11620,46 +11620,46 @@
         <v>3.65</v>
       </c>
       <c r="L83" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M83" t="n">
         <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O83" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P83" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="R83" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S83" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T83" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U83" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V83" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W83" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="X83" t="n">
         <v>36</v>
       </c>
       <c r="Y83" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Z83" t="n">
         <v>980</v>
@@ -11686,7 +11686,7 @@
         <v>32</v>
       </c>
       <c r="AH83" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AI83" t="n">
         <v>1000</v>
@@ -11695,7 +11695,7 @@
         <v>1000</v>
       </c>
       <c r="AK83" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AL83" t="n">
         <v>1000</v>
@@ -11737,109 +11737,109 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H84" t="n">
         <v>4.2</v>
       </c>
       <c r="I84" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N84" t="n">
         <v>3.45</v>
       </c>
-      <c r="K84" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L84" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N84" t="n">
-        <v>3</v>
-      </c>
       <c r="O84" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P84" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R84" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S84" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="T84" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U84" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V84" t="n">
         <v>1.28</v>
       </c>
       <c r="W84" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X84" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y84" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA84" t="n">
         <v>300</v>
       </c>
       <c r="AB84" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC84" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD84" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE84" t="n">
         <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG84" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH84" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI84" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ84" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK84" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL84" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM84" t="n">
         <v>580</v>
       </c>
       <c r="AN84" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO84" t="n">
         <v>1000</v>
@@ -11872,16 +11872,16 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G85" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H85" t="n">
         <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J85" t="n">
         <v>2.98</v>
@@ -11890,13 +11890,13 @@
         <v>3.15</v>
       </c>
       <c r="L85" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M85" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N85" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="O85" t="n">
         <v>1.52</v>
@@ -11905,22 +11905,22 @@
         <v>1.58</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="R85" t="n">
         <v>1.2</v>
       </c>
       <c r="S85" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U85" t="n">
         <v>1.83</v>
       </c>
       <c r="V85" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W85" t="n">
         <v>1.53</v>
@@ -11932,13 +11932,13 @@
         <v>10.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA85" t="n">
         <v>350</v>
       </c>
       <c r="AB85" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC85" t="n">
         <v>8.4</v>
@@ -11947,7 +11947,7 @@
         <v>14.5</v>
       </c>
       <c r="AE85" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AF85" t="n">
         <v>18</v>
@@ -12007,43 +12007,43 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H86" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I86" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J86" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K86" t="n">
         <v>3.2</v>
       </c>
       <c r="L86" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M86" t="n">
         <v>1.11</v>
       </c>
       <c r="N86" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="O86" t="n">
         <v>1.48</v>
       </c>
       <c r="P86" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R86" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S86" t="n">
         <v>4.8</v>
@@ -12055,19 +12055,19 @@
         <v>1.86</v>
       </c>
       <c r="V86" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W86" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X86" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y86" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z86" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AA86" t="n">
         <v>1000</v>
@@ -12076,7 +12076,7 @@
         <v>8</v>
       </c>
       <c r="AC86" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD86" t="n">
         <v>30</v>
@@ -12085,13 +12085,13 @@
         <v>1000</v>
       </c>
       <c r="AF86" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG86" t="n">
         <v>12</v>
       </c>
       <c r="AH86" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI86" t="n">
         <v>390</v>
@@ -12100,7 +12100,7 @@
         <v>1000</v>
       </c>
       <c r="AK86" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AL86" t="n">
         <v>1000</v>
@@ -12142,64 +12142,64 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H87" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I87" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J87" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K87" t="n">
         <v>3.65</v>
       </c>
       <c r="L87" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M87" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O87" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P87" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="R87" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S87" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T87" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="U87" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="V87" t="n">
         <v>1.4</v>
       </c>
       <c r="W87" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X87" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y87" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z87" t="n">
         <v>46</v>
@@ -12208,10 +12208,10 @@
         <v>160</v>
       </c>
       <c r="AB87" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC87" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD87" t="n">
         <v>15</v>
@@ -12220,13 +12220,13 @@
         <v>980</v>
       </c>
       <c r="AF87" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG87" t="n">
         <v>12</v>
       </c>
       <c r="AH87" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI87" t="n">
         <v>980</v>
@@ -12244,7 +12244,7 @@
         <v>580</v>
       </c>
       <c r="AN87" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AO87" t="n">
         <v>1000</v>
@@ -12277,31 +12277,31 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H88" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J88" t="n">
         <v>3.35</v>
       </c>
       <c r="K88" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L88" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M88" t="n">
         <v>1.08</v>
       </c>
       <c r="N88" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="O88" t="n">
         <v>1.36</v>
@@ -12310,13 +12310,13 @@
         <v>1.85</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R88" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S88" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T88" t="n">
         <v>1.84</v>
@@ -12325,7 +12325,7 @@
         <v>2.02</v>
       </c>
       <c r="V88" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="W88" t="n">
         <v>1.32</v>
@@ -12412,46 +12412,46 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G89" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>3.2</v>
       </c>
       <c r="I89" t="n">
-        <v>4.6</v>
+        <v>13</v>
       </c>
       <c r="J89" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K89" t="n">
         <v>3.45</v>
       </c>
       <c r="L89" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="M89" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N89" t="n">
-        <v>1.1</v>
+        <v>2.78</v>
       </c>
       <c r="O89" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="P89" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="R89" t="n">
         <v>1.2</v>
       </c>
       <c r="S89" t="n">
-        <v>1.05</v>
+        <v>4.8</v>
       </c>
       <c r="T89" t="n">
         <v>1.04</v>
@@ -12460,10 +12460,10 @@
         <v>1.04</v>
       </c>
       <c r="V89" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W89" t="n">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="X89" t="n">
         <v>1000</v>
@@ -12547,19 +12547,19 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G90" t="n">
         <v>1.98</v>
       </c>
       <c r="H90" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I90" t="n">
         <v>5.5</v>
       </c>
       <c r="J90" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K90" t="n">
         <v>3.7</v>
@@ -12577,7 +12577,7 @@
         <v>1.38</v>
       </c>
       <c r="P90" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q90" t="n">
         <v>2.14</v>
@@ -12595,7 +12595,7 @@
         <v>1.9</v>
       </c>
       <c r="V90" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W90" t="n">
         <v>2.02</v>
@@ -12610,7 +12610,7 @@
         <v>38</v>
       </c>
       <c r="AA90" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB90" t="n">
         <v>8.800000000000001</v>
@@ -12619,7 +12619,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE90" t="n">
         <v>80</v>
@@ -12649,7 +12649,7 @@
         <v>170</v>
       </c>
       <c r="AN90" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO90" t="n">
         <v>110</v>
@@ -12697,37 +12697,37 @@
         <v>3.25</v>
       </c>
       <c r="K91" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L91" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O91" t="n">
         <v>1.45</v>
       </c>
-      <c r="M91" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N91" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O91" t="n">
-        <v>1.36</v>
-      </c>
       <c r="P91" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="R91" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S91" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T91" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="U91" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="V91" t="n">
         <v>1.38</v>
@@ -12736,10 +12736,10 @@
         <v>1.7</v>
       </c>
       <c r="X91" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z91" t="n">
         <v>24</v>
@@ -12748,46 +12748,46 @@
         <v>65</v>
       </c>
       <c r="AB91" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC91" t="n">
         <v>7.2</v>
       </c>
       <c r="AD91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF91" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>15</v>
       </c>
       <c r="AG91" t="n">
         <v>11.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI91" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ91" t="n">
         <v>32</v>
       </c>
       <c r="AK91" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN91" t="n">
         <v>26</v>
       </c>
-      <c r="AL91" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>21</v>
-      </c>
       <c r="AO91" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92">
@@ -12820,7 +12820,7 @@
         <v>6.4</v>
       </c>
       <c r="G92" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H92" t="n">
         <v>1.52</v>
@@ -12835,34 +12835,34 @@
         <v>5.3</v>
       </c>
       <c r="L92" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="O92" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P92" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="R92" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="S92" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="T92" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U92" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="V92" t="n">
         <v>2.88</v>
@@ -12871,22 +12871,22 @@
         <v>1.17</v>
       </c>
       <c r="X92" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Y92" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z92" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC92" t="n">
         <v>12</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>13</v>
       </c>
       <c r="AD92" t="n">
         <v>10.5</v>
@@ -12901,28 +12901,28 @@
         <v>24</v>
       </c>
       <c r="AH92" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI92" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ92" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK92" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN92" t="n">
         <v>65</v>
       </c>
-      <c r="AL92" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>55</v>
-      </c>
       <c r="AO92" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="93">
@@ -12952,112 +12952,112 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G93" t="n">
         <v>2.18</v>
       </c>
       <c r="H93" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I93" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J93" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K93" t="n">
         <v>3.2</v>
       </c>
       <c r="L93" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="M93" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N93" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O93" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="P93" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="R93" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S93" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="T93" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="U93" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="V93" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W93" t="n">
         <v>1.84</v>
       </c>
       <c r="X93" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y93" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z93" t="n">
         <v>29</v>
       </c>
       <c r="AA93" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AB93" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC93" t="n">
         <v>7.2</v>
       </c>
       <c r="AD93" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AE93" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF93" t="n">
         <v>12</v>
       </c>
       <c r="AG93" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI93" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ93" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK93" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL93" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO93" t="n">
         <v>130</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -13087,16 +13087,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="H94" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I94" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J94" t="n">
         <v>4</v>
@@ -13105,52 +13105,52 @@
         <v>4.1</v>
       </c>
       <c r="L94" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M94" t="n">
         <v>1.05</v>
       </c>
       <c r="N94" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O94" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P94" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R94" t="n">
         <v>1.53</v>
       </c>
       <c r="S94" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T94" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U94" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V94" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W94" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="X94" t="n">
         <v>19</v>
       </c>
       <c r="Y94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z94" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA94" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB94" t="n">
         <v>11.5</v>
@@ -13162,22 +13162,22 @@
         <v>17.5</v>
       </c>
       <c r="AE94" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF94" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH94" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI94" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ94" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK94" t="n">
         <v>17.5</v>
@@ -13186,13 +13186,13 @@
         <v>30</v>
       </c>
       <c r="AM94" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN94" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO94" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95">
@@ -13222,40 +13222,40 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="H95" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="I95" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="J95" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K95" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L95" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M95" t="n">
         <v>1.11</v>
       </c>
       <c r="N95" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O95" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P95" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R95" t="n">
         <v>1.24</v>
@@ -13264,46 +13264,46 @@
         <v>4.7</v>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U95" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V95" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="W95" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="X95" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y95" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Z95" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA95" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB95" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD95" t="n">
         <v>11.5</v>
       </c>
       <c r="AE95" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF95" t="n">
         <v>32</v>
       </c>
-      <c r="AF95" t="n">
-        <v>27</v>
-      </c>
       <c r="AG95" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AH95" t="n">
         <v>21</v>
@@ -13312,22 +13312,22 @@
         <v>55</v>
       </c>
       <c r="AJ95" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK95" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AL95" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM95" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN95" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AO95" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -13360,16 +13360,16 @@
         <v>1.83</v>
       </c>
       <c r="G96" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H96" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I96" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J96" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K96" t="n">
         <v>3.9</v>
@@ -13381,40 +13381,40 @@
         <v>1.07</v>
       </c>
       <c r="N96" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O96" t="n">
         <v>1.33</v>
       </c>
       <c r="P96" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R96" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S96" t="n">
         <v>3.55</v>
       </c>
       <c r="T96" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U96" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V96" t="n">
         <v>1.24</v>
       </c>
       <c r="W96" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X96" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="Z96" t="n">
         <v>1000</v>
@@ -13429,28 +13429,28 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD96" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE96" t="n">
         <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG96" t="n">
         <v>11</v>
       </c>
       <c r="AH96" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI96" t="n">
         <v>1000</v>
       </c>
       <c r="AJ96" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK96" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL96" t="n">
         <v>1000</v>
@@ -13459,7 +13459,7 @@
         <v>1000</v>
       </c>
       <c r="AN96" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO96" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,141 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-01-03</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Universidad Guadalajara</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Monterrey</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>6.8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
